--- a/hang/Copy of tenhang.xlsx
+++ b/hang/Copy of tenhang.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="436">
   <si>
     <t>STT</t>
   </si>
@@ -1661,7 +1661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1867,28 +1867,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1900,13 +1879,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1921,8 +1894,59 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2219,9 +2243,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L1235"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A726" sqref="A726:L730"/>
+      <selection pane="bottomLeft" activeCell="A866" sqref="A866:L867"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3513,7 +3537,7 @@
       <c r="B56" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="70"/>
+      <c r="C56" s="78"/>
       <c r="D56" s="35" t="s">
         <v>10</v>
       </c>
@@ -3533,7 +3557,7 @@
       <c r="B57" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="71"/>
+      <c r="C57" s="79"/>
       <c r="D57" s="36" t="s">
         <v>10</v>
       </c>
@@ -3553,7 +3577,7 @@
       <c r="B58" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="71"/>
+      <c r="C58" s="79"/>
       <c r="D58" s="36" t="s">
         <v>10</v>
       </c>
@@ -3573,7 +3597,7 @@
       <c r="B59" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="71"/>
+      <c r="C59" s="79"/>
       <c r="D59" s="36" t="s">
         <v>10</v>
       </c>
@@ -3593,7 +3617,7 @@
       <c r="B60" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="71"/>
+      <c r="C60" s="79"/>
       <c r="D60" s="36" t="s">
         <v>10</v>
       </c>
@@ -3613,7 +3637,7 @@
       <c r="B61" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="71"/>
+      <c r="C61" s="79"/>
       <c r="D61" s="36" t="s">
         <v>10</v>
       </c>
@@ -3633,7 +3657,7 @@
       <c r="B62" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="71"/>
+      <c r="C62" s="79"/>
       <c r="D62" s="36" t="s">
         <v>10</v>
       </c>
@@ -3653,7 +3677,7 @@
       <c r="B63" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="71"/>
+      <c r="C63" s="79"/>
       <c r="D63" s="36" t="s">
         <v>10</v>
       </c>
@@ -3673,7 +3697,7 @@
       <c r="B64" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="72"/>
+      <c r="C64" s="80"/>
       <c r="D64" s="37" t="s">
         <v>10</v>
       </c>
@@ -3707,7 +3731,7 @@
       <c r="B66" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="70"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="35" t="s">
         <v>11</v>
       </c>
@@ -3731,7 +3755,7 @@
       <c r="B67" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="71"/>
+      <c r="C67" s="79"/>
       <c r="D67" s="36" t="s">
         <v>11</v>
       </c>
@@ -3751,7 +3775,7 @@
       <c r="B68" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="71"/>
+      <c r="C68" s="79"/>
       <c r="D68" s="36" t="s">
         <v>11</v>
       </c>
@@ -3771,7 +3795,7 @@
       <c r="B69" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="71"/>
+      <c r="C69" s="79"/>
       <c r="D69" s="36" t="s">
         <v>11</v>
       </c>
@@ -3791,7 +3815,7 @@
       <c r="B70" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="71"/>
+      <c r="C70" s="79"/>
       <c r="D70" s="36" t="s">
         <v>11</v>
       </c>
@@ -3811,7 +3835,7 @@
       <c r="B71" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="71"/>
+      <c r="C71" s="79"/>
       <c r="D71" s="36" t="s">
         <v>11</v>
       </c>
@@ -3831,7 +3855,7 @@
       <c r="B72" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="71"/>
+      <c r="C72" s="79"/>
       <c r="D72" s="36" t="s">
         <v>11</v>
       </c>
@@ -3851,7 +3875,7 @@
       <c r="B73" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="71"/>
+      <c r="C73" s="79"/>
       <c r="D73" s="36" t="s">
         <v>11</v>
       </c>
@@ -3871,7 +3895,7 @@
       <c r="B74" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="72"/>
+      <c r="C74" s="80"/>
       <c r="D74" s="37" t="s">
         <v>11</v>
       </c>
@@ -3905,7 +3929,7 @@
       <c r="B76" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="70"/>
+      <c r="C76" s="78"/>
       <c r="D76" s="35" t="s">
         <v>12</v>
       </c>
@@ -3927,7 +3951,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C77" s="71"/>
+      <c r="C77" s="79"/>
       <c r="D77" s="36" t="str">
         <f t="shared" ref="D77:D84" si="1">D76</f>
         <v>A1908060 (8)</v>
@@ -3950,7 +3974,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C78" s="71"/>
+      <c r="C78" s="79"/>
       <c r="D78" s="36" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -3973,7 +3997,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C79" s="71"/>
+      <c r="C79" s="79"/>
       <c r="D79" s="36" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -3996,7 +4020,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C80" s="71"/>
+      <c r="C80" s="79"/>
       <c r="D80" s="36" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -4019,7 +4043,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C81" s="71"/>
+      <c r="C81" s="79"/>
       <c r="D81" s="36" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -4042,7 +4066,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C82" s="71"/>
+      <c r="C82" s="79"/>
       <c r="D82" s="36" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -4065,7 +4089,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C83" s="71"/>
+      <c r="C83" s="79"/>
       <c r="D83" s="36" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -4088,7 +4112,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C84" s="72"/>
+      <c r="C84" s="80"/>
       <c r="D84" s="37" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -4123,7 +4147,7 @@
       <c r="B86" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C86" s="70"/>
+      <c r="C86" s="78"/>
       <c r="D86" s="35" t="s">
         <v>13</v>
       </c>
@@ -4145,7 +4169,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C87" s="71"/>
+      <c r="C87" s="79"/>
       <c r="D87" s="36" t="str">
         <f t="shared" ref="D87:D94" si="3">D86</f>
         <v>A2006064 (8)</v>
@@ -4168,7 +4192,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C88" s="71"/>
+      <c r="C88" s="79"/>
       <c r="D88" s="36" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4191,7 +4215,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C89" s="71"/>
+      <c r="C89" s="79"/>
       <c r="D89" s="36" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4214,7 +4238,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C90" s="71"/>
+      <c r="C90" s="79"/>
       <c r="D90" s="36" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4237,7 +4261,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C91" s="71"/>
+      <c r="C91" s="79"/>
       <c r="D91" s="36" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4260,7 +4284,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C92" s="71"/>
+      <c r="C92" s="79"/>
       <c r="D92" s="36" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4283,7 +4307,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C93" s="71"/>
+      <c r="C93" s="79"/>
       <c r="D93" s="36" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4306,7 +4330,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C94" s="72"/>
+      <c r="C94" s="80"/>
       <c r="D94" s="37" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4341,7 +4365,7 @@
       <c r="B96" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="70"/>
+      <c r="C96" s="78"/>
       <c r="D96" s="35" t="s">
         <v>14</v>
       </c>
@@ -4363,7 +4387,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C97" s="71"/>
+      <c r="C97" s="79"/>
       <c r="D97" s="36" t="str">
         <f t="shared" ref="D97:D104" si="5">D96</f>
         <v>A2006063  (8)</v>
@@ -4386,7 +4410,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C98" s="71"/>
+      <c r="C98" s="79"/>
       <c r="D98" s="36" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4409,7 +4433,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C99" s="71"/>
+      <c r="C99" s="79"/>
       <c r="D99" s="36" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4432,7 +4456,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C100" s="71"/>
+      <c r="C100" s="79"/>
       <c r="D100" s="36" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4455,7 +4479,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C101" s="71"/>
+      <c r="C101" s="79"/>
       <c r="D101" s="36" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4478,7 +4502,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C102" s="71"/>
+      <c r="C102" s="79"/>
       <c r="D102" s="36" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4501,7 +4525,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C103" s="71"/>
+      <c r="C103" s="79"/>
       <c r="D103" s="36" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4524,7 +4548,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C104" s="72"/>
+      <c r="C104" s="80"/>
       <c r="D104" s="37" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4559,7 +4583,7 @@
       <c r="B106" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="70"/>
+      <c r="C106" s="78"/>
       <c r="D106" s="35" t="s">
         <v>15</v>
       </c>
@@ -4581,7 +4605,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C107" s="71"/>
+      <c r="C107" s="79"/>
       <c r="D107" s="36" t="str">
         <f t="shared" ref="D107:D114" si="7">D106</f>
         <v>A1609173 (8)</v>
@@ -4604,7 +4628,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C108" s="71"/>
+      <c r="C108" s="79"/>
       <c r="D108" s="36" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4627,7 +4651,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C109" s="71"/>
+      <c r="C109" s="79"/>
       <c r="D109" s="36" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4650,7 +4674,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C110" s="71"/>
+      <c r="C110" s="79"/>
       <c r="D110" s="36" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4673,7 +4697,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C111" s="71"/>
+      <c r="C111" s="79"/>
       <c r="D111" s="36" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4696,7 +4720,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C112" s="71"/>
+      <c r="C112" s="79"/>
       <c r="D112" s="36" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4719,7 +4743,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C113" s="71"/>
+      <c r="C113" s="79"/>
       <c r="D113" s="36" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4742,7 +4766,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C114" s="72"/>
+      <c r="C114" s="80"/>
       <c r="D114" s="37" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4777,7 +4801,7 @@
       <c r="B116" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C116" s="70"/>
+      <c r="C116" s="78"/>
       <c r="D116" s="24" t="s">
         <v>219</v>
       </c>
@@ -4803,7 +4827,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C117" s="71"/>
+      <c r="C117" s="79"/>
       <c r="D117" s="25" t="str">
         <f t="shared" ref="D117:D124" si="9">D116</f>
         <v>A1609174 (9)
@@ -4827,7 +4851,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C118" s="71"/>
+      <c r="C118" s="79"/>
       <c r="D118" s="25" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -4851,7 +4875,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C119" s="71"/>
+      <c r="C119" s="79"/>
       <c r="D119" s="25" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -4875,7 +4899,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C120" s="71"/>
+      <c r="C120" s="79"/>
       <c r="D120" s="25" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -4899,7 +4923,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C121" s="71"/>
+      <c r="C121" s="79"/>
       <c r="D121" s="25" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -4923,7 +4947,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C122" s="71"/>
+      <c r="C122" s="79"/>
       <c r="D122" s="25" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -4947,7 +4971,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C123" s="71"/>
+      <c r="C123" s="79"/>
       <c r="D123" s="25" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -4971,7 +4995,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C124" s="72"/>
+      <c r="C124" s="80"/>
       <c r="D124" s="26" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -5007,7 +5031,7 @@
       <c r="B126" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C126" s="70"/>
+      <c r="C126" s="78"/>
       <c r="D126" s="35" t="s">
         <v>16</v>
       </c>
@@ -5033,7 +5057,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C127" s="71"/>
+      <c r="C127" s="79"/>
       <c r="D127" s="36" t="str">
         <f t="shared" ref="D127:D134" si="11">D126</f>
         <v>A1908056  (9)</v>
@@ -5056,7 +5080,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C128" s="71"/>
+      <c r="C128" s="79"/>
       <c r="D128" s="36" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5079,7 +5103,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C129" s="71"/>
+      <c r="C129" s="79"/>
       <c r="D129" s="36" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5102,7 +5126,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C130" s="71"/>
+      <c r="C130" s="79"/>
       <c r="D130" s="36" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5125,7 +5149,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C131" s="71"/>
+      <c r="C131" s="79"/>
       <c r="D131" s="36" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5148,7 +5172,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C132" s="71"/>
+      <c r="C132" s="79"/>
       <c r="D132" s="36" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5171,7 +5195,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C133" s="71"/>
+      <c r="C133" s="79"/>
       <c r="D133" s="36" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5194,7 +5218,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C134" s="72"/>
+      <c r="C134" s="80"/>
       <c r="D134" s="37" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5229,7 +5253,7 @@
       <c r="B136" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C136" s="70"/>
+      <c r="C136" s="78"/>
       <c r="D136" s="35" t="s">
         <v>17</v>
       </c>
@@ -5251,7 +5275,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C137" s="71"/>
+      <c r="C137" s="79"/>
       <c r="D137" s="36" t="str">
         <f t="shared" ref="D137:D144" si="13">D136</f>
         <v>A1908061 (10)</v>
@@ -5274,7 +5298,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C138" s="71"/>
+      <c r="C138" s="79"/>
       <c r="D138" s="36" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5297,7 +5321,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C139" s="71"/>
+      <c r="C139" s="79"/>
       <c r="D139" s="36" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5320,7 +5344,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C140" s="71"/>
+      <c r="C140" s="79"/>
       <c r="D140" s="36" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5343,7 +5367,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C141" s="71"/>
+      <c r="C141" s="79"/>
       <c r="D141" s="36" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5366,7 +5390,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C142" s="71"/>
+      <c r="C142" s="79"/>
       <c r="D142" s="36" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5389,7 +5413,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C143" s="71"/>
+      <c r="C143" s="79"/>
       <c r="D143" s="36" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5412,7 +5436,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C144" s="72"/>
+      <c r="C144" s="80"/>
       <c r="D144" s="37" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5447,7 +5471,7 @@
       <c r="B146" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C146" s="70"/>
+      <c r="C146" s="78"/>
       <c r="D146" s="35" t="s">
         <v>18</v>
       </c>
@@ -5469,7 +5493,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C147" s="71"/>
+      <c r="C147" s="79"/>
       <c r="D147" s="36" t="str">
         <f t="shared" ref="D147:D154" si="15">D146</f>
         <v>A1908062  (10)</v>
@@ -5492,7 +5516,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C148" s="71"/>
+      <c r="C148" s="79"/>
       <c r="D148" s="36" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5515,7 +5539,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C149" s="71"/>
+      <c r="C149" s="79"/>
       <c r="D149" s="36" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5538,7 +5562,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C150" s="71"/>
+      <c r="C150" s="79"/>
       <c r="D150" s="36" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5561,7 +5585,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C151" s="71"/>
+      <c r="C151" s="79"/>
       <c r="D151" s="36" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5584,7 +5608,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C152" s="71"/>
+      <c r="C152" s="79"/>
       <c r="D152" s="36" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5607,7 +5631,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C153" s="71"/>
+      <c r="C153" s="79"/>
       <c r="D153" s="36" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5630,7 +5654,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C154" s="72"/>
+      <c r="C154" s="80"/>
       <c r="D154" s="37" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5665,7 +5689,7 @@
       <c r="B156" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C156" s="70"/>
+      <c r="C156" s="78"/>
       <c r="D156" s="35" t="s">
         <v>19</v>
       </c>
@@ -5687,7 +5711,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C157" s="71"/>
+      <c r="C157" s="79"/>
       <c r="D157" s="36" t="str">
         <f t="shared" ref="D157:D164" si="17">D156</f>
         <v>A1907024  (10)</v>
@@ -5710,7 +5734,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C158" s="71"/>
+      <c r="C158" s="79"/>
       <c r="D158" s="36" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -5733,7 +5757,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C159" s="71"/>
+      <c r="C159" s="79"/>
       <c r="D159" s="36" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -5756,7 +5780,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C160" s="71"/>
+      <c r="C160" s="79"/>
       <c r="D160" s="36" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -5779,7 +5803,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C161" s="71"/>
+      <c r="C161" s="79"/>
       <c r="D161" s="36" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -5802,7 +5826,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C162" s="71"/>
+      <c r="C162" s="79"/>
       <c r="D162" s="36" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -5825,7 +5849,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C163" s="71"/>
+      <c r="C163" s="79"/>
       <c r="D163" s="36" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -5848,7 +5872,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C164" s="72"/>
+      <c r="C164" s="80"/>
       <c r="D164" s="37" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -5883,7 +5907,7 @@
       <c r="B166" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C166" s="70"/>
+      <c r="C166" s="78"/>
       <c r="D166" s="35" t="s">
         <v>20</v>
       </c>
@@ -5905,7 +5929,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C167" s="71"/>
+      <c r="C167" s="79"/>
       <c r="D167" s="36" t="str">
         <f t="shared" ref="D167:D174" si="19">D166</f>
         <v>A14008113  (4)</v>
@@ -5928,7 +5952,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C168" s="71"/>
+      <c r="C168" s="79"/>
       <c r="D168" s="36" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -5951,7 +5975,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C169" s="71"/>
+      <c r="C169" s="79"/>
       <c r="D169" s="36" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -5974,7 +5998,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C170" s="71"/>
+      <c r="C170" s="79"/>
       <c r="D170" s="36" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -5997,7 +6021,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C171" s="71"/>
+      <c r="C171" s="79"/>
       <c r="D171" s="36" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -6020,7 +6044,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C172" s="71"/>
+      <c r="C172" s="79"/>
       <c r="D172" s="36" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -6043,7 +6067,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C173" s="71"/>
+      <c r="C173" s="79"/>
       <c r="D173" s="36" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -6066,7 +6090,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C174" s="72"/>
+      <c r="C174" s="80"/>
       <c r="D174" s="37" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -6101,7 +6125,7 @@
       <c r="B176" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C176" s="70"/>
+      <c r="C176" s="78"/>
       <c r="D176" s="35" t="s">
         <v>31</v>
       </c>
@@ -6123,7 +6147,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C177" s="71"/>
+      <c r="C177" s="79"/>
       <c r="D177" s="36" t="str">
         <f t="shared" ref="D177:D184" si="21">D176</f>
         <v>A17111012 (4)</v>
@@ -6146,7 +6170,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C178" s="71"/>
+      <c r="C178" s="79"/>
       <c r="D178" s="36" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6169,7 +6193,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C179" s="71"/>
+      <c r="C179" s="79"/>
       <c r="D179" s="36" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6192,7 +6216,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C180" s="71"/>
+      <c r="C180" s="79"/>
       <c r="D180" s="36" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6215,7 +6239,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C181" s="71"/>
+      <c r="C181" s="79"/>
       <c r="D181" s="36" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6238,7 +6262,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C182" s="71"/>
+      <c r="C182" s="79"/>
       <c r="D182" s="36" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6261,7 +6285,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C183" s="71"/>
+      <c r="C183" s="79"/>
       <c r="D183" s="36" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6284,7 +6308,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C184" s="72"/>
+      <c r="C184" s="80"/>
       <c r="D184" s="37" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6319,7 +6343,7 @@
       <c r="B186" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C186" s="70"/>
+      <c r="C186" s="78"/>
       <c r="D186" s="35" t="s">
         <v>32</v>
       </c>
@@ -6341,7 +6365,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C187" s="71"/>
+      <c r="C187" s="79"/>
       <c r="D187" s="36" t="str">
         <f t="shared" ref="D187:D194" si="23">D186</f>
         <v>A2001032   (5)</v>
@@ -6364,7 +6388,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C188" s="71"/>
+      <c r="C188" s="79"/>
       <c r="D188" s="36" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6387,7 +6411,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C189" s="71"/>
+      <c r="C189" s="79"/>
       <c r="D189" s="36" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6410,7 +6434,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C190" s="71"/>
+      <c r="C190" s="79"/>
       <c r="D190" s="36" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6433,7 +6457,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C191" s="71"/>
+      <c r="C191" s="79"/>
       <c r="D191" s="36" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6456,7 +6480,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C192" s="71"/>
+      <c r="C192" s="79"/>
       <c r="D192" s="36" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6479,7 +6503,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C193" s="71"/>
+      <c r="C193" s="79"/>
       <c r="D193" s="36" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6502,7 +6526,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C194" s="72"/>
+      <c r="C194" s="80"/>
       <c r="D194" s="37" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6537,7 +6561,7 @@
       <c r="B196" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C196" s="70"/>
+      <c r="C196" s="78"/>
       <c r="D196" s="35" t="s">
         <v>33</v>
       </c>
@@ -6559,7 +6583,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C197" s="71"/>
+      <c r="C197" s="79"/>
       <c r="D197" s="36" t="str">
         <f t="shared" ref="D197:D204" si="25">D196</f>
         <v>A2001033  (5)</v>
@@ -6582,7 +6606,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C198" s="71"/>
+      <c r="C198" s="79"/>
       <c r="D198" s="36" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6605,7 +6629,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C199" s="71"/>
+      <c r="C199" s="79"/>
       <c r="D199" s="36" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6628,7 +6652,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C200" s="71"/>
+      <c r="C200" s="79"/>
       <c r="D200" s="36" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6651,7 +6675,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C201" s="71"/>
+      <c r="C201" s="79"/>
       <c r="D201" s="36" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6674,7 +6698,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C202" s="71"/>
+      <c r="C202" s="79"/>
       <c r="D202" s="36" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6697,7 +6721,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C203" s="71"/>
+      <c r="C203" s="79"/>
       <c r="D203" s="36" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6720,7 +6744,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C204" s="72"/>
+      <c r="C204" s="80"/>
       <c r="D204" s="37" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6755,7 +6779,7 @@
       <c r="B206" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C206" s="70"/>
+      <c r="C206" s="78"/>
       <c r="D206" s="35" t="s">
         <v>34</v>
       </c>
@@ -6779,7 +6803,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C207" s="71"/>
+      <c r="C207" s="79"/>
       <c r="D207" s="36" t="str">
         <f t="shared" ref="D207:D214" si="27">D206</f>
         <v>A2001035  (5)</v>
@@ -6804,7 +6828,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C208" s="71"/>
+      <c r="C208" s="79"/>
       <c r="D208" s="36" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -6827,7 +6851,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C209" s="71"/>
+      <c r="C209" s="79"/>
       <c r="D209" s="36" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -6850,7 +6874,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C210" s="71"/>
+      <c r="C210" s="79"/>
       <c r="D210" s="36" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -6873,7 +6897,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C211" s="71"/>
+      <c r="C211" s="79"/>
       <c r="D211" s="36" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -6896,7 +6920,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C212" s="71"/>
+      <c r="C212" s="79"/>
       <c r="D212" s="36" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -6919,7 +6943,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C213" s="71"/>
+      <c r="C213" s="79"/>
       <c r="D213" s="36" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -6942,7 +6966,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C214" s="72"/>
+      <c r="C214" s="80"/>
       <c r="D214" s="37" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -6977,7 +7001,7 @@
       <c r="B216" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C216" s="70"/>
+      <c r="C216" s="78"/>
       <c r="D216" s="35" t="s">
         <v>36</v>
       </c>
@@ -6999,7 +7023,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C217" s="71"/>
+      <c r="C217" s="79"/>
       <c r="D217" s="36" t="str">
         <f t="shared" ref="D217:D224" si="29">D216</f>
         <v>A1802056  (6)</v>
@@ -7022,7 +7046,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C218" s="71"/>
+      <c r="C218" s="79"/>
       <c r="D218" s="36" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7045,7 +7069,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C219" s="71"/>
+      <c r="C219" s="79"/>
       <c r="D219" s="36" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7068,7 +7092,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C220" s="71"/>
+      <c r="C220" s="79"/>
       <c r="D220" s="36" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7091,7 +7115,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C221" s="71"/>
+      <c r="C221" s="79"/>
       <c r="D221" s="36" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7114,7 +7138,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C222" s="71"/>
+      <c r="C222" s="79"/>
       <c r="D222" s="36" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7137,7 +7161,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C223" s="71"/>
+      <c r="C223" s="79"/>
       <c r="D223" s="36" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7160,7 +7184,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C224" s="72"/>
+      <c r="C224" s="80"/>
       <c r="D224" s="37" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7195,7 +7219,7 @@
       <c r="B226" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C226" s="70"/>
+      <c r="C226" s="78"/>
       <c r="D226" s="35" t="s">
         <v>35</v>
       </c>
@@ -7217,7 +7241,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C227" s="71"/>
+      <c r="C227" s="79"/>
       <c r="D227" s="36" t="str">
         <f t="shared" ref="D227:D234" si="31">D226</f>
         <v>A1802057  (6)</v>
@@ -7240,7 +7264,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C228" s="71"/>
+      <c r="C228" s="79"/>
       <c r="D228" s="36" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7263,7 +7287,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C229" s="71"/>
+      <c r="C229" s="79"/>
       <c r="D229" s="36" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7286,7 +7310,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C230" s="71"/>
+      <c r="C230" s="79"/>
       <c r="D230" s="36" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7309,7 +7333,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C231" s="71"/>
+      <c r="C231" s="79"/>
       <c r="D231" s="36" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7332,7 +7356,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C232" s="71"/>
+      <c r="C232" s="79"/>
       <c r="D232" s="36" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7355,7 +7379,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C233" s="71"/>
+      <c r="C233" s="79"/>
       <c r="D233" s="36" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7378,7 +7402,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C234" s="72"/>
+      <c r="C234" s="80"/>
       <c r="D234" s="37" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7413,7 +7437,7 @@
       <c r="B236" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C236" s="70"/>
+      <c r="C236" s="78"/>
       <c r="D236" s="24" t="s">
         <v>118</v>
       </c>
@@ -7435,7 +7459,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C237" s="71"/>
+      <c r="C237" s="79"/>
       <c r="D237" s="25" t="str">
         <f t="shared" ref="D237:D244" si="33">D236</f>
         <v>A1404090 (1)
@@ -7459,7 +7483,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C238" s="71"/>
+      <c r="C238" s="79"/>
       <c r="D238" s="25" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7483,7 +7507,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C239" s="71"/>
+      <c r="C239" s="79"/>
       <c r="D239" s="25" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7507,7 +7531,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C240" s="71"/>
+      <c r="C240" s="79"/>
       <c r="D240" s="25" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7531,7 +7555,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C241" s="71"/>
+      <c r="C241" s="79"/>
       <c r="D241" s="25" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7555,7 +7579,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C242" s="71"/>
+      <c r="C242" s="79"/>
       <c r="D242" s="25" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7579,7 +7603,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C243" s="71"/>
+      <c r="C243" s="79"/>
       <c r="D243" s="25" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7603,7 +7627,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C244" s="72"/>
+      <c r="C244" s="80"/>
       <c r="D244" s="26" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7639,7 +7663,7 @@
       <c r="B246" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C246" s="70"/>
+      <c r="C246" s="78"/>
       <c r="D246" s="35" t="s">
         <v>107</v>
       </c>
@@ -7661,7 +7685,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C247" s="71"/>
+      <c r="C247" s="79"/>
       <c r="D247" s="36" t="str">
         <f t="shared" ref="D247:D254" si="35">D246</f>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7684,7 +7708,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C248" s="71"/>
+      <c r="C248" s="79"/>
       <c r="D248" s="36" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7707,7 +7731,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C249" s="71"/>
+      <c r="C249" s="79"/>
       <c r="D249" s="36" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7730,7 +7754,7 @@
         <f>B249</f>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C250" s="71"/>
+      <c r="C250" s="79"/>
       <c r="D250" s="36" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7753,7 +7777,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C251" s="71"/>
+      <c r="C251" s="79"/>
       <c r="D251" s="36" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7776,7 +7800,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C252" s="71"/>
+      <c r="C252" s="79"/>
       <c r="D252" s="36" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7799,7 +7823,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C253" s="71"/>
+      <c r="C253" s="79"/>
       <c r="D253" s="36" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7822,7 +7846,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C254" s="72"/>
+      <c r="C254" s="80"/>
       <c r="D254" s="37" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7857,7 +7881,7 @@
       <c r="B256" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C256" s="70"/>
+      <c r="C256" s="78"/>
       <c r="D256" s="35" t="s">
         <v>39</v>
       </c>
@@ -7879,7 +7903,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C257" s="71"/>
+      <c r="C257" s="79"/>
       <c r="D257" s="36" t="str">
         <f t="shared" ref="D257:D264" si="37">D256</f>
         <v>A1903058  (2)</v>
@@ -7902,7 +7926,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C258" s="71"/>
+      <c r="C258" s="79"/>
       <c r="D258" s="36" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -7925,7 +7949,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C259" s="71"/>
+      <c r="C259" s="79"/>
       <c r="D259" s="36" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -7948,7 +7972,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C260" s="71"/>
+      <c r="C260" s="79"/>
       <c r="D260" s="36" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -7971,7 +7995,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C261" s="71"/>
+      <c r="C261" s="79"/>
       <c r="D261" s="36" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -7994,7 +8018,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C262" s="71"/>
+      <c r="C262" s="79"/>
       <c r="D262" s="36" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -8017,7 +8041,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C263" s="71"/>
+      <c r="C263" s="79"/>
       <c r="D263" s="36" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -8040,7 +8064,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C264" s="72"/>
+      <c r="C264" s="80"/>
       <c r="D264" s="37" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -8075,7 +8099,7 @@
       <c r="B266" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C266" s="70"/>
+      <c r="C266" s="78"/>
       <c r="D266" s="35" t="s">
         <v>40</v>
       </c>
@@ -8097,7 +8121,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C267" s="71"/>
+      <c r="C267" s="79"/>
       <c r="D267" s="36" t="str">
         <f t="shared" ref="D267:D274" si="39">D266</f>
         <v>A2012004  (2)</v>
@@ -8120,7 +8144,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C268" s="71"/>
+      <c r="C268" s="79"/>
       <c r="D268" s="36" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8143,7 +8167,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C269" s="71"/>
+      <c r="C269" s="79"/>
       <c r="D269" s="36" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8166,7 +8190,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C270" s="71"/>
+      <c r="C270" s="79"/>
       <c r="D270" s="36" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8189,7 +8213,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C271" s="71"/>
+      <c r="C271" s="79"/>
       <c r="D271" s="36" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8212,7 +8236,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C272" s="71"/>
+      <c r="C272" s="79"/>
       <c r="D272" s="36" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8235,7 +8259,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C273" s="71"/>
+      <c r="C273" s="79"/>
       <c r="D273" s="36" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8258,7 +8282,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C274" s="72"/>
+      <c r="C274" s="80"/>
       <c r="D274" s="37" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8293,7 +8317,7 @@
       <c r="B276" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C276" s="70"/>
+      <c r="C276" s="78"/>
       <c r="D276" s="35" t="s">
         <v>37</v>
       </c>
@@ -8315,7 +8339,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C277" s="71"/>
+      <c r="C277" s="79"/>
       <c r="D277" s="36" t="str">
         <f t="shared" ref="D277:D284" si="41">D276</f>
         <v>A1907003 (3)</v>
@@ -8338,7 +8362,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C278" s="71"/>
+      <c r="C278" s="79"/>
       <c r="D278" s="36" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8361,7 +8385,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C279" s="71"/>
+      <c r="C279" s="79"/>
       <c r="D279" s="36" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8384,7 +8408,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C280" s="71"/>
+      <c r="C280" s="79"/>
       <c r="D280" s="36" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8407,7 +8431,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C281" s="71"/>
+      <c r="C281" s="79"/>
       <c r="D281" s="36" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8430,7 +8454,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C282" s="71"/>
+      <c r="C282" s="79"/>
       <c r="D282" s="36" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8453,7 +8477,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C283" s="71"/>
+      <c r="C283" s="79"/>
       <c r="D283" s="36" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8476,7 +8500,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C284" s="72"/>
+      <c r="C284" s="80"/>
       <c r="D284" s="37" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8511,7 +8535,7 @@
       <c r="B286" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C286" s="70"/>
+      <c r="C286" s="78"/>
       <c r="D286" s="35" t="s">
         <v>38</v>
       </c>
@@ -8533,7 +8557,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C287" s="71"/>
+      <c r="C287" s="79"/>
       <c r="D287" s="36" t="str">
         <f t="shared" ref="D287:D294" si="43">D286</f>
         <v>A2012003  (3)</v>
@@ -8556,7 +8580,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C288" s="71"/>
+      <c r="C288" s="79"/>
       <c r="D288" s="36" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -8579,7 +8603,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C289" s="71"/>
+      <c r="C289" s="79"/>
       <c r="D289" s="36" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -8602,7 +8626,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C290" s="71"/>
+      <c r="C290" s="79"/>
       <c r="D290" s="36" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -8625,7 +8649,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C291" s="71"/>
+      <c r="C291" s="79"/>
       <c r="D291" s="36" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -8648,7 +8672,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C292" s="71"/>
+      <c r="C292" s="79"/>
       <c r="D292" s="36" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -8671,7 +8695,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C293" s="71"/>
+      <c r="C293" s="79"/>
       <c r="D293" s="36" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -8694,7 +8718,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C294" s="72"/>
+      <c r="C294" s="80"/>
       <c r="D294" s="37" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -11052,7 +11076,7 @@
         <v>39</v>
       </c>
       <c r="B388" s="61" t="str">
-        <f t="shared" ref="A388:D388" si="54">B387</f>
+        <f t="shared" ref="B388:D388" si="54">B387</f>
         <v>KYMCO</v>
       </c>
       <c r="C388" s="41" t="str">
@@ -11081,7 +11105,7 @@
         <v>39</v>
       </c>
       <c r="B389" s="61" t="str">
-        <f t="shared" ref="A389:D389" si="55">B388</f>
+        <f t="shared" ref="B389:D389" si="55">B388</f>
         <v>KYMCO</v>
       </c>
       <c r="C389" s="41" t="str">
@@ -11110,7 +11134,7 @@
         <v>39</v>
       </c>
       <c r="B390" s="61" t="str">
-        <f t="shared" ref="A390:D390" si="56">B389</f>
+        <f t="shared" ref="B390:D390" si="56">B389</f>
         <v>KYMCO</v>
       </c>
       <c r="C390" s="41" t="str">
@@ -11135,7 +11159,7 @@
         <v>39</v>
       </c>
       <c r="B391" s="61" t="str">
-        <f t="shared" ref="A391:D391" si="57">B390</f>
+        <f t="shared" ref="B391:D391" si="57">B390</f>
         <v>KYMCO</v>
       </c>
       <c r="C391" s="41" t="str">
@@ -11160,7 +11184,7 @@
         <v>39</v>
       </c>
       <c r="B392" s="61" t="str">
-        <f t="shared" ref="A392:D392" si="58">B391</f>
+        <f t="shared" ref="B392:D392" si="58">B391</f>
         <v>KYMCO</v>
       </c>
       <c r="C392" s="41" t="str">
@@ -11185,7 +11209,7 @@
         <v>39</v>
       </c>
       <c r="B393" s="61" t="str">
-        <f t="shared" ref="A393:D393" si="59">B392</f>
+        <f t="shared" ref="B393:D393" si="59">B392</f>
         <v>KYMCO</v>
       </c>
       <c r="C393" s="41" t="str">
@@ -11210,7 +11234,7 @@
         <v>39</v>
       </c>
       <c r="B394" s="62" t="str">
-        <f t="shared" ref="A394:D394" si="60">B393</f>
+        <f t="shared" ref="B394:D394" si="60">B393</f>
         <v>KYMCO</v>
       </c>
       <c r="C394" s="42" t="str">
@@ -18944,7 +18968,7 @@
       <c r="K725" s="13"/>
       <c r="L725" s="14"/>
     </row>
-    <row r="726" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="57">
         <v>73</v>
       </c>
@@ -18966,7 +18990,7 @@
       <c r="K726" s="1"/>
       <c r="L726" s="1"/>
     </row>
-    <row r="727" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="58">
         <f t="shared" ref="A727:D734" si="112">A726</f>
         <v>73</v>
@@ -18993,7 +19017,7 @@
       <c r="K727" s="1"/>
       <c r="L727" s="1"/>
     </row>
-    <row r="728" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="58">
         <f t="shared" si="112"/>
         <v>73</v>
@@ -19024,7 +19048,7 @@
       <c r="K728" s="1"/>
       <c r="L728" s="1"/>
     </row>
-    <row r="729" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="58">
         <f t="shared" si="112"/>
         <v>73</v>
@@ -19055,7 +19079,7 @@
       <c r="K729" s="1"/>
       <c r="L729" s="1"/>
     </row>
-    <row r="730" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="58">
         <f t="shared" si="112"/>
         <v>73</v>
@@ -19086,7 +19110,7 @@
       <c r="K730" s="1"/>
       <c r="L730" s="1"/>
     </row>
-    <row r="731" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="58">
         <f t="shared" si="112"/>
         <v>73</v>
@@ -19113,7 +19137,7 @@
       <c r="K731" s="1"/>
       <c r="L731" s="1"/>
     </row>
-    <row r="732" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="58">
         <f t="shared" si="112"/>
         <v>73</v>
@@ -19140,7 +19164,7 @@
       <c r="K732" s="1"/>
       <c r="L732" s="1"/>
     </row>
-    <row r="733" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="58">
         <f t="shared" si="112"/>
         <v>73</v>
@@ -19167,7 +19191,7 @@
       <c r="K733" s="1"/>
       <c r="L733" s="1"/>
     </row>
-    <row r="734" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="59">
         <f t="shared" si="112"/>
         <v>73</v>
@@ -23180,7 +23204,7 @@
         <v>90</v>
       </c>
       <c r="B896" s="60" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="C896" s="35"/>
       <c r="D896" s="35" t="s">
@@ -23206,7 +23230,7 @@
       </c>
       <c r="B897" s="61" t="str">
         <f t="shared" si="130"/>
-        <v>TAIWWAN</v>
+        <v>TAIWAN</v>
       </c>
       <c r="C897" s="36"/>
       <c r="D897" s="36" t="str">
@@ -23229,7 +23253,7 @@
       </c>
       <c r="B898" s="61" t="str">
         <f t="shared" si="130"/>
-        <v>TAIWWAN</v>
+        <v>TAIWAN</v>
       </c>
       <c r="C898" s="36"/>
       <c r="D898" s="36" t="str">
@@ -23252,7 +23276,7 @@
       </c>
       <c r="B899" s="61" t="str">
         <f t="shared" si="130"/>
-        <v>TAIWWAN</v>
+        <v>TAIWAN</v>
       </c>
       <c r="C899" s="36"/>
       <c r="D899" s="36" t="str">
@@ -23275,7 +23299,7 @@
       </c>
       <c r="B900" s="61" t="str">
         <f t="shared" si="130"/>
-        <v>TAIWWAN</v>
+        <v>TAIWAN</v>
       </c>
       <c r="C900" s="36"/>
       <c r="D900" s="36" t="str">
@@ -23298,7 +23322,7 @@
       </c>
       <c r="B901" s="61" t="str">
         <f t="shared" si="130"/>
-        <v>TAIWWAN</v>
+        <v>TAIWAN</v>
       </c>
       <c r="C901" s="36"/>
       <c r="D901" s="36" t="str">
@@ -23321,7 +23345,7 @@
       </c>
       <c r="B902" s="61" t="str">
         <f t="shared" si="130"/>
-        <v>TAIWWAN</v>
+        <v>TAIWAN</v>
       </c>
       <c r="C902" s="36"/>
       <c r="D902" s="36" t="str">
@@ -23344,7 +23368,7 @@
       </c>
       <c r="B903" s="61" t="str">
         <f t="shared" si="130"/>
-        <v>TAIWWAN</v>
+        <v>TAIWAN</v>
       </c>
       <c r="C903" s="36"/>
       <c r="D903" s="36" t="str">
@@ -23367,7 +23391,7 @@
       </c>
       <c r="B904" s="62" t="str">
         <f t="shared" si="130"/>
-        <v>TAIWWAN</v>
+        <v>TAIWAN</v>
       </c>
       <c r="C904" s="37"/>
       <c r="D904" s="37" t="str">
@@ -24686,9 +24710,7 @@
       </c>
       <c r="G956" s="6"/>
       <c r="H956" s="1"/>
-      <c r="I956" s="6" t="s">
-        <v>223</v>
-      </c>
+      <c r="I956" s="6"/>
       <c r="J956" s="1"/>
       <c r="K956" s="1"/>
       <c r="L956" s="1"/>
@@ -30726,7 +30748,7 @@
       <c r="K1185" s="13"/>
       <c r="L1185" s="14"/>
     </row>
-    <row r="1186" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1186" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1186" s="57">
         <v>120</v>
       </c>
@@ -30752,7 +30774,7 @@
       <c r="K1186" s="1"/>
       <c r="L1186" s="1"/>
     </row>
-    <row r="1187" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1187" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1187" s="58">
         <f t="array" ref="A1187:A1194">A1186</f>
         <v>120</v>
@@ -30779,7 +30801,7 @@
       <c r="K1187" s="1"/>
       <c r="L1187" s="1"/>
     </row>
-    <row r="1188" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1188" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1188" s="58">
         <v>120</v>
       </c>
@@ -30805,7 +30827,7 @@
       <c r="K1188" s="1"/>
       <c r="L1188" s="1"/>
     </row>
-    <row r="1189" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1189" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1189" s="58">
         <v>120</v>
       </c>
@@ -30829,7 +30851,7 @@
       <c r="K1189" s="1"/>
       <c r="L1189" s="1"/>
     </row>
-    <row r="1190" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1190" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1190" s="58">
         <v>120</v>
       </c>
@@ -30851,7 +30873,7 @@
       <c r="K1190" s="1"/>
       <c r="L1190" s="1"/>
     </row>
-    <row r="1191" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1191" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1191" s="58">
         <v>120</v>
       </c>
@@ -30873,7 +30895,7 @@
       <c r="K1191" s="1"/>
       <c r="L1191" s="1"/>
     </row>
-    <row r="1192" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1192" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1192" s="58">
         <v>120</v>
       </c>
@@ -30895,7 +30917,7 @@
       <c r="K1192" s="1"/>
       <c r="L1192" s="1"/>
     </row>
-    <row r="1193" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1193" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1193" s="58">
         <v>120</v>
       </c>
@@ -30917,7 +30939,7 @@
       <c r="K1193" s="1"/>
       <c r="L1193" s="1"/>
     </row>
-    <row r="1194" spans="1:12" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1194" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1194" s="59">
         <v>120</v>
       </c>
@@ -31744,21 +31766,11 @@
   <autoFilter ref="A1:L1235">
     <filterColumn colId="3">
       <filters>
-        <filter val="1441A-LDB2-E000 (7)_x000a_"/>
+        <filter val="12840-28G00"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="24">
-    <mergeCell ref="C286:C294"/>
-    <mergeCell ref="C186:C194"/>
-    <mergeCell ref="C196:C204"/>
-    <mergeCell ref="C206:C214"/>
-    <mergeCell ref="C216:C224"/>
-    <mergeCell ref="C226:C234"/>
-    <mergeCell ref="C236:C244"/>
-    <mergeCell ref="C246:C254"/>
-    <mergeCell ref="C256:C264"/>
-    <mergeCell ref="C266:C274"/>
     <mergeCell ref="C56:C64"/>
     <mergeCell ref="C66:C74"/>
     <mergeCell ref="C76:C84"/>
@@ -31773,6 +31785,16 @@
     <mergeCell ref="C116:C124"/>
     <mergeCell ref="C126:C134"/>
     <mergeCell ref="C136:C144"/>
+    <mergeCell ref="C286:C294"/>
+    <mergeCell ref="C186:C194"/>
+    <mergeCell ref="C196:C204"/>
+    <mergeCell ref="C206:C214"/>
+    <mergeCell ref="C216:C224"/>
+    <mergeCell ref="C226:C234"/>
+    <mergeCell ref="C236:C244"/>
+    <mergeCell ref="C246:C254"/>
+    <mergeCell ref="C256:C264"/>
+    <mergeCell ref="C266:C274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31781,18 +31803,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L85"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.54296875" customWidth="1"/>
+    <col min="3" max="3" width="30.453125" style="94" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.54296875" style="94" customWidth="1"/>
     <col min="5" max="5" width="39.36328125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.36328125" customWidth="1"/>
     <col min="7" max="7" width="16.6328125" bestFit="1" customWidth="1"/>
@@ -31842,16 +31864,16 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="91" t="s">
         <v>409</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="85" t="s">
         <v>410</v>
       </c>
       <c r="E2" s="19" t="s">
@@ -31868,10 +31890,10 @@
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="75"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
+      <c r="A3" s="92"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="19" t="s">
         <v>291</v>
       </c>
@@ -31888,10 +31910,10 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="75"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
+      <c r="A4" s="92"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="19" t="s">
         <v>291</v>
       </c>
@@ -31906,10 +31928,10 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="75"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
+      <c r="A5" s="92"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="19" t="s">
         <v>293</v>
       </c>
@@ -31924,10 +31946,10 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="76"/>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="19" t="s">
         <v>300</v>
       </c>
@@ -31942,30 +31964,30 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="80"/>
-      <c r="B7" s="80"/>
-      <c r="C7" s="80"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
+      <c r="A7" s="81"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="91" t="s">
         <v>411</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="85" t="s">
         <v>412</v>
       </c>
       <c r="E8" s="19" t="s">
@@ -31982,10 +32004,10 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="76"/>
-      <c r="B9" s="79"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="79"/>
+      <c r="A9" s="93"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="19" t="s">
         <v>303</v>
       </c>
@@ -32000,30 +32022,30 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="80"/>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="80"/>
-      <c r="J10" s="80"/>
-      <c r="K10" s="80"/>
-      <c r="L10" s="80"/>
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="91" t="s">
         <v>413</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="81" t="s">
+      <c r="D11" s="88" t="s">
         <v>304</v>
       </c>
       <c r="E11" s="19" t="s">
@@ -32040,10 +32062,10 @@
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="76"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="82"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="19" t="s">
         <v>293</v>
       </c>
@@ -32058,30 +32080,30 @@
       <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="80"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="80"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="80"/>
-      <c r="J13" s="80"/>
-      <c r="K13" s="80"/>
-      <c r="L13" s="80"/>
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="81"/>
+      <c r="K13" s="81"/>
+      <c r="L13" s="81"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="74" t="s">
+      <c r="A14" s="91" t="s">
         <v>414</v>
       </c>
-      <c r="B14" s="77" t="s">
+      <c r="B14" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="77" t="s">
+      <c r="C14" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="81" t="s">
+      <c r="D14" s="88" t="s">
         <v>418</v>
       </c>
       <c r="E14" s="19" t="s">
@@ -32098,10 +32120,10 @@
       <c r="L14" s="1"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="75"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="83"/>
+      <c r="A15" s="92"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="86"/>
+      <c r="D15" s="89"/>
       <c r="E15" s="19" t="s">
         <v>293</v>
       </c>
@@ -32116,10 +32138,10 @@
       <c r="L15" s="1"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="75"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="83"/>
+      <c r="A16" s="92"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="86"/>
+      <c r="D16" s="89"/>
       <c r="E16" s="19" t="s">
         <v>309</v>
       </c>
@@ -32134,10 +32156,10 @@
       <c r="L16" s="1"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="76"/>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="82"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="19" t="s">
         <v>309</v>
       </c>
@@ -32152,30 +32174,30 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
+      <c r="L18" s="81"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="74" t="s">
+      <c r="A19" s="91" t="s">
         <v>415</v>
       </c>
-      <c r="B19" s="77" t="s">
+      <c r="B19" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="77" t="s">
+      <c r="C19" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="77" t="s">
+      <c r="D19" s="85" t="s">
         <v>316</v>
       </c>
       <c r="E19" s="19" t="s">
@@ -32192,10 +32214,10 @@
       <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="75"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
+      <c r="A20" s="92"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="19" t="s">
         <v>295</v>
       </c>
@@ -32210,10 +32232,10 @@
       <c r="L20" s="1"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="75"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
+      <c r="A21" s="92"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="19" t="s">
         <v>297</v>
       </c>
@@ -32228,10 +32250,10 @@
       <c r="L21" s="1"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="76"/>
-      <c r="B22" s="79"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="19" t="s">
         <v>114</v>
       </c>
@@ -32248,30 +32270,30 @@
       <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="81"/>
+      <c r="H23" s="81"/>
+      <c r="I23" s="81"/>
+      <c r="J23" s="81"/>
+      <c r="K23" s="81"/>
+      <c r="L23" s="81"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="74" t="s">
+      <c r="A24" s="91" t="s">
         <v>416</v>
       </c>
-      <c r="B24" s="77" t="s">
+      <c r="B24" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="81" t="s">
+      <c r="D24" s="88" t="s">
         <v>322</v>
       </c>
       <c r="E24" s="19" t="s">
@@ -32288,10 +32310,10 @@
       <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="75"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="83"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="89"/>
       <c r="E25" s="19" t="s">
         <v>323</v>
       </c>
@@ -32306,10 +32328,10 @@
       <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="75"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="83"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="89"/>
       <c r="E26" s="19" t="s">
         <v>386</v>
       </c>
@@ -32324,10 +32346,10 @@
       <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="76"/>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="82"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="90"/>
       <c r="E27" s="19"/>
       <c r="F27" s="1" t="s">
         <v>172</v>
@@ -32340,27 +32362,27 @@
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="80"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="80"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="80"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="80"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
+      <c r="A28" s="81"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
     </row>
     <row r="29" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="69" t="s">
         <v>417</v>
       </c>
       <c r="B29" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="70" t="s">
         <v>56</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -32380,28 +32402,28 @@
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="80"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="80"/>
-      <c r="G30" s="80"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="80"/>
-      <c r="J30" s="80"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
+      <c r="A30" s="81"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="81"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="74" t="s">
+      <c r="A31" s="91" t="s">
         <v>422</v>
       </c>
-      <c r="B31" s="77" t="s">
+      <c r="B31" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="77" t="s">
+      <c r="C31" s="70"/>
+      <c r="D31" s="85" t="s">
         <v>419</v>
       </c>
       <c r="E31" s="19" t="s">
@@ -32418,10 +32440,10 @@
       <c r="L31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="75"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="78"/>
+      <c r="A32" s="92"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="19" t="s">
         <v>311</v>
       </c>
@@ -32436,10 +32458,10 @@
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="75"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="78"/>
+      <c r="A33" s="92"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="86"/>
       <c r="E33" s="19" t="s">
         <v>314</v>
       </c>
@@ -32454,10 +32476,10 @@
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="76"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="79"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="87"/>
       <c r="E34" s="19" t="s">
         <v>319</v>
       </c>
@@ -32472,27 +32494,27 @@
       <c r="L34" s="1"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="80"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
+      <c r="A35" s="81"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
+      <c r="L35" s="81"/>
     </row>
     <row r="36" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="75" t="s">
         <v>423</v>
       </c>
       <c r="B36" s="62" t="s">
         <v>105</v>
       </c>
-      <c r="C36" s="45"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="2" t="s">
         <v>421</v>
       </c>
@@ -32510,30 +32532,30 @@
       <c r="L36" s="1"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="80"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
+      <c r="A37" s="81"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
     </row>
     <row r="38" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="85">
+      <c r="A38" s="82">
         <v>10</v>
       </c>
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="77" t="s">
+      <c r="C38" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="77" t="s">
+      <c r="D38" s="85" t="s">
         <v>424</v>
       </c>
       <c r="E38" s="19" t="s">
@@ -32550,10 +32572,10 @@
       <c r="L38" s="1"/>
     </row>
     <row r="39" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="86"/>
-      <c r="B39" s="83"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
+      <c r="A39" s="83"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
       <c r="E39" s="19" t="s">
         <v>326</v>
       </c>
@@ -32568,10 +32590,10 @@
       <c r="L39" s="1"/>
     </row>
     <row r="40" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="86"/>
-      <c r="B40" s="83"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
+      <c r="A40" s="83"/>
+      <c r="B40" s="89"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
       <c r="E40" s="19" t="s">
         <v>327</v>
       </c>
@@ -32586,10 +32608,10 @@
       <c r="L40" s="1"/>
     </row>
     <row r="41" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="86"/>
-      <c r="B41" s="83"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
+      <c r="A41" s="83"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="86"/>
+      <c r="D41" s="86"/>
       <c r="E41" s="19" t="s">
         <v>326</v>
       </c>
@@ -32604,10 +32626,10 @@
       <c r="L41" s="1"/>
     </row>
     <row r="42" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="86"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
+      <c r="A42" s="83"/>
+      <c r="B42" s="89"/>
+      <c r="C42" s="86"/>
+      <c r="D42" s="86"/>
       <c r="E42" s="19" t="s">
         <v>172</v>
       </c>
@@ -32622,30 +32644,30 @@
       <c r="L42" s="1"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="80"/>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
+      <c r="A43" s="81"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
     </row>
     <row r="44" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="85">
+      <c r="A44" s="82">
         <v>11</v>
       </c>
-      <c r="B44" s="81" t="s">
+      <c r="B44" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="77" t="s">
+      <c r="C44" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="77" t="s">
+      <c r="D44" s="85" t="s">
         <v>425</v>
       </c>
       <c r="E44" s="19" t="s">
@@ -32662,10 +32684,10 @@
       <c r="L44" s="1"/>
     </row>
     <row r="45" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="86"/>
-      <c r="B45" s="83"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
+      <c r="A45" s="83"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="86"/>
+      <c r="D45" s="86"/>
       <c r="E45" s="19" t="s">
         <v>326</v>
       </c>
@@ -32680,10 +32702,10 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="86"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
+      <c r="A46" s="83"/>
+      <c r="B46" s="89"/>
+      <c r="C46" s="86"/>
+      <c r="D46" s="86"/>
       <c r="E46" s="19" t="s">
         <v>172</v>
       </c>
@@ -32698,10 +32720,10 @@
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="86"/>
-      <c r="B47" s="83"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
+      <c r="A47" s="83"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="86"/>
+      <c r="D47" s="86"/>
       <c r="E47" s="19" t="s">
         <v>226</v>
       </c>
@@ -32716,30 +32738,30 @@
       <c r="L47" s="1"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="80"/>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
+      <c r="A48" s="81"/>
+      <c r="B48" s="81"/>
+      <c r="C48" s="81"/>
+      <c r="D48" s="81"/>
+      <c r="E48" s="81"/>
+      <c r="F48" s="81"/>
+      <c r="G48" s="81"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="81"/>
+      <c r="J48" s="81"/>
+      <c r="K48" s="81"/>
+      <c r="L48" s="81"/>
     </row>
     <row r="49" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="85">
+      <c r="A49" s="82">
         <v>12</v>
       </c>
-      <c r="B49" s="81" t="s">
+      <c r="B49" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="77" t="s">
+      <c r="C49" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="77" t="s">
+      <c r="D49" s="85" t="s">
         <v>426</v>
       </c>
       <c r="E49" s="19" t="s">
@@ -32756,10 +32778,10 @@
       <c r="L49" s="1"/>
     </row>
     <row r="50" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="86"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
+      <c r="A50" s="83"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
       <c r="E50" s="19" t="s">
         <v>172</v>
       </c>
@@ -32774,10 +32796,10 @@
       <c r="L50" s="1"/>
     </row>
     <row r="51" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="86"/>
-      <c r="B51" s="83"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
+      <c r="A51" s="83"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="86"/>
+      <c r="D51" s="86"/>
       <c r="E51" s="19" t="s">
         <v>330</v>
       </c>
@@ -32792,10 +32814,10 @@
       <c r="L51" s="1"/>
     </row>
     <row r="52" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="86"/>
-      <c r="B52" s="83"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
+      <c r="A52" s="83"/>
+      <c r="B52" s="89"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="86"/>
       <c r="E52" s="19" t="s">
         <v>378</v>
       </c>
@@ -32810,30 +32832,30 @@
       <c r="L52" s="1"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A53" s="80"/>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="80"/>
-      <c r="I53" s="80"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
+      <c r="A53" s="81"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="81"/>
+      <c r="D53" s="81"/>
+      <c r="E53" s="81"/>
+      <c r="F53" s="81"/>
+      <c r="G53" s="81"/>
+      <c r="H53" s="81"/>
+      <c r="I53" s="81"/>
+      <c r="J53" s="81"/>
+      <c r="K53" s="81"/>
+      <c r="L53" s="81"/>
     </row>
     <row r="54" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="85">
+      <c r="A54" s="82">
         <v>13</v>
       </c>
-      <c r="B54" s="81" t="s">
+      <c r="B54" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="77" t="s">
+      <c r="C54" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="77" t="s">
+      <c r="D54" s="85" t="s">
         <v>428</v>
       </c>
       <c r="E54" s="19" t="s">
@@ -32850,10 +32872,10 @@
       <c r="L54" s="1"/>
     </row>
     <row r="55" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="86"/>
-      <c r="B55" s="83"/>
-      <c r="C55" s="78"/>
-      <c r="D55" s="78"/>
+      <c r="A55" s="83"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
       <c r="E55" s="19" t="s">
         <v>172</v>
       </c>
@@ -32868,10 +32890,10 @@
       <c r="L55" s="1"/>
     </row>
     <row r="56" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="86"/>
-      <c r="B56" s="83"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
+      <c r="A56" s="83"/>
+      <c r="B56" s="89"/>
+      <c r="C56" s="86"/>
+      <c r="D56" s="86"/>
       <c r="E56" s="19" t="s">
         <v>335</v>
       </c>
@@ -32886,10 +32908,10 @@
       <c r="L56" s="1"/>
     </row>
     <row r="57" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="86"/>
-      <c r="B57" s="83"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
+      <c r="A57" s="83"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="86"/>
+      <c r="D57" s="86"/>
       <c r="E57" s="19" t="s">
         <v>330</v>
       </c>
@@ -32904,10 +32926,10 @@
       <c r="L57" s="1"/>
     </row>
     <row r="58" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="86"/>
-      <c r="B58" s="83"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
+      <c r="A58" s="83"/>
+      <c r="B58" s="89"/>
+      <c r="C58" s="86"/>
+      <c r="D58" s="86"/>
       <c r="E58" s="19" t="s">
         <v>328</v>
       </c>
@@ -32922,30 +32944,30 @@
       <c r="L58" s="1"/>
     </row>
     <row r="59" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="80"/>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="80"/>
-      <c r="I59" s="80"/>
-      <c r="J59" s="80"/>
-      <c r="K59" s="80"/>
-      <c r="L59" s="80"/>
+      <c r="A59" s="81"/>
+      <c r="B59" s="81"/>
+      <c r="C59" s="81"/>
+      <c r="D59" s="81"/>
+      <c r="E59" s="81"/>
+      <c r="F59" s="81"/>
+      <c r="G59" s="81"/>
+      <c r="H59" s="81"/>
+      <c r="I59" s="81"/>
+      <c r="J59" s="81"/>
+      <c r="K59" s="81"/>
+      <c r="L59" s="81"/>
     </row>
     <row r="60" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="86">
+      <c r="A60" s="83">
         <v>14</v>
       </c>
-      <c r="B60" s="78" t="s">
+      <c r="B60" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="78" t="s">
+      <c r="C60" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="78" t="s">
+      <c r="D60" s="86" t="s">
         <v>427</v>
       </c>
       <c r="E60" s="19" t="s">
@@ -32962,10 +32984,10 @@
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="86"/>
-      <c r="B61" s="78"/>
-      <c r="C61" s="78"/>
-      <c r="D61" s="78"/>
+      <c r="A61" s="83"/>
+      <c r="B61" s="86"/>
+      <c r="C61" s="86"/>
+      <c r="D61" s="86"/>
       <c r="E61" s="19" t="s">
         <v>293</v>
       </c>
@@ -32980,10 +33002,10 @@
       <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="86"/>
-      <c r="B62" s="78"/>
-      <c r="C62" s="78"/>
-      <c r="D62" s="78"/>
+      <c r="A62" s="83"/>
+      <c r="B62" s="86"/>
+      <c r="C62" s="86"/>
+      <c r="D62" s="86"/>
       <c r="E62" s="19" t="s">
         <v>338</v>
       </c>
@@ -32998,30 +33020,30 @@
       <c r="L62" s="1"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A63" s="80"/>
-      <c r="B63" s="80"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="80"/>
-      <c r="I63" s="80"/>
-      <c r="J63" s="80"/>
-      <c r="K63" s="80"/>
-      <c r="L63" s="80"/>
+      <c r="A63" s="81"/>
+      <c r="B63" s="81"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="81"/>
+      <c r="G63" s="81"/>
+      <c r="H63" s="81"/>
+      <c r="I63" s="81"/>
+      <c r="J63" s="81"/>
+      <c r="K63" s="81"/>
+      <c r="L63" s="81"/>
     </row>
     <row r="64" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="85">
+      <c r="A64" s="82">
         <v>15</v>
       </c>
-      <c r="B64" s="77" t="s">
+      <c r="B64" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="81" t="s">
+      <c r="C64" s="88" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="77" t="s">
+      <c r="D64" s="85" t="s">
         <v>429</v>
       </c>
       <c r="E64" s="19" t="s">
@@ -33038,10 +33060,10 @@
       <c r="L64" s="1"/>
     </row>
     <row r="65" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="86"/>
-      <c r="B65" s="78"/>
-      <c r="C65" s="83"/>
-      <c r="D65" s="78"/>
+      <c r="A65" s="83"/>
+      <c r="B65" s="86"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="86"/>
       <c r="E65" s="19" t="s">
         <v>293</v>
       </c>
@@ -33056,18 +33078,18 @@
       <c r="L65" s="1"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A66" s="80"/>
-      <c r="B66" s="80"/>
-      <c r="C66" s="80"/>
-      <c r="D66" s="80"/>
-      <c r="E66" s="80"/>
-      <c r="F66" s="80"/>
-      <c r="G66" s="80"/>
-      <c r="H66" s="80"/>
-      <c r="I66" s="80"/>
-      <c r="J66" s="80"/>
-      <c r="K66" s="80"/>
-      <c r="L66" s="80"/>
+      <c r="A66" s="81"/>
+      <c r="B66" s="81"/>
+      <c r="C66" s="81"/>
+      <c r="D66" s="81"/>
+      <c r="E66" s="81"/>
+      <c r="F66" s="81"/>
+      <c r="G66" s="81"/>
+      <c r="H66" s="81"/>
+      <c r="I66" s="81"/>
+      <c r="J66" s="81"/>
+      <c r="K66" s="81"/>
+      <c r="L66" s="81"/>
     </row>
     <row r="67" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="57">
@@ -33076,7 +33098,7 @@
       <c r="B67" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="60" t="s">
+      <c r="C67" s="70" t="s">
         <v>56</v>
       </c>
       <c r="D67" s="1" t="s">
@@ -33096,18 +33118,18 @@
       <c r="L67" s="1"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A68" s="80"/>
-      <c r="B68" s="80"/>
-      <c r="C68" s="80"/>
-      <c r="D68" s="80"/>
-      <c r="E68" s="80"/>
-      <c r="F68" s="80"/>
-      <c r="G68" s="80"/>
-      <c r="H68" s="80"/>
-      <c r="I68" s="80"/>
-      <c r="J68" s="80"/>
-      <c r="K68" s="80"/>
-      <c r="L68" s="80"/>
+      <c r="A68" s="81"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
+      <c r="G68" s="81"/>
+      <c r="H68" s="81"/>
+      <c r="I68" s="81"/>
+      <c r="J68" s="81"/>
+      <c r="K68" s="81"/>
+      <c r="L68" s="81"/>
     </row>
     <row r="69" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="57">
@@ -33116,10 +33138,10 @@
       <c r="B69" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="70" t="s">
         <v>127</v>
       </c>
-      <c r="D69" s="60" t="s">
+      <c r="D69" s="70" t="s">
         <v>430</v>
       </c>
       <c r="E69" s="19" t="s">
@@ -33136,30 +33158,30 @@
       <c r="L69" s="1"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A70" s="80"/>
-      <c r="B70" s="80"/>
-      <c r="C70" s="80"/>
-      <c r="D70" s="80"/>
-      <c r="E70" s="80"/>
-      <c r="F70" s="80"/>
-      <c r="G70" s="80"/>
-      <c r="H70" s="80"/>
-      <c r="I70" s="80"/>
-      <c r="J70" s="80"/>
-      <c r="K70" s="80"/>
-      <c r="L70" s="80"/>
+      <c r="A70" s="81"/>
+      <c r="B70" s="81"/>
+      <c r="C70" s="81"/>
+      <c r="D70" s="81"/>
+      <c r="E70" s="81"/>
+      <c r="F70" s="81"/>
+      <c r="G70" s="81"/>
+      <c r="H70" s="81"/>
+      <c r="I70" s="81"/>
+      <c r="J70" s="81"/>
+      <c r="K70" s="81"/>
+      <c r="L70" s="81"/>
     </row>
     <row r="71" spans="1:12" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="85">
+      <c r="A71" s="82">
         <v>18</v>
       </c>
-      <c r="B71" s="77" t="s">
+      <c r="B71" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="77" t="s">
+      <c r="C71" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="77" t="s">
+      <c r="D71" s="85" t="s">
         <v>431</v>
       </c>
       <c r="E71" s="19" t="s">
@@ -33176,10 +33198,10 @@
       <c r="L71" s="1"/>
     </row>
     <row r="72" spans="1:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="86"/>
-      <c r="B72" s="78"/>
-      <c r="C72" s="78"/>
-      <c r="D72" s="78"/>
+      <c r="A72" s="83"/>
+      <c r="B72" s="86"/>
+      <c r="C72" s="86"/>
+      <c r="D72" s="86"/>
       <c r="E72" s="19" t="s">
         <v>293</v>
       </c>
@@ -33194,10 +33216,10 @@
       <c r="L72" s="1"/>
     </row>
     <row r="73" spans="1:12" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="87"/>
-      <c r="B73" s="79"/>
-      <c r="C73" s="79"/>
-      <c r="D73" s="79"/>
+      <c r="A73" s="84"/>
+      <c r="B73" s="87"/>
+      <c r="C73" s="87"/>
+      <c r="D73" s="87"/>
       <c r="E73" s="19" t="s">
         <v>353</v>
       </c>
@@ -33212,18 +33234,18 @@
       <c r="L73" s="1"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A74" s="80"/>
-      <c r="B74" s="80"/>
-      <c r="C74" s="80"/>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
-      <c r="H74" s="80"/>
-      <c r="I74" s="80"/>
-      <c r="J74" s="80"/>
-      <c r="K74" s="80"/>
-      <c r="L74" s="80"/>
+      <c r="A74" s="81"/>
+      <c r="B74" s="81"/>
+      <c r="C74" s="81"/>
+      <c r="D74" s="81"/>
+      <c r="E74" s="81"/>
+      <c r="F74" s="81"/>
+      <c r="G74" s="81"/>
+      <c r="H74" s="81"/>
+      <c r="I74" s="81"/>
+      <c r="J74" s="81"/>
+      <c r="K74" s="81"/>
+      <c r="L74" s="81"/>
     </row>
     <row r="75" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="57">
@@ -33232,10 +33254,10 @@
       <c r="B75" s="60" t="s">
         <v>108</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="D75" s="60" t="s">
+      <c r="D75" s="70" t="s">
         <v>432</v>
       </c>
       <c r="E75" s="19" t="s">
@@ -33252,18 +33274,18 @@
       <c r="L75" s="1"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A76" s="80"/>
-      <c r="B76" s="80"/>
-      <c r="C76" s="80"/>
-      <c r="D76" s="80"/>
-      <c r="E76" s="80"/>
-      <c r="F76" s="80"/>
-      <c r="G76" s="80"/>
-      <c r="H76" s="80"/>
-      <c r="I76" s="80"/>
-      <c r="J76" s="80"/>
-      <c r="K76" s="80"/>
-      <c r="L76" s="80"/>
+      <c r="A76" s="81"/>
+      <c r="B76" s="81"/>
+      <c r="C76" s="81"/>
+      <c r="D76" s="81"/>
+      <c r="E76" s="81"/>
+      <c r="F76" s="81"/>
+      <c r="G76" s="81"/>
+      <c r="H76" s="81"/>
+      <c r="I76" s="81"/>
+      <c r="J76" s="81"/>
+      <c r="K76" s="81"/>
+      <c r="L76" s="81"/>
     </row>
     <row r="77" spans="1:12" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="58">
@@ -33272,10 +33294,10 @@
       <c r="B77" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C77" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D77" s="61" t="s">
+      <c r="D77" s="71" t="s">
         <v>433</v>
       </c>
       <c r="E77" s="19" t="s">
@@ -33292,30 +33314,30 @@
       <c r="L77" s="1"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A78" s="80"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="80"/>
-      <c r="F78" s="80"/>
-      <c r="G78" s="80"/>
-      <c r="H78" s="80"/>
-      <c r="I78" s="80"/>
-      <c r="J78" s="80"/>
-      <c r="K78" s="80"/>
-      <c r="L78" s="80"/>
+      <c r="A78" s="81"/>
+      <c r="B78" s="81"/>
+      <c r="C78" s="81"/>
+      <c r="D78" s="81"/>
+      <c r="E78" s="81"/>
+      <c r="F78" s="81"/>
+      <c r="G78" s="81"/>
+      <c r="H78" s="81"/>
+      <c r="I78" s="81"/>
+      <c r="J78" s="81"/>
+      <c r="K78" s="81"/>
+      <c r="L78" s="81"/>
     </row>
     <row r="79" spans="1:12" ht="21.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="85">
+      <c r="A79" s="82">
         <v>21</v>
       </c>
-      <c r="B79" s="77" t="s">
+      <c r="B79" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="77" t="s">
+      <c r="C79" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="77" t="s">
+      <c r="D79" s="85" t="s">
         <v>434</v>
       </c>
       <c r="E79" s="19" t="s">
@@ -33332,10 +33354,10 @@
       <c r="L79" s="1"/>
     </row>
     <row r="80" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="86"/>
-      <c r="B80" s="78"/>
-      <c r="C80" s="78"/>
-      <c r="D80" s="78"/>
+      <c r="A80" s="83"/>
+      <c r="B80" s="86"/>
+      <c r="C80" s="86"/>
+      <c r="D80" s="86"/>
       <c r="E80" s="19" t="s">
         <v>293</v>
       </c>
@@ -33350,30 +33372,30 @@
       <c r="L80" s="1"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A81" s="80"/>
-      <c r="B81" s="80"/>
-      <c r="C81" s="80"/>
-      <c r="D81" s="80"/>
-      <c r="E81" s="80"/>
-      <c r="F81" s="80"/>
-      <c r="G81" s="80"/>
-      <c r="H81" s="80"/>
-      <c r="I81" s="80"/>
-      <c r="J81" s="80"/>
-      <c r="K81" s="80"/>
-      <c r="L81" s="80"/>
+      <c r="A81" s="81"/>
+      <c r="B81" s="81"/>
+      <c r="C81" s="81"/>
+      <c r="D81" s="81"/>
+      <c r="E81" s="81"/>
+      <c r="F81" s="81"/>
+      <c r="G81" s="81"/>
+      <c r="H81" s="81"/>
+      <c r="I81" s="81"/>
+      <c r="J81" s="81"/>
+      <c r="K81" s="81"/>
+      <c r="L81" s="81"/>
     </row>
     <row r="82" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="85">
+      <c r="A82" s="82">
         <v>22</v>
       </c>
-      <c r="B82" s="77" t="s">
+      <c r="B82" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="C82" s="77" t="s">
+      <c r="C82" s="85" t="s">
         <v>56</v>
       </c>
-      <c r="D82" s="81" t="s">
+      <c r="D82" s="88" t="s">
         <v>435</v>
       </c>
       <c r="E82" s="19" t="s">
@@ -33390,10 +33412,10 @@
       <c r="L82" s="1"/>
     </row>
     <row r="83" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="86"/>
-      <c r="B83" s="78"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="83"/>
+      <c r="A83" s="83"/>
+      <c r="B83" s="86"/>
+      <c r="C83" s="86"/>
+      <c r="D83" s="89"/>
       <c r="E83" s="19" t="s">
         <v>293</v>
       </c>
@@ -33408,10 +33430,10 @@
       <c r="L83" s="1"/>
     </row>
     <row r="84" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="87"/>
-      <c r="B84" s="79"/>
-      <c r="C84" s="79"/>
-      <c r="D84" s="82"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="87"/>
+      <c r="C84" s="87"/>
+      <c r="D84" s="90"/>
       <c r="E84" s="19" t="s">
         <v>353</v>
       </c>
@@ -33426,46 +33448,1499 @@
       <c r="L84" s="1"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A85" s="80"/>
-      <c r="B85" s="80"/>
-      <c r="C85" s="80"/>
-      <c r="D85" s="80"/>
-      <c r="E85" s="80"/>
-      <c r="F85" s="80"/>
-      <c r="G85" s="80"/>
-      <c r="H85" s="80"/>
-      <c r="I85" s="80"/>
-      <c r="J85" s="80"/>
-      <c r="K85" s="80"/>
-      <c r="L85" s="80"/>
+      <c r="A85" s="81"/>
+      <c r="B85" s="81"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="81"/>
+      <c r="E85" s="81"/>
+      <c r="F85" s="81"/>
+      <c r="G85" s="81"/>
+      <c r="H85" s="81"/>
+      <c r="I85" s="81"/>
+      <c r="J85" s="81"/>
+      <c r="K85" s="81"/>
+      <c r="L85" s="81"/>
+    </row>
+    <row r="86" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A86" s="76">
+        <v>109</v>
+      </c>
+      <c r="B86" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C86" s="73" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G86" s="6"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+    </row>
+    <row r="87" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A87" s="77">
+        <f t="shared" ref="A87:D91" si="0">A86</f>
+        <v>109</v>
+      </c>
+      <c r="B87" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C87" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INTAKE RROCKR ARM
+</v>
+      </c>
+      <c r="D87" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>1A009685  (4)</v>
+      </c>
+      <c r="E87" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G87" s="6"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+    </row>
+    <row r="88" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A88" s="77">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B88" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C88" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INTAKE RROCKR ARM
+</v>
+      </c>
+      <c r="D88" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>1A009685  (4)</v>
+      </c>
+      <c r="E88" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="G88" s="6"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+    </row>
+    <row r="89" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A89" s="77">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B89" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C89" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INTAKE RROCKR ARM
+</v>
+      </c>
+      <c r="D89" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>1A009685  (4)</v>
+      </c>
+      <c r="E89" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="G89" s="6"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+    </row>
+    <row r="90" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A90" s="77">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B90" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C90" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INTAKE RROCKR ARM
+</v>
+      </c>
+      <c r="D90" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>1A009685  (4)</v>
+      </c>
+      <c r="E90" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="G90" s="6"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+    </row>
+    <row r="91" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A91" s="77">
+        <f t="shared" si="0"/>
+        <v>109</v>
+      </c>
+      <c r="B91" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C91" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">INTAKE RROCKR ARM
+</v>
+      </c>
+      <c r="D91" s="71" t="str">
+        <f t="shared" si="0"/>
+        <v>1A009685  (4)</v>
+      </c>
+      <c r="E91" s="19" t="s">
+        <v>216</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G91" s="6"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A92" s="81"/>
+      <c r="B92" s="81"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="81"/>
+      <c r="E92" s="81"/>
+      <c r="F92" s="81"/>
+      <c r="G92" s="81"/>
+      <c r="H92" s="81"/>
+      <c r="I92" s="81"/>
+      <c r="J92" s="81"/>
+      <c r="K92" s="81"/>
+      <c r="L92" s="81"/>
+    </row>
+    <row r="93" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="82">
+        <v>108</v>
+      </c>
+      <c r="B93" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" s="85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="85" t="s">
+        <v>97</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G93" s="6"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+    </row>
+    <row r="94" spans="1:12" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="83"/>
+      <c r="B94" s="89"/>
+      <c r="C94" s="86"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G94" s="6"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+    </row>
+    <row r="95" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="83"/>
+      <c r="B95" s="89"/>
+      <c r="C95" s="86"/>
+      <c r="D95" s="86"/>
+      <c r="E95" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G95" s="6"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+    </row>
+    <row r="96" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="84"/>
+      <c r="B96" s="90"/>
+      <c r="C96" s="87"/>
+      <c r="D96" s="87"/>
+      <c r="E96" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G96" s="6"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A97" s="81"/>
+      <c r="B97" s="81"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="81"/>
+      <c r="E97" s="81"/>
+      <c r="F97" s="81"/>
+      <c r="G97" s="81"/>
+      <c r="H97" s="81"/>
+      <c r="I97" s="81"/>
+      <c r="J97" s="81"/>
+      <c r="K97" s="81"/>
+      <c r="L97" s="81"/>
+    </row>
+    <row r="98" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A98" s="76">
+        <v>96</v>
+      </c>
+      <c r="B98" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C98" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="E98" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G98" s="6"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+    </row>
+    <row r="99" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A99" s="77">
+        <f t="shared" ref="A99:D103" si="1">A98</f>
+        <v>96</v>
+      </c>
+      <c r="B99" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C99" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>EXHAUST ROCKER ARM</v>
+      </c>
+      <c r="D99" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>1A017791  (7)</v>
+      </c>
+      <c r="E99" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G99" s="6"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="1"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+    </row>
+    <row r="100" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A100" s="77">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B100" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C100" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>EXHAUST ROCKER ARM</v>
+      </c>
+      <c r="D100" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>1A017791  (7)</v>
+      </c>
+      <c r="E100" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+    </row>
+    <row r="101" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A101" s="77">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B101" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C101" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>EXHAUST ROCKER ARM</v>
+      </c>
+      <c r="D101" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>1A017791  (7)</v>
+      </c>
+      <c r="E101" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101" s="6"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="1"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+    </row>
+    <row r="102" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A102" s="77">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B102" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C102" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>EXHAUST ROCKER ARM</v>
+      </c>
+      <c r="D102" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>1A017791  (7)</v>
+      </c>
+      <c r="E102" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G102" s="6"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="1"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+    </row>
+    <row r="103" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A103" s="77">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="B103" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C103" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>EXHAUST ROCKER ARM</v>
+      </c>
+      <c r="D103" s="68" t="str">
+        <f t="shared" si="1"/>
+        <v>1A017791  (7)</v>
+      </c>
+      <c r="E103" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G103" s="6"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="1"/>
+      <c r="K103" s="1"/>
+      <c r="L103" s="1"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A104" s="81"/>
+      <c r="B104" s="81"/>
+      <c r="C104" s="81"/>
+      <c r="D104" s="81"/>
+      <c r="E104" s="81"/>
+      <c r="F104" s="81"/>
+      <c r="G104" s="81"/>
+      <c r="H104" s="81"/>
+      <c r="I104" s="81"/>
+      <c r="J104" s="81"/>
+      <c r="K104" s="81"/>
+      <c r="L104" s="81"/>
+    </row>
+    <row r="105" spans="1:12" ht="28" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="76">
+        <v>97</v>
+      </c>
+      <c r="B105" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G105" s="6"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="6"/>
+      <c r="J105" s="1"/>
+      <c r="K105" s="1"/>
+      <c r="L105" s="1"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A106" s="95"/>
+      <c r="B106" s="95"/>
+      <c r="C106" s="95"/>
+      <c r="D106" s="95"/>
+      <c r="E106" s="95"/>
+      <c r="F106" s="95"/>
+      <c r="G106" s="95"/>
+      <c r="H106" s="95"/>
+      <c r="I106" s="95"/>
+      <c r="J106" s="95"/>
+      <c r="K106" s="95"/>
+      <c r="L106" s="95"/>
+    </row>
+    <row r="107" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A107" s="76">
+        <v>104</v>
+      </c>
+      <c r="B107" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C107" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D107" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G107" s="6"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="6"/>
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+    </row>
+    <row r="108" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A108" s="77">
+        <f t="shared" ref="A108:D111" si="2">A107</f>
+        <v>104</v>
+      </c>
+      <c r="B108" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C108" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>EXHAUST ROCKER ARM</v>
+      </c>
+      <c r="D108" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1A021315  (6)</v>
+      </c>
+      <c r="E108" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G108" s="6"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="6"/>
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+    </row>
+    <row r="109" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A109" s="77">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B109" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C109" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>EXHAUST ROCKER ARM</v>
+      </c>
+      <c r="D109" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1A021315  (6)</v>
+      </c>
+      <c r="E109" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G109" s="6"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="6"/>
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+    </row>
+    <row r="110" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A110" s="77">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B110" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C110" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>EXHAUST ROCKER ARM</v>
+      </c>
+      <c r="D110" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1A021315  (6)</v>
+      </c>
+      <c r="E110" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G110" s="6"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+    </row>
+    <row r="111" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A111" s="77">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B111" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C111" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>EXHAUST ROCKER ARM</v>
+      </c>
+      <c r="D111" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1A021315  (6)</v>
+      </c>
+      <c r="E111" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="G111" s="6"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A112" s="95"/>
+      <c r="B112" s="95"/>
+      <c r="C112" s="95"/>
+      <c r="D112" s="95"/>
+      <c r="E112" s="95"/>
+      <c r="F112" s="95"/>
+      <c r="G112" s="95"/>
+      <c r="H112" s="95"/>
+      <c r="I112" s="95"/>
+      <c r="J112" s="95"/>
+      <c r="K112" s="95"/>
+      <c r="L112" s="95"/>
+    </row>
+    <row r="113" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A113" s="76">
+        <v>105</v>
+      </c>
+      <c r="B113" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D113" s="67" t="s">
+        <v>94</v>
+      </c>
+      <c r="E113" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G113" s="6"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="1"/>
+      <c r="K113" s="1"/>
+      <c r="L113" s="1"/>
+    </row>
+    <row r="114" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A114" s="77">
+        <f t="shared" ref="A114:D114" si="3">A113</f>
+        <v>105</v>
+      </c>
+      <c r="B114" s="74" t="str">
+        <f t="shared" si="3"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C114" s="25" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">INTAKE RROCKR ARM
+</v>
+      </c>
+      <c r="D114" s="68" t="str">
+        <f t="shared" si="3"/>
+        <v>1A021317  (6)</v>
+      </c>
+      <c r="E114" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G114" s="6"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="6"/>
+      <c r="J114" s="1"/>
+      <c r="K114" s="1"/>
+      <c r="L114" s="1"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A115" s="95"/>
+      <c r="B115" s="95"/>
+      <c r="C115" s="95"/>
+      <c r="D115" s="95"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="95"/>
+      <c r="G115" s="95"/>
+      <c r="H115" s="95"/>
+      <c r="I115" s="95"/>
+      <c r="J115" s="95"/>
+      <c r="K115" s="95"/>
+      <c r="L115" s="95"/>
+    </row>
+    <row r="116" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A116" s="76">
+        <v>113</v>
+      </c>
+      <c r="B116" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C116" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D116" s="67" t="s">
+        <v>102</v>
+      </c>
+      <c r="E116" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+    </row>
+    <row r="117" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A117" s="77">
+        <f t="shared" ref="A117:D118" si="4">A116</f>
+        <v>113</v>
+      </c>
+      <c r="B117" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C117" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">INTAKE RROCKR ARM
+</v>
+      </c>
+      <c r="D117" s="68" t="str">
+        <f t="shared" si="4"/>
+        <v>1A002806  (2)</v>
+      </c>
+      <c r="E117" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G117" s="6"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="6"/>
+      <c r="J117" s="1"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+    </row>
+    <row r="118" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A118" s="77">
+        <f t="shared" si="4"/>
+        <v>113</v>
+      </c>
+      <c r="B118" s="74" t="str">
+        <f t="shared" si="4"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C118" s="25" t="str">
+        <f t="shared" si="4"/>
+        <v xml:space="preserve">INTAKE RROCKR ARM
+</v>
+      </c>
+      <c r="D118" s="68" t="str">
+        <f t="shared" si="4"/>
+        <v>1A002806  (2)</v>
+      </c>
+      <c r="E118" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G118" s="6"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="6"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A119" s="95"/>
+      <c r="B119" s="95"/>
+      <c r="C119" s="95"/>
+      <c r="D119" s="95"/>
+      <c r="E119" s="95"/>
+      <c r="F119" s="95"/>
+      <c r="G119" s="95"/>
+      <c r="H119" s="95"/>
+      <c r="I119" s="95"/>
+      <c r="J119" s="95"/>
+      <c r="K119" s="95"/>
+      <c r="L119" s="95"/>
+    </row>
+    <row r="120" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A120" s="76">
+        <v>112</v>
+      </c>
+      <c r="B120" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="67" t="s">
+        <v>101</v>
+      </c>
+      <c r="E120" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G120" s="6"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="6"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+    </row>
+    <row r="121" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A121" s="77">
+        <f t="shared" ref="A121:D123" si="5">A120</f>
+        <v>112</v>
+      </c>
+      <c r="B121" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C121" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v>EXHAUST ROCKER ARM</v>
+      </c>
+      <c r="D121" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v>1A002808  (2)</v>
+      </c>
+      <c r="E121" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G121" s="6"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="6"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+    </row>
+    <row r="122" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A122" s="77">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="B122" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C122" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v>EXHAUST ROCKER ARM</v>
+      </c>
+      <c r="D122" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v>1A002808  (2)</v>
+      </c>
+      <c r="E122" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="G122" s="6"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="6"/>
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+    </row>
+    <row r="123" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A123" s="77">
+        <f t="shared" si="5"/>
+        <v>112</v>
+      </c>
+      <c r="B123" s="74" t="str">
+        <f t="shared" si="5"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C123" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v>EXHAUST ROCKER ARM</v>
+      </c>
+      <c r="D123" s="68" t="str">
+        <f t="shared" si="5"/>
+        <v>1A002808  (2)</v>
+      </c>
+      <c r="E123" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G123" s="6"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A124" s="95"/>
+      <c r="B124" s="95"/>
+      <c r="C124" s="95"/>
+      <c r="D124" s="95"/>
+      <c r="E124" s="95"/>
+      <c r="F124" s="95"/>
+      <c r="G124" s="95"/>
+      <c r="H124" s="95"/>
+      <c r="I124" s="95"/>
+      <c r="J124" s="95"/>
+      <c r="K124" s="95"/>
+      <c r="L124" s="95"/>
+    </row>
+    <row r="125" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A125" s="76">
+        <v>106</v>
+      </c>
+      <c r="B125" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C125" s="67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E125" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G125" s="6"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="1"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A126" s="95"/>
+      <c r="B126" s="95"/>
+      <c r="C126" s="95"/>
+      <c r="D126" s="95"/>
+      <c r="E126" s="95"/>
+      <c r="F126" s="95"/>
+      <c r="G126" s="95"/>
+      <c r="H126" s="95"/>
+      <c r="I126" s="95"/>
+      <c r="J126" s="95"/>
+      <c r="K126" s="95"/>
+      <c r="L126" s="95"/>
+    </row>
+    <row r="127" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A127" s="76">
+        <v>107</v>
+      </c>
+      <c r="B127" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="67" t="s">
+        <v>96</v>
+      </c>
+      <c r="E127" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G127" s="8"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="1"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
+    </row>
+    <row r="128" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A128" s="77">
+        <f>A127</f>
+        <v>107</v>
+      </c>
+      <c r="B128" s="74" t="str">
+        <f>B127</f>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C128" s="25" t="str">
+        <f>C127</f>
+        <v>INTAKE RROCKR ARM</v>
+      </c>
+      <c r="D128" s="68" t="str">
+        <f>D127</f>
+        <v>1A014973  (3)</v>
+      </c>
+      <c r="E128" s="19" t="s">
+        <v>330</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G128" s="6"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="1"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
+    </row>
+    <row r="129" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A129" s="77">
+        <f t="shared" ref="A129:D129" si="6">A128</f>
+        <v>107</v>
+      </c>
+      <c r="B129" s="74" t="str">
+        <f t="shared" si="6"/>
+        <v>VNSW
+PIAGGIO</v>
+      </c>
+      <c r="C129" s="25" t="str">
+        <f t="shared" si="6"/>
+        <v>INTAKE RROCKR ARM</v>
+      </c>
+      <c r="D129" s="68" t="str">
+        <f t="shared" si="6"/>
+        <v>1A014973  (3)</v>
+      </c>
+      <c r="E129" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G129" s="6"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A130" s="95"/>
+      <c r="B130" s="95"/>
+      <c r="C130" s="95"/>
+      <c r="D130" s="95"/>
+      <c r="E130" s="95"/>
+      <c r="F130" s="95"/>
+      <c r="G130" s="95"/>
+      <c r="H130" s="95"/>
+      <c r="I130" s="95"/>
+      <c r="J130" s="95"/>
+      <c r="K130" s="95"/>
+      <c r="L130" s="95"/>
+    </row>
+    <row r="131" spans="1:12" ht="28" x14ac:dyDescent="0.35">
+      <c r="A131" s="76">
+        <v>122</v>
+      </c>
+      <c r="B131" s="1"/>
+      <c r="C131" s="45"/>
+      <c r="D131" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="E131" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="1"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A132" s="81"/>
+      <c r="B132" s="81"/>
+      <c r="C132" s="81"/>
+      <c r="D132" s="81"/>
+      <c r="E132" s="81"/>
+      <c r="F132" s="81"/>
+      <c r="G132" s="81"/>
+      <c r="H132" s="81"/>
+      <c r="I132" s="81"/>
+      <c r="J132" s="81"/>
+      <c r="K132" s="81"/>
+      <c r="L132" s="81"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A133" s="76">
+        <v>124</v>
+      </c>
+      <c r="B133" s="1"/>
+      <c r="C133" s="45"/>
+      <c r="D133" s="46"/>
+      <c r="E133" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="H133" s="1"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="1"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A134" s="77">
+        <v>124</v>
+      </c>
+      <c r="B134" s="1"/>
+      <c r="C134" s="45"/>
+      <c r="D134" s="46"/>
+      <c r="E134" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="G134" s="6"/>
+      <c r="H134" s="1"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="1"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A135" s="77">
+        <v>124</v>
+      </c>
+      <c r="B135" s="1"/>
+      <c r="C135" s="45"/>
+      <c r="D135" s="46" t="s">
+        <v>401</v>
+      </c>
+      <c r="E135" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="1"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="1"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A136" s="77">
+        <v>124</v>
+      </c>
+      <c r="B136" s="1"/>
+      <c r="C136" s="45"/>
+      <c r="D136" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="E136" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="G136" s="6"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A137" s="77">
+        <v>124</v>
+      </c>
+      <c r="B137" s="72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C137" s="45"/>
+      <c r="D137" s="46" t="s">
+        <v>421</v>
+      </c>
+      <c r="E137" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="G137" s="6"/>
+      <c r="H137" s="1"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A138" s="81"/>
+      <c r="B138" s="81"/>
+      <c r="C138" s="81"/>
+      <c r="D138" s="81"/>
+      <c r="E138" s="81"/>
+      <c r="F138" s="81"/>
+      <c r="G138" s="81"/>
+      <c r="H138" s="81"/>
+      <c r="I138" s="81"/>
+      <c r="J138" s="81"/>
+      <c r="K138" s="81"/>
+      <c r="L138" s="81"/>
+    </row>
+    <row r="139" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="76">
+        <v>90</v>
+      </c>
+      <c r="B139" s="70" t="s">
+        <v>105</v>
+      </c>
+      <c r="C139" s="67"/>
+      <c r="D139" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="E139" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="G139" s="6"/>
+      <c r="H139" s="1"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="1"/>
+      <c r="K139" s="1"/>
+      <c r="L139" s="1"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A140" s="81"/>
+      <c r="B140" s="81"/>
+      <c r="C140" s="81"/>
+      <c r="D140" s="81"/>
+      <c r="E140" s="81"/>
+      <c r="F140" s="81"/>
+      <c r="G140" s="81"/>
+      <c r="H140" s="81"/>
+      <c r="I140" s="81"/>
+      <c r="J140" s="81"/>
+      <c r="K140" s="81"/>
+      <c r="L140" s="81"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A141" s="76">
+        <v>87</v>
+      </c>
+      <c r="B141" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C141" s="67" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141" s="67" t="s">
+        <v>390</v>
+      </c>
+      <c r="E141" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="G141" s="6"/>
+      <c r="H141" s="1"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="1"/>
+      <c r="K141" s="1"/>
+      <c r="L141" s="1"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A142" s="77">
+        <f t="shared" ref="A142:D142" si="7">A141</f>
+        <v>87</v>
+      </c>
+      <c r="B142" s="71" t="str">
+        <f t="shared" si="7"/>
+        <v>TAIWWAN</v>
+      </c>
+      <c r="C142" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v>ARM COMP VALVE ROCKER</v>
+      </c>
+      <c r="D142" s="68" t="str">
+        <f t="shared" si="7"/>
+        <v>12840-33G00</v>
+      </c>
+      <c r="E142" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="G142" s="6"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A143" s="81"/>
+      <c r="B143" s="81"/>
+      <c r="C143" s="81"/>
+      <c r="D143" s="81"/>
+      <c r="E143" s="81"/>
+      <c r="F143" s="81"/>
+      <c r="G143" s="81"/>
+      <c r="H143" s="81"/>
+      <c r="I143" s="81"/>
+      <c r="J143" s="81"/>
+      <c r="K143" s="81"/>
+      <c r="L143" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="A81:L81"/>
-    <mergeCell ref="A85:L85"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="A76:L76"/>
-    <mergeCell ref="A78:L78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A66:L66"/>
-    <mergeCell ref="A68:L68"/>
-    <mergeCell ref="A70:L70"/>
-    <mergeCell ref="A74:L74"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="A63:L63"/>
+  <mergeCells count="103">
+    <mergeCell ref="A138:L138"/>
+    <mergeCell ref="A140:L140"/>
+    <mergeCell ref="A143:L143"/>
+    <mergeCell ref="A112:L112"/>
+    <mergeCell ref="A106:L106"/>
+    <mergeCell ref="A124:L124"/>
+    <mergeCell ref="A126:L126"/>
+    <mergeCell ref="A119:L119"/>
+    <mergeCell ref="A115:L115"/>
+    <mergeCell ref="A130:L130"/>
+    <mergeCell ref="A132:L132"/>
+    <mergeCell ref="A104:L104"/>
+    <mergeCell ref="A97:L97"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A92:L92"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A23:L23"/>
+    <mergeCell ref="A28:L28"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A30:L30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="D31:D34"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A35:L35"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A48:L48"/>
     <mergeCell ref="A64:A65"/>
     <mergeCell ref="B64:B65"/>
     <mergeCell ref="C64:C65"/>
@@ -33476,56 +34951,31 @@
     <mergeCell ref="C54:C58"/>
     <mergeCell ref="D54:D58"/>
     <mergeCell ref="A59:L59"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A48:L48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="A35:L35"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A28:L28"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A23:L23"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C19:C22"/>
-    <mergeCell ref="D19:D22"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:L13"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="A63:L63"/>
+    <mergeCell ref="A66:L66"/>
+    <mergeCell ref="A68:L68"/>
+    <mergeCell ref="A70:L70"/>
+    <mergeCell ref="A74:L74"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="A76:L76"/>
+    <mergeCell ref="A78:L78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:L81"/>
+    <mergeCell ref="A85:L85"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/hang/Copy of tenhang.xlsx
+++ b/hang/Copy of tenhang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\strongway_dungcu\hang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\strongway_dungcu\hang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1727,7 +1727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2000,6 +2000,27 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2009,13 +2030,37 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2024,13 +2069,13 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2042,6 +2087,15 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2051,57 +2105,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3691,7 +3694,7 @@
       <c r="B56" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="92"/>
+      <c r="C56" s="101"/>
       <c r="D56" s="35" t="s">
         <v>10</v>
       </c>
@@ -3711,7 +3714,7 @@
       <c r="B57" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="93"/>
+      <c r="C57" s="102"/>
       <c r="D57" s="36" t="s">
         <v>10</v>
       </c>
@@ -3731,7 +3734,7 @@
       <c r="B58" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C58" s="93"/>
+      <c r="C58" s="102"/>
       <c r="D58" s="36" t="s">
         <v>10</v>
       </c>
@@ -3751,7 +3754,7 @@
       <c r="B59" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C59" s="93"/>
+      <c r="C59" s="102"/>
       <c r="D59" s="36" t="s">
         <v>10</v>
       </c>
@@ -3771,7 +3774,7 @@
       <c r="B60" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C60" s="93"/>
+      <c r="C60" s="102"/>
       <c r="D60" s="36" t="s">
         <v>10</v>
       </c>
@@ -3791,7 +3794,7 @@
       <c r="B61" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C61" s="93"/>
+      <c r="C61" s="102"/>
       <c r="D61" s="36" t="s">
         <v>10</v>
       </c>
@@ -3811,7 +3814,7 @@
       <c r="B62" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="93"/>
+      <c r="C62" s="102"/>
       <c r="D62" s="36" t="s">
         <v>10</v>
       </c>
@@ -3831,7 +3834,7 @@
       <c r="B63" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="93"/>
+      <c r="C63" s="102"/>
       <c r="D63" s="36" t="s">
         <v>10</v>
       </c>
@@ -3851,7 +3854,7 @@
       <c r="B64" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C64" s="94"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="37" t="s">
         <v>10</v>
       </c>
@@ -3885,7 +3888,7 @@
       <c r="B66" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="92"/>
+      <c r="C66" s="101"/>
       <c r="D66" s="35" t="s">
         <v>11</v>
       </c>
@@ -3909,7 +3912,7 @@
       <c r="B67" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C67" s="93"/>
+      <c r="C67" s="102"/>
       <c r="D67" s="36" t="s">
         <v>11</v>
       </c>
@@ -3929,7 +3932,7 @@
       <c r="B68" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C68" s="93"/>
+      <c r="C68" s="102"/>
       <c r="D68" s="36" t="s">
         <v>11</v>
       </c>
@@ -3949,7 +3952,7 @@
       <c r="B69" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C69" s="93"/>
+      <c r="C69" s="102"/>
       <c r="D69" s="36" t="s">
         <v>11</v>
       </c>
@@ -3969,7 +3972,7 @@
       <c r="B70" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C70" s="93"/>
+      <c r="C70" s="102"/>
       <c r="D70" s="36" t="s">
         <v>11</v>
       </c>
@@ -3989,7 +3992,7 @@
       <c r="B71" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C71" s="93"/>
+      <c r="C71" s="102"/>
       <c r="D71" s="36" t="s">
         <v>11</v>
       </c>
@@ -4009,7 +4012,7 @@
       <c r="B72" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C72" s="93"/>
+      <c r="C72" s="102"/>
       <c r="D72" s="36" t="s">
         <v>11</v>
       </c>
@@ -4029,7 +4032,7 @@
       <c r="B73" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="C73" s="93"/>
+      <c r="C73" s="102"/>
       <c r="D73" s="36" t="s">
         <v>11</v>
       </c>
@@ -4049,7 +4052,7 @@
       <c r="B74" s="62" t="s">
         <v>106</v>
       </c>
-      <c r="C74" s="94"/>
+      <c r="C74" s="103"/>
       <c r="D74" s="37" t="s">
         <v>11</v>
       </c>
@@ -4083,7 +4086,7 @@
       <c r="B76" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="92"/>
+      <c r="C76" s="101"/>
       <c r="D76" s="35" t="s">
         <v>12</v>
       </c>
@@ -4105,7 +4108,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C77" s="93"/>
+      <c r="C77" s="102"/>
       <c r="D77" s="36" t="str">
         <f t="shared" ref="D77:D84" si="1">D76</f>
         <v>A1908060 (8)</v>
@@ -4128,7 +4131,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C78" s="93"/>
+      <c r="C78" s="102"/>
       <c r="D78" s="36" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -4151,7 +4154,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C79" s="93"/>
+      <c r="C79" s="102"/>
       <c r="D79" s="36" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -4174,7 +4177,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C80" s="93"/>
+      <c r="C80" s="102"/>
       <c r="D80" s="36" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -4197,7 +4200,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C81" s="93"/>
+      <c r="C81" s="102"/>
       <c r="D81" s="36" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -4220,7 +4223,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C82" s="93"/>
+      <c r="C82" s="102"/>
       <c r="D82" s="36" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -4243,7 +4246,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C83" s="93"/>
+      <c r="C83" s="102"/>
       <c r="D83" s="36" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -4266,7 +4269,7 @@
         <f t="shared" si="0"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C84" s="94"/>
+      <c r="C84" s="103"/>
       <c r="D84" s="37" t="str">
         <f t="shared" si="1"/>
         <v>A1908060 (8)</v>
@@ -4301,7 +4304,7 @@
       <c r="B86" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C86" s="92"/>
+      <c r="C86" s="101"/>
       <c r="D86" s="35" t="s">
         <v>13</v>
       </c>
@@ -4323,7 +4326,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C87" s="93"/>
+      <c r="C87" s="102"/>
       <c r="D87" s="36" t="str">
         <f t="shared" ref="D87:D94" si="3">D86</f>
         <v>A2006064 (8)</v>
@@ -4346,7 +4349,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C88" s="93"/>
+      <c r="C88" s="102"/>
       <c r="D88" s="36" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4369,7 +4372,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C89" s="93"/>
+      <c r="C89" s="102"/>
       <c r="D89" s="36" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4392,7 +4395,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C90" s="93"/>
+      <c r="C90" s="102"/>
       <c r="D90" s="36" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4415,7 +4418,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C91" s="93"/>
+      <c r="C91" s="102"/>
       <c r="D91" s="36" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4438,7 +4441,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C92" s="93"/>
+      <c r="C92" s="102"/>
       <c r="D92" s="36" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4461,7 +4464,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C93" s="93"/>
+      <c r="C93" s="102"/>
       <c r="D93" s="36" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4484,7 +4487,7 @@
         <f t="shared" si="2"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C94" s="94"/>
+      <c r="C94" s="103"/>
       <c r="D94" s="37" t="str">
         <f t="shared" si="3"/>
         <v>A2006064 (8)</v>
@@ -4519,7 +4522,7 @@
       <c r="B96" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C96" s="92"/>
+      <c r="C96" s="101"/>
       <c r="D96" s="35" t="s">
         <v>14</v>
       </c>
@@ -4541,7 +4544,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C97" s="93"/>
+      <c r="C97" s="102"/>
       <c r="D97" s="36" t="str">
         <f t="shared" ref="D97:D104" si="5">D96</f>
         <v>A2006063  (8)</v>
@@ -4564,7 +4567,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C98" s="93"/>
+      <c r="C98" s="102"/>
       <c r="D98" s="36" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4587,7 +4590,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C99" s="93"/>
+      <c r="C99" s="102"/>
       <c r="D99" s="36" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4610,7 +4613,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C100" s="93"/>
+      <c r="C100" s="102"/>
       <c r="D100" s="36" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4633,7 +4636,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C101" s="93"/>
+      <c r="C101" s="102"/>
       <c r="D101" s="36" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4656,7 +4659,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C102" s="93"/>
+      <c r="C102" s="102"/>
       <c r="D102" s="36" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4679,7 +4682,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C103" s="93"/>
+      <c r="C103" s="102"/>
       <c r="D103" s="36" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4702,7 +4705,7 @@
         <f t="shared" si="4"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C104" s="94"/>
+      <c r="C104" s="103"/>
       <c r="D104" s="37" t="str">
         <f t="shared" si="5"/>
         <v>A2006063  (8)</v>
@@ -4737,7 +4740,7 @@
       <c r="B106" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C106" s="92"/>
+      <c r="C106" s="101"/>
       <c r="D106" s="35" t="s">
         <v>15</v>
       </c>
@@ -4759,7 +4762,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C107" s="93"/>
+      <c r="C107" s="102"/>
       <c r="D107" s="36" t="str">
         <f t="shared" ref="D107:D114" si="7">D106</f>
         <v>A1609173 (8)</v>
@@ -4782,7 +4785,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C108" s="93"/>
+      <c r="C108" s="102"/>
       <c r="D108" s="36" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4805,7 +4808,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C109" s="93"/>
+      <c r="C109" s="102"/>
       <c r="D109" s="36" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4828,7 +4831,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C110" s="93"/>
+      <c r="C110" s="102"/>
       <c r="D110" s="36" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4851,7 +4854,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C111" s="93"/>
+      <c r="C111" s="102"/>
       <c r="D111" s="36" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4874,7 +4877,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C112" s="93"/>
+      <c r="C112" s="102"/>
       <c r="D112" s="36" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4897,7 +4900,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C113" s="93"/>
+      <c r="C113" s="102"/>
       <c r="D113" s="36" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4920,7 +4923,7 @@
         <f t="shared" si="6"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C114" s="94"/>
+      <c r="C114" s="103"/>
       <c r="D114" s="37" t="str">
         <f t="shared" si="7"/>
         <v>A1609173 (8)</v>
@@ -4955,7 +4958,7 @@
       <c r="B116" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C116" s="92"/>
+      <c r="C116" s="101"/>
       <c r="D116" s="24" t="s">
         <v>219</v>
       </c>
@@ -4981,7 +4984,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C117" s="93"/>
+      <c r="C117" s="102"/>
       <c r="D117" s="25" t="str">
         <f t="shared" ref="D117:D124" si="9">D116</f>
         <v>A1609174 (9)
@@ -5005,7 +5008,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C118" s="93"/>
+      <c r="C118" s="102"/>
       <c r="D118" s="25" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -5029,7 +5032,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C119" s="93"/>
+      <c r="C119" s="102"/>
       <c r="D119" s="25" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -5053,7 +5056,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C120" s="93"/>
+      <c r="C120" s="102"/>
       <c r="D120" s="25" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -5077,7 +5080,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C121" s="93"/>
+      <c r="C121" s="102"/>
       <c r="D121" s="25" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -5101,7 +5104,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C122" s="93"/>
+      <c r="C122" s="102"/>
       <c r="D122" s="25" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -5125,7 +5128,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C123" s="93"/>
+      <c r="C123" s="102"/>
       <c r="D123" s="25" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -5149,7 +5152,7 @@
         <f t="shared" si="8"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C124" s="94"/>
+      <c r="C124" s="103"/>
       <c r="D124" s="26" t="str">
         <f t="shared" si="9"/>
         <v>A1609174 (9)
@@ -5185,7 +5188,7 @@
       <c r="B126" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C126" s="92"/>
+      <c r="C126" s="101"/>
       <c r="D126" s="35" t="s">
         <v>16</v>
       </c>
@@ -5211,7 +5214,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C127" s="93"/>
+      <c r="C127" s="102"/>
       <c r="D127" s="36" t="str">
         <f t="shared" ref="D127:D134" si="11">D126</f>
         <v>A1908056  (9)</v>
@@ -5234,7 +5237,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C128" s="93"/>
+      <c r="C128" s="102"/>
       <c r="D128" s="36" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5257,7 +5260,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C129" s="93"/>
+      <c r="C129" s="102"/>
       <c r="D129" s="36" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5280,7 +5283,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C130" s="93"/>
+      <c r="C130" s="102"/>
       <c r="D130" s="36" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5303,7 +5306,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C131" s="93"/>
+      <c r="C131" s="102"/>
       <c r="D131" s="36" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5326,7 +5329,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C132" s="93"/>
+      <c r="C132" s="102"/>
       <c r="D132" s="36" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5349,7 +5352,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C133" s="93"/>
+      <c r="C133" s="102"/>
       <c r="D133" s="36" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5372,7 +5375,7 @@
         <f t="shared" si="10"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C134" s="94"/>
+      <c r="C134" s="103"/>
       <c r="D134" s="37" t="str">
         <f t="shared" si="11"/>
         <v>A1908056  (9)</v>
@@ -5407,7 +5410,7 @@
       <c r="B136" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C136" s="92"/>
+      <c r="C136" s="101"/>
       <c r="D136" s="35" t="s">
         <v>17</v>
       </c>
@@ -5429,7 +5432,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C137" s="93"/>
+      <c r="C137" s="102"/>
       <c r="D137" s="36" t="str">
         <f t="shared" ref="D137:D144" si="13">D136</f>
         <v>A1908061 (10)</v>
@@ -5452,7 +5455,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C138" s="93"/>
+      <c r="C138" s="102"/>
       <c r="D138" s="36" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5475,7 +5478,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C139" s="93"/>
+      <c r="C139" s="102"/>
       <c r="D139" s="36" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5498,7 +5501,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C140" s="93"/>
+      <c r="C140" s="102"/>
       <c r="D140" s="36" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5521,7 +5524,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C141" s="93"/>
+      <c r="C141" s="102"/>
       <c r="D141" s="36" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5544,7 +5547,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C142" s="93"/>
+      <c r="C142" s="102"/>
       <c r="D142" s="36" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5567,7 +5570,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C143" s="93"/>
+      <c r="C143" s="102"/>
       <c r="D143" s="36" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5590,7 +5593,7 @@
         <f t="shared" si="12"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C144" s="94"/>
+      <c r="C144" s="103"/>
       <c r="D144" s="37" t="str">
         <f t="shared" si="13"/>
         <v>A1908061 (10)</v>
@@ -5625,7 +5628,7 @@
       <c r="B146" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C146" s="92"/>
+      <c r="C146" s="101"/>
       <c r="D146" s="35" t="s">
         <v>18</v>
       </c>
@@ -5647,7 +5650,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C147" s="93"/>
+      <c r="C147" s="102"/>
       <c r="D147" s="36" t="str">
         <f t="shared" ref="D147:D154" si="15">D146</f>
         <v>A1908062  (10)</v>
@@ -5670,7 +5673,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C148" s="93"/>
+      <c r="C148" s="102"/>
       <c r="D148" s="36" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5693,7 +5696,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C149" s="93"/>
+      <c r="C149" s="102"/>
       <c r="D149" s="36" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5716,7 +5719,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C150" s="93"/>
+      <c r="C150" s="102"/>
       <c r="D150" s="36" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5739,7 +5742,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C151" s="93"/>
+      <c r="C151" s="102"/>
       <c r="D151" s="36" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5762,7 +5765,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C152" s="93"/>
+      <c r="C152" s="102"/>
       <c r="D152" s="36" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5785,7 +5788,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C153" s="93"/>
+      <c r="C153" s="102"/>
       <c r="D153" s="36" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5808,7 +5811,7 @@
         <f t="shared" si="14"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C154" s="94"/>
+      <c r="C154" s="103"/>
       <c r="D154" s="37" t="str">
         <f t="shared" si="15"/>
         <v>A1908062  (10)</v>
@@ -5843,7 +5846,7 @@
       <c r="B156" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C156" s="92"/>
+      <c r="C156" s="101"/>
       <c r="D156" s="35" t="s">
         <v>19</v>
       </c>
@@ -5865,7 +5868,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C157" s="93"/>
+      <c r="C157" s="102"/>
       <c r="D157" s="36" t="str">
         <f t="shared" ref="D157:D164" si="17">D156</f>
         <v>A1907024  (10)</v>
@@ -5888,7 +5891,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C158" s="93"/>
+      <c r="C158" s="102"/>
       <c r="D158" s="36" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -5911,7 +5914,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C159" s="93"/>
+      <c r="C159" s="102"/>
       <c r="D159" s="36" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -5934,7 +5937,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C160" s="93"/>
+      <c r="C160" s="102"/>
       <c r="D160" s="36" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -5957,7 +5960,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C161" s="93"/>
+      <c r="C161" s="102"/>
       <c r="D161" s="36" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -5980,7 +5983,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C162" s="93"/>
+      <c r="C162" s="102"/>
       <c r="D162" s="36" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -6003,7 +6006,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C163" s="93"/>
+      <c r="C163" s="102"/>
       <c r="D163" s="36" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -6026,7 +6029,7 @@
         <f t="shared" si="16"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C164" s="94"/>
+      <c r="C164" s="103"/>
       <c r="D164" s="37" t="str">
         <f t="shared" si="17"/>
         <v>A1907024  (10)</v>
@@ -6061,7 +6064,7 @@
       <c r="B166" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C166" s="92"/>
+      <c r="C166" s="101"/>
       <c r="D166" s="35" t="s">
         <v>20</v>
       </c>
@@ -6083,7 +6086,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C167" s="93"/>
+      <c r="C167" s="102"/>
       <c r="D167" s="36" t="str">
         <f t="shared" ref="D167:D174" si="19">D166</f>
         <v>A14008113  (4)</v>
@@ -6106,7 +6109,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C168" s="93"/>
+      <c r="C168" s="102"/>
       <c r="D168" s="36" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -6129,7 +6132,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C169" s="93"/>
+      <c r="C169" s="102"/>
       <c r="D169" s="36" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -6152,7 +6155,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C170" s="93"/>
+      <c r="C170" s="102"/>
       <c r="D170" s="36" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -6175,7 +6178,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C171" s="93"/>
+      <c r="C171" s="102"/>
       <c r="D171" s="36" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -6198,7 +6201,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C172" s="93"/>
+      <c r="C172" s="102"/>
       <c r="D172" s="36" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -6221,7 +6224,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C173" s="93"/>
+      <c r="C173" s="102"/>
       <c r="D173" s="36" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -6244,7 +6247,7 @@
         <f t="shared" si="18"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C174" s="94"/>
+      <c r="C174" s="103"/>
       <c r="D174" s="37" t="str">
         <f t="shared" si="19"/>
         <v>A14008113  (4)</v>
@@ -6279,7 +6282,7 @@
       <c r="B176" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C176" s="92"/>
+      <c r="C176" s="101"/>
       <c r="D176" s="35" t="s">
         <v>31</v>
       </c>
@@ -6301,7 +6304,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C177" s="93"/>
+      <c r="C177" s="102"/>
       <c r="D177" s="36" t="str">
         <f t="shared" ref="D177:D184" si="21">D176</f>
         <v>A17111012 (4)</v>
@@ -6324,7 +6327,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C178" s="93"/>
+      <c r="C178" s="102"/>
       <c r="D178" s="36" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6347,7 +6350,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C179" s="93"/>
+      <c r="C179" s="102"/>
       <c r="D179" s="36" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6370,7 +6373,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C180" s="93"/>
+      <c r="C180" s="102"/>
       <c r="D180" s="36" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6393,7 +6396,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C181" s="93"/>
+      <c r="C181" s="102"/>
       <c r="D181" s="36" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6416,7 +6419,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C182" s="93"/>
+      <c r="C182" s="102"/>
       <c r="D182" s="36" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6439,7 +6442,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C183" s="93"/>
+      <c r="C183" s="102"/>
       <c r="D183" s="36" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6462,7 +6465,7 @@
         <f t="shared" si="20"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C184" s="94"/>
+      <c r="C184" s="103"/>
       <c r="D184" s="37" t="str">
         <f t="shared" si="21"/>
         <v>A17111012 (4)</v>
@@ -6497,7 +6500,7 @@
       <c r="B186" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C186" s="92"/>
+      <c r="C186" s="101"/>
       <c r="D186" s="35" t="s">
         <v>32</v>
       </c>
@@ -6519,7 +6522,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C187" s="93"/>
+      <c r="C187" s="102"/>
       <c r="D187" s="36" t="str">
         <f t="shared" ref="D187:D194" si="23">D186</f>
         <v>A2001032   (5)</v>
@@ -6542,7 +6545,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C188" s="93"/>
+      <c r="C188" s="102"/>
       <c r="D188" s="36" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6565,7 +6568,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C189" s="93"/>
+      <c r="C189" s="102"/>
       <c r="D189" s="36" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6588,7 +6591,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C190" s="93"/>
+      <c r="C190" s="102"/>
       <c r="D190" s="36" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6611,7 +6614,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C191" s="93"/>
+      <c r="C191" s="102"/>
       <c r="D191" s="36" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6634,7 +6637,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C192" s="93"/>
+      <c r="C192" s="102"/>
       <c r="D192" s="36" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6657,7 +6660,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C193" s="93"/>
+      <c r="C193" s="102"/>
       <c r="D193" s="36" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6680,7 +6683,7 @@
         <f t="shared" si="22"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C194" s="94"/>
+      <c r="C194" s="103"/>
       <c r="D194" s="37" t="str">
         <f t="shared" si="23"/>
         <v>A2001032   (5)</v>
@@ -6715,7 +6718,7 @@
       <c r="B196" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C196" s="92"/>
+      <c r="C196" s="101"/>
       <c r="D196" s="35" t="s">
         <v>33</v>
       </c>
@@ -6737,7 +6740,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C197" s="93"/>
+      <c r="C197" s="102"/>
       <c r="D197" s="36" t="str">
         <f t="shared" ref="D197:D204" si="25">D196</f>
         <v>A2001033  (5)</v>
@@ -6760,7 +6763,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C198" s="93"/>
+      <c r="C198" s="102"/>
       <c r="D198" s="36" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6783,7 +6786,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C199" s="93"/>
+      <c r="C199" s="102"/>
       <c r="D199" s="36" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6806,7 +6809,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C200" s="93"/>
+      <c r="C200" s="102"/>
       <c r="D200" s="36" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6829,7 +6832,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C201" s="93"/>
+      <c r="C201" s="102"/>
       <c r="D201" s="36" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6852,7 +6855,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C202" s="93"/>
+      <c r="C202" s="102"/>
       <c r="D202" s="36" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6875,7 +6878,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C203" s="93"/>
+      <c r="C203" s="102"/>
       <c r="D203" s="36" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6898,7 +6901,7 @@
         <f t="shared" si="24"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C204" s="94"/>
+      <c r="C204" s="103"/>
       <c r="D204" s="37" t="str">
         <f t="shared" si="25"/>
         <v>A2001033  (5)</v>
@@ -6933,7 +6936,7 @@
       <c r="B206" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C206" s="92"/>
+      <c r="C206" s="101"/>
       <c r="D206" s="35" t="s">
         <v>34</v>
       </c>
@@ -6957,7 +6960,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C207" s="93"/>
+      <c r="C207" s="102"/>
       <c r="D207" s="36" t="str">
         <f t="shared" ref="D207:D214" si="27">D206</f>
         <v>A2001035  (5)</v>
@@ -6982,7 +6985,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C208" s="93"/>
+      <c r="C208" s="102"/>
       <c r="D208" s="36" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -7005,7 +7008,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C209" s="93"/>
+      <c r="C209" s="102"/>
       <c r="D209" s="36" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -7028,7 +7031,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C210" s="93"/>
+      <c r="C210" s="102"/>
       <c r="D210" s="36" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -7051,7 +7054,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C211" s="93"/>
+      <c r="C211" s="102"/>
       <c r="D211" s="36" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -7074,7 +7077,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C212" s="93"/>
+      <c r="C212" s="102"/>
       <c r="D212" s="36" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -7097,7 +7100,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C213" s="93"/>
+      <c r="C213" s="102"/>
       <c r="D213" s="36" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -7120,7 +7123,7 @@
         <f t="shared" si="26"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C214" s="94"/>
+      <c r="C214" s="103"/>
       <c r="D214" s="37" t="str">
         <f t="shared" si="27"/>
         <v>A2001035  (5)</v>
@@ -7155,7 +7158,7 @@
       <c r="B216" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C216" s="92"/>
+      <c r="C216" s="101"/>
       <c r="D216" s="35" t="s">
         <v>36</v>
       </c>
@@ -7177,7 +7180,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C217" s="93"/>
+      <c r="C217" s="102"/>
       <c r="D217" s="36" t="str">
         <f t="shared" ref="D217:D224" si="29">D216</f>
         <v>A1802056  (6)</v>
@@ -7200,7 +7203,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C218" s="93"/>
+      <c r="C218" s="102"/>
       <c r="D218" s="36" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7223,7 +7226,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C219" s="93"/>
+      <c r="C219" s="102"/>
       <c r="D219" s="36" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7246,7 +7249,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C220" s="93"/>
+      <c r="C220" s="102"/>
       <c r="D220" s="36" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7269,7 +7272,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C221" s="93"/>
+      <c r="C221" s="102"/>
       <c r="D221" s="36" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7292,7 +7295,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C222" s="93"/>
+      <c r="C222" s="102"/>
       <c r="D222" s="36" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7315,7 +7318,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C223" s="93"/>
+      <c r="C223" s="102"/>
       <c r="D223" s="36" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7338,7 +7341,7 @@
         <f t="shared" si="28"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C224" s="94"/>
+      <c r="C224" s="103"/>
       <c r="D224" s="37" t="str">
         <f t="shared" si="29"/>
         <v>A1802056  (6)</v>
@@ -7373,7 +7376,7 @@
       <c r="B226" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C226" s="92"/>
+      <c r="C226" s="101"/>
       <c r="D226" s="35" t="s">
         <v>35</v>
       </c>
@@ -7395,7 +7398,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C227" s="93"/>
+      <c r="C227" s="102"/>
       <c r="D227" s="36" t="str">
         <f t="shared" ref="D227:D234" si="31">D226</f>
         <v>A1802057  (6)</v>
@@ -7418,7 +7421,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C228" s="93"/>
+      <c r="C228" s="102"/>
       <c r="D228" s="36" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7441,7 +7444,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C229" s="93"/>
+      <c r="C229" s="102"/>
       <c r="D229" s="36" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7464,7 +7467,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C230" s="93"/>
+      <c r="C230" s="102"/>
       <c r="D230" s="36" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7487,7 +7490,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C231" s="93"/>
+      <c r="C231" s="102"/>
       <c r="D231" s="36" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7510,7 +7513,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C232" s="93"/>
+      <c r="C232" s="102"/>
       <c r="D232" s="36" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7533,7 +7536,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C233" s="93"/>
+      <c r="C233" s="102"/>
       <c r="D233" s="36" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7556,7 +7559,7 @@
         <f t="shared" si="30"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C234" s="94"/>
+      <c r="C234" s="103"/>
       <c r="D234" s="37" t="str">
         <f t="shared" si="31"/>
         <v>A1802057  (6)</v>
@@ -7591,7 +7594,7 @@
       <c r="B236" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C236" s="92"/>
+      <c r="C236" s="101"/>
       <c r="D236" s="24" t="s">
         <v>118</v>
       </c>
@@ -7613,7 +7616,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C237" s="93"/>
+      <c r="C237" s="102"/>
       <c r="D237" s="25" t="str">
         <f t="shared" ref="D237:D244" si="33">D236</f>
         <v>A1404090 (1)
@@ -7637,7 +7640,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C238" s="93"/>
+      <c r="C238" s="102"/>
       <c r="D238" s="25" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7661,7 +7664,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C239" s="93"/>
+      <c r="C239" s="102"/>
       <c r="D239" s="25" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7685,7 +7688,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C240" s="93"/>
+      <c r="C240" s="102"/>
       <c r="D240" s="25" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7709,7 +7712,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C241" s="93"/>
+      <c r="C241" s="102"/>
       <c r="D241" s="25" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7733,7 +7736,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C242" s="93"/>
+      <c r="C242" s="102"/>
       <c r="D242" s="25" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7757,7 +7760,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C243" s="93"/>
+      <c r="C243" s="102"/>
       <c r="D243" s="25" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7781,7 +7784,7 @@
         <f t="shared" si="32"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C244" s="94"/>
+      <c r="C244" s="103"/>
       <c r="D244" s="26" t="str">
         <f t="shared" si="33"/>
         <v>A1404090 (1)
@@ -7817,7 +7820,7 @@
       <c r="B246" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C246" s="92"/>
+      <c r="C246" s="101"/>
       <c r="D246" s="35" t="s">
         <v>107</v>
       </c>
@@ -7839,7 +7842,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C247" s="93"/>
+      <c r="C247" s="102"/>
       <c r="D247" s="36" t="str">
         <f t="shared" ref="D247:D254" si="35">D246</f>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7862,7 +7865,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C248" s="93"/>
+      <c r="C248" s="102"/>
       <c r="D248" s="36" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7885,7 +7888,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C249" s="93"/>
+      <c r="C249" s="102"/>
       <c r="D249" s="36" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7908,7 +7911,7 @@
         <f>B249</f>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C250" s="93"/>
+      <c r="C250" s="102"/>
       <c r="D250" s="36" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7931,7 +7934,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C251" s="93"/>
+      <c r="C251" s="102"/>
       <c r="D251" s="36" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7954,7 +7957,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C252" s="93"/>
+      <c r="C252" s="102"/>
       <c r="D252" s="36" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -7977,7 +7980,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C253" s="93"/>
+      <c r="C253" s="102"/>
       <c r="D253" s="36" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -8000,7 +8003,7 @@
         <f t="shared" si="34"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C254" s="94"/>
+      <c r="C254" s="103"/>
       <c r="D254" s="37" t="str">
         <f t="shared" si="35"/>
         <v>A1611062 (SƠN VÀNG)  (1)</v>
@@ -8035,7 +8038,7 @@
       <c r="B256" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C256" s="92"/>
+      <c r="C256" s="101"/>
       <c r="D256" s="35" t="s">
         <v>39</v>
       </c>
@@ -8057,7 +8060,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C257" s="93"/>
+      <c r="C257" s="102"/>
       <c r="D257" s="36" t="str">
         <f t="shared" ref="D257:D264" si="37">D256</f>
         <v>A1903058  (2)</v>
@@ -8080,7 +8083,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C258" s="93"/>
+      <c r="C258" s="102"/>
       <c r="D258" s="36" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -8103,7 +8106,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C259" s="93"/>
+      <c r="C259" s="102"/>
       <c r="D259" s="36" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -8126,7 +8129,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C260" s="93"/>
+      <c r="C260" s="102"/>
       <c r="D260" s="36" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -8149,7 +8152,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C261" s="93"/>
+      <c r="C261" s="102"/>
       <c r="D261" s="36" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -8172,7 +8175,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C262" s="93"/>
+      <c r="C262" s="102"/>
       <c r="D262" s="36" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -8195,7 +8198,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C263" s="93"/>
+      <c r="C263" s="102"/>
       <c r="D263" s="36" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -8218,7 +8221,7 @@
         <f t="shared" si="36"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C264" s="94"/>
+      <c r="C264" s="103"/>
       <c r="D264" s="37" t="str">
         <f t="shared" si="37"/>
         <v>A1903058  (2)</v>
@@ -8253,7 +8256,7 @@
       <c r="B266" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C266" s="92"/>
+      <c r="C266" s="101"/>
       <c r="D266" s="35" t="s">
         <v>40</v>
       </c>
@@ -8275,7 +8278,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C267" s="93"/>
+      <c r="C267" s="102"/>
       <c r="D267" s="36" t="str">
         <f t="shared" ref="D267:D274" si="39">D266</f>
         <v>A2012004  (2)</v>
@@ -8298,7 +8301,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C268" s="93"/>
+      <c r="C268" s="102"/>
       <c r="D268" s="36" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8321,7 +8324,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C269" s="93"/>
+      <c r="C269" s="102"/>
       <c r="D269" s="36" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8344,7 +8347,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C270" s="93"/>
+      <c r="C270" s="102"/>
       <c r="D270" s="36" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8367,7 +8370,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C271" s="93"/>
+      <c r="C271" s="102"/>
       <c r="D271" s="36" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8390,7 +8393,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C272" s="93"/>
+      <c r="C272" s="102"/>
       <c r="D272" s="36" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8413,7 +8416,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C273" s="93"/>
+      <c r="C273" s="102"/>
       <c r="D273" s="36" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8436,7 +8439,7 @@
         <f t="shared" si="38"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C274" s="94"/>
+      <c r="C274" s="103"/>
       <c r="D274" s="37" t="str">
         <f t="shared" si="39"/>
         <v>A2012004  (2)</v>
@@ -8471,7 +8474,7 @@
       <c r="B276" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C276" s="92"/>
+      <c r="C276" s="101"/>
       <c r="D276" s="35" t="s">
         <v>37</v>
       </c>
@@ -8493,7 +8496,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C277" s="93"/>
+      <c r="C277" s="102"/>
       <c r="D277" s="36" t="str">
         <f t="shared" ref="D277:D284" si="41">D276</f>
         <v>A1907003 (3)</v>
@@ -8516,7 +8519,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C278" s="93"/>
+      <c r="C278" s="102"/>
       <c r="D278" s="36" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8539,7 +8542,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C279" s="93"/>
+      <c r="C279" s="102"/>
       <c r="D279" s="36" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8562,7 +8565,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C280" s="93"/>
+      <c r="C280" s="102"/>
       <c r="D280" s="36" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8585,7 +8588,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C281" s="93"/>
+      <c r="C281" s="102"/>
       <c r="D281" s="36" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8608,7 +8611,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C282" s="93"/>
+      <c r="C282" s="102"/>
       <c r="D282" s="36" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8631,7 +8634,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C283" s="93"/>
+      <c r="C283" s="102"/>
       <c r="D283" s="36" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8654,7 +8657,7 @@
         <f t="shared" si="40"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C284" s="94"/>
+      <c r="C284" s="103"/>
       <c r="D284" s="37" t="str">
         <f t="shared" si="41"/>
         <v>A1907003 (3)</v>
@@ -8689,7 +8692,7 @@
       <c r="B286" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="C286" s="92"/>
+      <c r="C286" s="101"/>
       <c r="D286" s="35" t="s">
         <v>38</v>
       </c>
@@ -8711,7 +8714,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C287" s="93"/>
+      <c r="C287" s="102"/>
       <c r="D287" s="36" t="str">
         <f t="shared" ref="D287:D294" si="43">D286</f>
         <v>A2012003  (3)</v>
@@ -8734,7 +8737,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C288" s="93"/>
+      <c r="C288" s="102"/>
       <c r="D288" s="36" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -8757,7 +8760,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C289" s="93"/>
+      <c r="C289" s="102"/>
       <c r="D289" s="36" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -8780,7 +8783,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C290" s="93"/>
+      <c r="C290" s="102"/>
       <c r="D290" s="36" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -8803,7 +8806,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C291" s="93"/>
+      <c r="C291" s="102"/>
       <c r="D291" s="36" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -8826,7 +8829,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C292" s="93"/>
+      <c r="C292" s="102"/>
       <c r="D292" s="36" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -8849,7 +8852,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C293" s="93"/>
+      <c r="C293" s="102"/>
       <c r="D293" s="36" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -8872,7 +8875,7 @@
         <f t="shared" si="42"/>
         <v>PHÚC CẦN</v>
       </c>
-      <c r="C294" s="94"/>
+      <c r="C294" s="103"/>
       <c r="D294" s="37" t="str">
         <f t="shared" si="43"/>
         <v>A2012003  (3)</v>
@@ -31935,16 +31938,6 @@
     </filterColumn>
   </autoFilter>
   <mergeCells count="24">
-    <mergeCell ref="C286:C294"/>
-    <mergeCell ref="C186:C194"/>
-    <mergeCell ref="C196:C204"/>
-    <mergeCell ref="C206:C214"/>
-    <mergeCell ref="C216:C224"/>
-    <mergeCell ref="C226:C234"/>
-    <mergeCell ref="C236:C244"/>
-    <mergeCell ref="C246:C254"/>
-    <mergeCell ref="C256:C264"/>
-    <mergeCell ref="C266:C274"/>
     <mergeCell ref="C56:C64"/>
     <mergeCell ref="C66:C74"/>
     <mergeCell ref="C76:C84"/>
@@ -31959,6 +31952,16 @@
     <mergeCell ref="C116:C124"/>
     <mergeCell ref="C126:C134"/>
     <mergeCell ref="C136:C144"/>
+    <mergeCell ref="C286:C294"/>
+    <mergeCell ref="C186:C194"/>
+    <mergeCell ref="C196:C204"/>
+    <mergeCell ref="C206:C214"/>
+    <mergeCell ref="C216:C224"/>
+    <mergeCell ref="C226:C234"/>
+    <mergeCell ref="C236:C244"/>
+    <mergeCell ref="C246:C254"/>
+    <mergeCell ref="C256:C264"/>
+    <mergeCell ref="C266:C274"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31970,9 +31973,9 @@
   <dimension ref="A1:R206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -31989,7 +31992,7 @@
     <col min="12" max="16384" width="8.7265625" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
@@ -32025,16 +32028,16 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="126" t="s">
         <v>393</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="109" t="s">
         <v>394</v>
       </c>
       <c r="E2" s="72" t="s">
@@ -32050,10 +32053,10 @@
       <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="107"/>
-      <c r="B3" s="103"/>
-      <c r="C3" s="103"/>
-      <c r="D3" s="103"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
       <c r="E3" s="72" t="s">
         <v>291</v>
       </c>
@@ -32069,10 +32072,10 @@
       <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="107"/>
-      <c r="B4" s="103"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="103"/>
+      <c r="A4" s="127"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
       <c r="E4" s="72" t="s">
         <v>291</v>
       </c>
@@ -32086,10 +32089,10 @@
       <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="107"/>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="103"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="120"/>
       <c r="E5" s="72" t="s">
         <v>293</v>
       </c>
@@ -32103,10 +32106,10 @@
       <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="108"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
       <c r="E6" s="72" t="s">
         <v>300</v>
       </c>
@@ -32120,29 +32123,29 @@
       <c r="K6" s="73"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="114"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="115"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="118"/>
+      <c r="G7" s="118"/>
+      <c r="H7" s="118"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="119"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="126" t="s">
         <v>395</v>
       </c>
-      <c r="B8" s="96" t="s">
+      <c r="B8" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C8" s="96" t="s">
+      <c r="C8" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="96" t="s">
+      <c r="D8" s="109" t="s">
         <v>396</v>
       </c>
       <c r="E8" s="72" t="s">
@@ -32158,10 +32161,10 @@
       <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="108"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="97"/>
-      <c r="D9" s="97"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
       <c r="E9" s="72" t="s">
         <v>303</v>
       </c>
@@ -32175,29 +32178,29 @@
       <c r="K9" s="73"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="114"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="95"/>
-      <c r="J10" s="95"/>
-      <c r="K10" s="115"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="118"/>
+      <c r="D10" s="118"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="118"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="119"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="126" t="s">
         <v>397</v>
       </c>
-      <c r="B11" s="96" t="s">
+      <c r="B11" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="96" t="s">
+      <c r="C11" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="115" t="s">
         <v>304</v>
       </c>
       <c r="E11" s="72" t="s">
@@ -32213,10 +32216,10 @@
       <c r="K11" s="73"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="99"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="72" t="s">
         <v>293</v>
       </c>
@@ -32230,29 +32233,29 @@
       <c r="K12" s="73"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="114"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="95"/>
-      <c r="K13" s="115"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+      <c r="K13" s="119"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="126" t="s">
         <v>398</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="96" t="s">
+      <c r="C14" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="98" t="s">
+      <c r="D14" s="115" t="s">
         <v>402</v>
       </c>
       <c r="E14" s="72" t="s">
@@ -32268,10 +32271,10 @@
       <c r="K14" s="73"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="107"/>
-      <c r="B15" s="103"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="121"/>
       <c r="E15" s="72" t="s">
         <v>293</v>
       </c>
@@ -32285,10 +32288,10 @@
       <c r="K15" s="73"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="107"/>
-      <c r="B16" s="103"/>
-      <c r="C16" s="103"/>
-      <c r="D16" s="104"/>
+      <c r="A16" s="127"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="121"/>
       <c r="E16" s="72" t="s">
         <v>309</v>
       </c>
@@ -32302,10 +32305,10 @@
       <c r="K16" s="73"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="97"/>
-      <c r="D17" s="99"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="116"/>
       <c r="E17" s="72" t="s">
         <v>309</v>
       </c>
@@ -32319,29 +32322,29 @@
       <c r="K17" s="73"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="114"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
-      <c r="J18" s="95"/>
-      <c r="K18" s="115"/>
+      <c r="A18" s="117"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="118"/>
+      <c r="K18" s="119"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="106" t="s">
+      <c r="A19" s="126" t="s">
         <v>399</v>
       </c>
-      <c r="B19" s="96" t="s">
+      <c r="B19" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="96" t="s">
+      <c r="D19" s="109" t="s">
         <v>316</v>
       </c>
       <c r="E19" s="72" t="s">
@@ -32357,10 +32360,10 @@
       <c r="K19" s="73"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="107"/>
-      <c r="B20" s="103"/>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
+      <c r="A20" s="127"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="120"/>
       <c r="E20" s="72" t="s">
         <v>295</v>
       </c>
@@ -32374,10 +32377,10 @@
       <c r="K20" s="73"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="107"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103"/>
+      <c r="A21" s="127"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="120"/>
       <c r="E21" s="72" t="s">
         <v>297</v>
       </c>
@@ -32391,10 +32394,10 @@
       <c r="K21" s="73"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" s="108"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="97"/>
-      <c r="D22" s="97"/>
+      <c r="A22" s="128"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
       <c r="E22" s="72" t="s">
         <v>114</v>
       </c>
@@ -32410,29 +32413,29 @@
       <c r="K22" s="73"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" s="114"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="95"/>
-      <c r="H23" s="95"/>
-      <c r="I23" s="95"/>
-      <c r="J23" s="95"/>
-      <c r="K23" s="115"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="118"/>
+      <c r="D23" s="118"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="118"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="119"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="126" t="s">
         <v>400</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="98" t="s">
+      <c r="D24" s="115" t="s">
         <v>322</v>
       </c>
       <c r="E24" s="72" t="s">
@@ -32448,10 +32451,10 @@
       <c r="K24" s="73"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" s="107"/>
-      <c r="B25" s="103"/>
-      <c r="C25" s="103"/>
-      <c r="D25" s="104"/>
+      <c r="A25" s="127"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="121"/>
       <c r="E25" s="72" t="s">
         <v>323</v>
       </c>
@@ -32465,10 +32468,10 @@
       <c r="K25" s="73"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="107"/>
-      <c r="B26" s="103"/>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="121"/>
       <c r="E26" s="72" t="s">
         <v>370</v>
       </c>
@@ -32482,10 +32485,10 @@
       <c r="K26" s="73"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A27" s="108"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="97"/>
-      <c r="D27" s="99"/>
+      <c r="A27" s="128"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="116"/>
       <c r="E27" s="72"/>
       <c r="F27" s="73" t="s">
         <v>172</v>
@@ -32497,17 +32500,17 @@
       <c r="K27" s="73"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A28" s="114"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="95"/>
-      <c r="J28" s="95"/>
-      <c r="K28" s="115"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="118"/>
+      <c r="D28" s="118"/>
+      <c r="E28" s="118"/>
+      <c r="F28" s="118"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="118"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="119"/>
     </row>
     <row r="29" spans="1:11" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="77" t="s">
@@ -32535,27 +32538,27 @@
       <c r="K29" s="73"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A30" s="114"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="115"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="118"/>
+      <c r="D30" s="118"/>
+      <c r="E30" s="118"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="118"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="119"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="126" t="s">
         <v>406</v>
       </c>
-      <c r="B31" s="96" t="s">
+      <c r="B31" s="109" t="s">
         <v>113</v>
       </c>
       <c r="C31" s="78"/>
-      <c r="D31" s="96" t="s">
+      <c r="D31" s="109" t="s">
         <v>403</v>
       </c>
       <c r="E31" s="72" t="s">
@@ -32571,10 +32574,10 @@
       <c r="K31" s="73"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A32" s="107"/>
-      <c r="B32" s="103"/>
+      <c r="A32" s="127"/>
+      <c r="B32" s="120"/>
       <c r="C32" s="79"/>
-      <c r="D32" s="103"/>
+      <c r="D32" s="120"/>
       <c r="E32" s="72" t="s">
         <v>311</v>
       </c>
@@ -32588,10 +32591,10 @@
       <c r="K32" s="73"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A33" s="107"/>
-      <c r="B33" s="103"/>
+      <c r="A33" s="127"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="79"/>
-      <c r="D33" s="103"/>
+      <c r="D33" s="120"/>
       <c r="E33" s="72" t="s">
         <v>314</v>
       </c>
@@ -32605,10 +32608,10 @@
       <c r="K33" s="73"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A34" s="108"/>
-      <c r="B34" s="97"/>
+      <c r="A34" s="128"/>
+      <c r="B34" s="110"/>
       <c r="C34" s="80"/>
-      <c r="D34" s="97"/>
+      <c r="D34" s="110"/>
       <c r="E34" s="72" t="s">
         <v>319</v>
       </c>
@@ -32622,17 +32625,17 @@
       <c r="K34" s="73"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A35" s="114"/>
-      <c r="B35" s="95"/>
-      <c r="C35" s="95"/>
-      <c r="D35" s="95"/>
-      <c r="E35" s="95"/>
-      <c r="F35" s="95"/>
-      <c r="G35" s="95"/>
-      <c r="H35" s="95"/>
-      <c r="I35" s="95"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="115"/>
+      <c r="A35" s="117"/>
+      <c r="B35" s="118"/>
+      <c r="C35" s="118"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="118"/>
+      <c r="F35" s="118"/>
+      <c r="G35" s="118"/>
+      <c r="H35" s="118"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="118"/>
+      <c r="K35" s="119"/>
     </row>
     <row r="36" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="81" t="s">
@@ -32658,29 +32661,29 @@
       <c r="K36" s="73"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A37" s="114"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="95"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="115"/>
+      <c r="A37" s="117"/>
+      <c r="B37" s="118"/>
+      <c r="C37" s="118"/>
+      <c r="D37" s="118"/>
+      <c r="E37" s="118"/>
+      <c r="F37" s="118"/>
+      <c r="G37" s="118"/>
+      <c r="H37" s="118"/>
+      <c r="I37" s="118"/>
+      <c r="J37" s="118"/>
+      <c r="K37" s="119"/>
     </row>
     <row r="38" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="100">
+      <c r="A38" s="111">
         <v>10</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C38" s="96" t="s">
+      <c r="C38" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="96" t="s">
+      <c r="D38" s="109" t="s">
         <v>408</v>
       </c>
       <c r="E38" s="72" t="s">
@@ -32696,10 +32699,10 @@
       <c r="K38" s="73"/>
     </row>
     <row r="39" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="105"/>
-      <c r="B39" s="104"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
+      <c r="A39" s="122"/>
+      <c r="B39" s="121"/>
+      <c r="C39" s="120"/>
+      <c r="D39" s="120"/>
       <c r="E39" s="72" t="s">
         <v>326</v>
       </c>
@@ -32713,10 +32716,10 @@
       <c r="K39" s="73"/>
     </row>
     <row r="40" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="105"/>
-      <c r="B40" s="104"/>
-      <c r="C40" s="103"/>
-      <c r="D40" s="103"/>
+      <c r="A40" s="122"/>
+      <c r="B40" s="121"/>
+      <c r="C40" s="120"/>
+      <c r="D40" s="120"/>
       <c r="E40" s="72" t="s">
         <v>327</v>
       </c>
@@ -32730,10 +32733,10 @@
       <c r="K40" s="73"/>
     </row>
     <row r="41" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="105"/>
-      <c r="B41" s="104"/>
-      <c r="C41" s="103"/>
-      <c r="D41" s="103"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="121"/>
+      <c r="C41" s="120"/>
+      <c r="D41" s="120"/>
       <c r="E41" s="72" t="s">
         <v>326</v>
       </c>
@@ -32747,10 +32750,10 @@
       <c r="K41" s="73"/>
     </row>
     <row r="42" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="105"/>
-      <c r="B42" s="104"/>
-      <c r="C42" s="103"/>
-      <c r="D42" s="103"/>
+      <c r="A42" s="122"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="120"/>
+      <c r="D42" s="120"/>
       <c r="E42" s="72" t="s">
         <v>172</v>
       </c>
@@ -32764,29 +32767,29 @@
       <c r="K42" s="73"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A43" s="114"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="95"/>
-      <c r="G43" s="95"/>
-      <c r="H43" s="95"/>
-      <c r="I43" s="95"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="115"/>
+      <c r="A43" s="117"/>
+      <c r="B43" s="118"/>
+      <c r="C43" s="118"/>
+      <c r="D43" s="118"/>
+      <c r="E43" s="118"/>
+      <c r="F43" s="118"/>
+      <c r="G43" s="118"/>
+      <c r="H43" s="118"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="118"/>
+      <c r="K43" s="119"/>
     </row>
     <row r="44" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="100">
+      <c r="A44" s="111">
         <v>11</v>
       </c>
-      <c r="B44" s="98" t="s">
+      <c r="B44" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C44" s="96" t="s">
+      <c r="C44" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="96" t="s">
+      <c r="D44" s="109" t="s">
         <v>409</v>
       </c>
       <c r="E44" s="72" t="s">
@@ -32802,10 +32805,10 @@
       <c r="K44" s="73"/>
     </row>
     <row r="45" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="105"/>
-      <c r="B45" s="104"/>
-      <c r="C45" s="103"/>
-      <c r="D45" s="103"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="121"/>
+      <c r="C45" s="120"/>
+      <c r="D45" s="120"/>
       <c r="E45" s="72" t="s">
         <v>326</v>
       </c>
@@ -32819,10 +32822,10 @@
       <c r="K45" s="73"/>
     </row>
     <row r="46" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="105"/>
-      <c r="B46" s="104"/>
-      <c r="C46" s="103"/>
-      <c r="D46" s="103"/>
+      <c r="A46" s="122"/>
+      <c r="B46" s="121"/>
+      <c r="C46" s="120"/>
+      <c r="D46" s="120"/>
       <c r="E46" s="72" t="s">
         <v>172</v>
       </c>
@@ -32836,10 +32839,10 @@
       <c r="K46" s="73"/>
     </row>
     <row r="47" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="105"/>
-      <c r="B47" s="104"/>
-      <c r="C47" s="103"/>
-      <c r="D47" s="103"/>
+      <c r="A47" s="122"/>
+      <c r="B47" s="121"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
       <c r="E47" s="72" t="s">
         <v>226</v>
       </c>
@@ -32853,29 +32856,29 @@
       <c r="K47" s="73"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A48" s="114"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
-      <c r="F48" s="95"/>
-      <c r="G48" s="95"/>
-      <c r="H48" s="95"/>
-      <c r="I48" s="95"/>
-      <c r="J48" s="95"/>
-      <c r="K48" s="115"/>
+      <c r="A48" s="117"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="119"/>
     </row>
     <row r="49" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="100">
+      <c r="A49" s="111">
         <v>12</v>
       </c>
-      <c r="B49" s="98" t="s">
+      <c r="B49" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="96" t="s">
+      <c r="C49" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="96" t="s">
+      <c r="D49" s="109" t="s">
         <v>410</v>
       </c>
       <c r="E49" s="72" t="s">
@@ -32891,10 +32894,10 @@
       <c r="K49" s="73"/>
     </row>
     <row r="50" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="105"/>
-      <c r="B50" s="104"/>
-      <c r="C50" s="103"/>
-      <c r="D50" s="103"/>
+      <c r="A50" s="122"/>
+      <c r="B50" s="121"/>
+      <c r="C50" s="120"/>
+      <c r="D50" s="120"/>
       <c r="E50" s="72" t="s">
         <v>172</v>
       </c>
@@ -32908,10 +32911,10 @@
       <c r="K50" s="73"/>
     </row>
     <row r="51" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="105"/>
-      <c r="B51" s="104"/>
-      <c r="C51" s="103"/>
-      <c r="D51" s="103"/>
+      <c r="A51" s="122"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="120"/>
+      <c r="D51" s="120"/>
       <c r="E51" s="72" t="s">
         <v>330</v>
       </c>
@@ -32925,10 +32928,10 @@
       <c r="K51" s="73"/>
     </row>
     <row r="52" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="105"/>
-      <c r="B52" s="104"/>
-      <c r="C52" s="103"/>
-      <c r="D52" s="103"/>
+      <c r="A52" s="122"/>
+      <c r="B52" s="121"/>
+      <c r="C52" s="120"/>
+      <c r="D52" s="120"/>
       <c r="E52" s="72" t="s">
         <v>362</v>
       </c>
@@ -32942,29 +32945,29 @@
       <c r="K52" s="73"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="114"/>
-      <c r="B53" s="95"/>
-      <c r="C53" s="95"/>
-      <c r="D53" s="95"/>
-      <c r="E53" s="95"/>
-      <c r="F53" s="95"/>
-      <c r="G53" s="95"/>
-      <c r="H53" s="95"/>
-      <c r="I53" s="95"/>
-      <c r="J53" s="95"/>
-      <c r="K53" s="115"/>
+      <c r="A53" s="117"/>
+      <c r="B53" s="118"/>
+      <c r="C53" s="118"/>
+      <c r="D53" s="118"/>
+      <c r="E53" s="118"/>
+      <c r="F53" s="118"/>
+      <c r="G53" s="118"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="118"/>
+      <c r="J53" s="118"/>
+      <c r="K53" s="119"/>
     </row>
     <row r="54" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="100">
+      <c r="A54" s="111">
         <v>13</v>
       </c>
-      <c r="B54" s="98" t="s">
+      <c r="B54" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C54" s="96" t="s">
+      <c r="C54" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="96" t="s">
+      <c r="D54" s="109" t="s">
         <v>412</v>
       </c>
       <c r="E54" s="72" t="s">
@@ -32980,10 +32983,10 @@
       <c r="K54" s="73"/>
     </row>
     <row r="55" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="105"/>
-      <c r="B55" s="104"/>
-      <c r="C55" s="103"/>
-      <c r="D55" s="103"/>
+      <c r="A55" s="122"/>
+      <c r="B55" s="121"/>
+      <c r="C55" s="120"/>
+      <c r="D55" s="120"/>
       <c r="E55" s="72" t="s">
         <v>172</v>
       </c>
@@ -32997,10 +33000,10 @@
       <c r="K55" s="73"/>
     </row>
     <row r="56" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="105"/>
-      <c r="B56" s="104"/>
-      <c r="C56" s="103"/>
-      <c r="D56" s="103"/>
+      <c r="A56" s="122"/>
+      <c r="B56" s="121"/>
+      <c r="C56" s="120"/>
+      <c r="D56" s="120"/>
       <c r="E56" s="72" t="s">
         <v>335</v>
       </c>
@@ -33014,10 +33017,10 @@
       <c r="K56" s="73"/>
     </row>
     <row r="57" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="105"/>
-      <c r="B57" s="104"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
+      <c r="A57" s="122"/>
+      <c r="B57" s="121"/>
+      <c r="C57" s="120"/>
+      <c r="D57" s="120"/>
       <c r="E57" s="72" t="s">
         <v>330</v>
       </c>
@@ -33031,10 +33034,10 @@
       <c r="K57" s="73"/>
     </row>
     <row r="58" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="105"/>
-      <c r="B58" s="104"/>
-      <c r="C58" s="103"/>
-      <c r="D58" s="103"/>
+      <c r="A58" s="122"/>
+      <c r="B58" s="121"/>
+      <c r="C58" s="120"/>
+      <c r="D58" s="120"/>
       <c r="E58" s="72" t="s">
         <v>328</v>
       </c>
@@ -33048,29 +33051,29 @@
       <c r="K58" s="73"/>
     </row>
     <row r="59" spans="1:11" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="114"/>
-      <c r="B59" s="95"/>
-      <c r="C59" s="95"/>
-      <c r="D59" s="95"/>
-      <c r="E59" s="95"/>
-      <c r="F59" s="95"/>
-      <c r="G59" s="95"/>
-      <c r="H59" s="95"/>
-      <c r="I59" s="95"/>
-      <c r="J59" s="95"/>
-      <c r="K59" s="115"/>
+      <c r="A59" s="117"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="119"/>
     </row>
     <row r="60" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="105">
+      <c r="A60" s="122">
         <v>14</v>
       </c>
-      <c r="B60" s="103" t="s">
+      <c r="B60" s="120" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="103" t="s">
+      <c r="C60" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="D60" s="103" t="s">
+      <c r="D60" s="120" t="s">
         <v>411</v>
       </c>
       <c r="E60" s="72" t="s">
@@ -33086,10 +33089,10 @@
       <c r="K60" s="73"/>
     </row>
     <row r="61" spans="1:11" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="105"/>
-      <c r="B61" s="103"/>
-      <c r="C61" s="103"/>
-      <c r="D61" s="103"/>
+      <c r="A61" s="122"/>
+      <c r="B61" s="120"/>
+      <c r="C61" s="120"/>
+      <c r="D61" s="120"/>
       <c r="E61" s="72" t="s">
         <v>293</v>
       </c>
@@ -33103,10 +33106,10 @@
       <c r="K61" s="73"/>
     </row>
     <row r="62" spans="1:11" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="105"/>
-      <c r="B62" s="103"/>
-      <c r="C62" s="103"/>
-      <c r="D62" s="103"/>
+      <c r="A62" s="122"/>
+      <c r="B62" s="120"/>
+      <c r="C62" s="120"/>
+      <c r="D62" s="120"/>
       <c r="E62" s="72" t="s">
         <v>338</v>
       </c>
@@ -33120,29 +33123,29 @@
       <c r="K62" s="73"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="114"/>
-      <c r="B63" s="95"/>
-      <c r="C63" s="95"/>
-      <c r="D63" s="95"/>
-      <c r="E63" s="95"/>
-      <c r="F63" s="95"/>
-      <c r="G63" s="95"/>
-      <c r="H63" s="95"/>
-      <c r="I63" s="95"/>
-      <c r="J63" s="95"/>
-      <c r="K63" s="115"/>
+      <c r="A63" s="117"/>
+      <c r="B63" s="118"/>
+      <c r="C63" s="118"/>
+      <c r="D63" s="118"/>
+      <c r="E63" s="118"/>
+      <c r="F63" s="118"/>
+      <c r="G63" s="118"/>
+      <c r="H63" s="118"/>
+      <c r="I63" s="118"/>
+      <c r="J63" s="118"/>
+      <c r="K63" s="119"/>
     </row>
     <row r="64" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="100">
+      <c r="A64" s="111">
         <v>15</v>
       </c>
-      <c r="B64" s="96" t="s">
+      <c r="B64" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C64" s="98" t="s">
+      <c r="C64" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="D64" s="96" t="s">
+      <c r="D64" s="109" t="s">
         <v>413</v>
       </c>
       <c r="E64" s="72" t="s">
@@ -33158,10 +33161,10 @@
       <c r="K64" s="73"/>
     </row>
     <row r="65" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="105"/>
-      <c r="B65" s="103"/>
-      <c r="C65" s="104"/>
-      <c r="D65" s="103"/>
+      <c r="A65" s="122"/>
+      <c r="B65" s="120"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="120"/>
       <c r="E65" s="72" t="s">
         <v>293</v>
       </c>
@@ -33175,17 +33178,17 @@
       <c r="K65" s="73"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A66" s="114"/>
-      <c r="B66" s="95"/>
-      <c r="C66" s="95"/>
-      <c r="D66" s="95"/>
-      <c r="E66" s="95"/>
-      <c r="F66" s="95"/>
-      <c r="G66" s="95"/>
-      <c r="H66" s="95"/>
-      <c r="I66" s="95"/>
-      <c r="J66" s="95"/>
-      <c r="K66" s="115"/>
+      <c r="A66" s="117"/>
+      <c r="B66" s="118"/>
+      <c r="C66" s="118"/>
+      <c r="D66" s="118"/>
+      <c r="E66" s="118"/>
+      <c r="F66" s="118"/>
+      <c r="G66" s="118"/>
+      <c r="H66" s="118"/>
+      <c r="I66" s="118"/>
+      <c r="J66" s="118"/>
+      <c r="K66" s="119"/>
     </row>
     <row r="67" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="83">
@@ -33213,17 +33216,17 @@
       <c r="K67" s="73"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="114"/>
-      <c r="B68" s="95"/>
-      <c r="C68" s="95"/>
-      <c r="D68" s="95"/>
-      <c r="E68" s="95"/>
-      <c r="F68" s="95"/>
-      <c r="G68" s="95"/>
-      <c r="H68" s="95"/>
-      <c r="I68" s="95"/>
-      <c r="J68" s="95"/>
-      <c r="K68" s="115"/>
+      <c r="A68" s="117"/>
+      <c r="B68" s="118"/>
+      <c r="C68" s="118"/>
+      <c r="D68" s="118"/>
+      <c r="E68" s="118"/>
+      <c r="F68" s="118"/>
+      <c r="G68" s="118"/>
+      <c r="H68" s="118"/>
+      <c r="I68" s="118"/>
+      <c r="J68" s="118"/>
+      <c r="K68" s="119"/>
     </row>
     <row r="69" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="83">
@@ -33251,29 +33254,29 @@
       <c r="K69" s="73"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A70" s="114"/>
-      <c r="B70" s="95"/>
-      <c r="C70" s="95"/>
-      <c r="D70" s="95"/>
-      <c r="E70" s="95"/>
-      <c r="F70" s="95"/>
-      <c r="G70" s="95"/>
-      <c r="H70" s="95"/>
-      <c r="I70" s="95"/>
-      <c r="J70" s="95"/>
-      <c r="K70" s="115"/>
+      <c r="A70" s="117"/>
+      <c r="B70" s="118"/>
+      <c r="C70" s="118"/>
+      <c r="D70" s="118"/>
+      <c r="E70" s="118"/>
+      <c r="F70" s="118"/>
+      <c r="G70" s="118"/>
+      <c r="H70" s="118"/>
+      <c r="I70" s="118"/>
+      <c r="J70" s="118"/>
+      <c r="K70" s="119"/>
     </row>
     <row r="71" spans="1:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="100">
+      <c r="A71" s="111">
         <v>18</v>
       </c>
-      <c r="B71" s="96" t="s">
+      <c r="B71" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C71" s="96" t="s">
+      <c r="C71" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D71" s="96" t="s">
+      <c r="D71" s="109" t="s">
         <v>415</v>
       </c>
       <c r="E71" s="72" t="s">
@@ -33289,10 +33292,10 @@
       <c r="K71" s="73"/>
     </row>
     <row r="72" spans="1:11" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="105"/>
-      <c r="B72" s="103"/>
-      <c r="C72" s="103"/>
-      <c r="D72" s="103"/>
+      <c r="A72" s="122"/>
+      <c r="B72" s="120"/>
+      <c r="C72" s="120"/>
+      <c r="D72" s="120"/>
       <c r="E72" s="72" t="s">
         <v>293</v>
       </c>
@@ -33306,10 +33309,10 @@
       <c r="K72" s="73"/>
     </row>
     <row r="73" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="101"/>
-      <c r="B73" s="97"/>
-      <c r="C73" s="97"/>
-      <c r="D73" s="97"/>
+      <c r="A73" s="112"/>
+      <c r="B73" s="110"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="110"/>
       <c r="E73" s="72" t="s">
         <v>346</v>
       </c>
@@ -33323,17 +33326,17 @@
       <c r="K73" s="73"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A74" s="114"/>
-      <c r="B74" s="95"/>
-      <c r="C74" s="95"/>
-      <c r="D74" s="95"/>
-      <c r="E74" s="95"/>
-      <c r="F74" s="95"/>
-      <c r="G74" s="95"/>
-      <c r="H74" s="95"/>
-      <c r="I74" s="95"/>
-      <c r="J74" s="95"/>
-      <c r="K74" s="115"/>
+      <c r="A74" s="117"/>
+      <c r="B74" s="118"/>
+      <c r="C74" s="118"/>
+      <c r="D74" s="118"/>
+      <c r="E74" s="118"/>
+      <c r="F74" s="118"/>
+      <c r="G74" s="118"/>
+      <c r="H74" s="118"/>
+      <c r="I74" s="118"/>
+      <c r="J74" s="118"/>
+      <c r="K74" s="119"/>
     </row>
     <row r="75" spans="1:11" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="83">
@@ -33361,17 +33364,17 @@
       <c r="K75" s="73"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A76" s="114"/>
-      <c r="B76" s="95"/>
-      <c r="C76" s="95"/>
-      <c r="D76" s="95"/>
-      <c r="E76" s="95"/>
-      <c r="F76" s="95"/>
-      <c r="G76" s="95"/>
-      <c r="H76" s="95"/>
-      <c r="I76" s="95"/>
-      <c r="J76" s="95"/>
-      <c r="K76" s="115"/>
+      <c r="A76" s="117"/>
+      <c r="B76" s="118"/>
+      <c r="C76" s="118"/>
+      <c r="D76" s="118"/>
+      <c r="E76" s="118"/>
+      <c r="F76" s="118"/>
+      <c r="G76" s="118"/>
+      <c r="H76" s="118"/>
+      <c r="I76" s="118"/>
+      <c r="J76" s="118"/>
+      <c r="K76" s="119"/>
     </row>
     <row r="77" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="85">
@@ -33399,29 +33402,29 @@
       <c r="K77" s="73"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A78" s="114"/>
-      <c r="B78" s="95"/>
-      <c r="C78" s="95"/>
-      <c r="D78" s="95"/>
-      <c r="E78" s="95"/>
-      <c r="F78" s="95"/>
-      <c r="G78" s="95"/>
-      <c r="H78" s="95"/>
-      <c r="I78" s="95"/>
-      <c r="J78" s="95"/>
-      <c r="K78" s="115"/>
+      <c r="A78" s="117"/>
+      <c r="B78" s="118"/>
+      <c r="C78" s="118"/>
+      <c r="D78" s="118"/>
+      <c r="E78" s="118"/>
+      <c r="F78" s="118"/>
+      <c r="G78" s="118"/>
+      <c r="H78" s="118"/>
+      <c r="I78" s="118"/>
+      <c r="J78" s="118"/>
+      <c r="K78" s="119"/>
     </row>
     <row r="79" spans="1:11" ht="21.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="100">
+      <c r="A79" s="111">
         <v>21</v>
       </c>
-      <c r="B79" s="96" t="s">
+      <c r="B79" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C79" s="96" t="s">
+      <c r="C79" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D79" s="96" t="s">
+      <c r="D79" s="109" t="s">
         <v>418</v>
       </c>
       <c r="E79" s="72" t="s">
@@ -33437,10 +33440,10 @@
       <c r="K79" s="73"/>
     </row>
     <row r="80" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="105"/>
-      <c r="B80" s="103"/>
-      <c r="C80" s="103"/>
-      <c r="D80" s="103"/>
+      <c r="A80" s="122"/>
+      <c r="B80" s="120"/>
+      <c r="C80" s="120"/>
+      <c r="D80" s="120"/>
       <c r="E80" s="72" t="s">
         <v>293</v>
       </c>
@@ -33454,29 +33457,29 @@
       <c r="K80" s="73"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A81" s="114"/>
-      <c r="B81" s="95"/>
-      <c r="C81" s="95"/>
-      <c r="D81" s="95"/>
-      <c r="E81" s="95"/>
-      <c r="F81" s="95"/>
-      <c r="G81" s="95"/>
-      <c r="H81" s="95"/>
-      <c r="I81" s="95"/>
-      <c r="J81" s="95"/>
-      <c r="K81" s="115"/>
+      <c r="A81" s="117"/>
+      <c r="B81" s="118"/>
+      <c r="C81" s="118"/>
+      <c r="D81" s="118"/>
+      <c r="E81" s="118"/>
+      <c r="F81" s="118"/>
+      <c r="G81" s="118"/>
+      <c r="H81" s="118"/>
+      <c r="I81" s="118"/>
+      <c r="J81" s="118"/>
+      <c r="K81" s="119"/>
     </row>
     <row r="82" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="100">
+      <c r="A82" s="111">
         <v>22</v>
       </c>
-      <c r="B82" s="96" t="s">
+      <c r="B82" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="C82" s="96" t="s">
+      <c r="C82" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="D82" s="98" t="s">
+      <c r="D82" s="115" t="s">
         <v>419</v>
       </c>
       <c r="E82" s="72" t="s">
@@ -33492,10 +33495,10 @@
       <c r="K82" s="73"/>
     </row>
     <row r="83" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="105"/>
-      <c r="B83" s="103"/>
-      <c r="C83" s="103"/>
-      <c r="D83" s="104"/>
+      <c r="A83" s="122"/>
+      <c r="B83" s="120"/>
+      <c r="C83" s="120"/>
+      <c r="D83" s="121"/>
       <c r="E83" s="72" t="s">
         <v>293</v>
       </c>
@@ -33509,10 +33512,10 @@
       <c r="K83" s="73"/>
     </row>
     <row r="84" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="101"/>
-      <c r="B84" s="97"/>
-      <c r="C84" s="97"/>
-      <c r="D84" s="99"/>
+      <c r="A84" s="112"/>
+      <c r="B84" s="110"/>
+      <c r="C84" s="110"/>
+      <c r="D84" s="116"/>
       <c r="E84" s="72" t="s">
         <v>346</v>
       </c>
@@ -33526,29 +33529,29 @@
       <c r="K84" s="73"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="114"/>
-      <c r="B85" s="95"/>
-      <c r="C85" s="95"/>
-      <c r="D85" s="95"/>
-      <c r="E85" s="95"/>
-      <c r="F85" s="95"/>
-      <c r="G85" s="95"/>
-      <c r="H85" s="95"/>
-      <c r="I85" s="95"/>
-      <c r="J85" s="95"/>
-      <c r="K85" s="115"/>
+      <c r="A85" s="117"/>
+      <c r="B85" s="118"/>
+      <c r="C85" s="118"/>
+      <c r="D85" s="118"/>
+      <c r="E85" s="118"/>
+      <c r="F85" s="118"/>
+      <c r="G85" s="118"/>
+      <c r="H85" s="118"/>
+      <c r="I85" s="118"/>
+      <c r="J85" s="118"/>
+      <c r="K85" s="119"/>
     </row>
     <row r="86" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="100">
-        <v>109</v>
-      </c>
-      <c r="B86" s="98" t="s">
+      <c r="A86" s="111">
+        <v>23</v>
+      </c>
+      <c r="B86" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C86" s="98" t="s">
+      <c r="C86" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="D86" s="96" t="s">
+      <c r="D86" s="109" t="s">
         <v>98</v>
       </c>
       <c r="E86" s="72" t="s">
@@ -33564,10 +33567,10 @@
       <c r="K86" s="73"/>
     </row>
     <row r="87" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="105"/>
-      <c r="B87" s="104"/>
-      <c r="C87" s="104"/>
-      <c r="D87" s="103"/>
+      <c r="A87" s="122"/>
+      <c r="B87" s="121"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="120"/>
       <c r="E87" s="72" t="s">
         <v>172</v>
       </c>
@@ -33581,10 +33584,10 @@
       <c r="K87" s="73"/>
     </row>
     <row r="88" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="105"/>
-      <c r="B88" s="104"/>
-      <c r="C88" s="104"/>
-      <c r="D88" s="103"/>
+      <c r="A88" s="122"/>
+      <c r="B88" s="121"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="120"/>
       <c r="E88" s="72" t="s">
         <v>239</v>
       </c>
@@ -33598,10 +33601,10 @@
       <c r="K88" s="73"/>
     </row>
     <row r="89" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="105"/>
-      <c r="B89" s="104"/>
-      <c r="C89" s="104"/>
-      <c r="D89" s="103"/>
+      <c r="A89" s="122"/>
+      <c r="B89" s="121"/>
+      <c r="C89" s="121"/>
+      <c r="D89" s="120"/>
       <c r="E89" s="72" t="s">
         <v>355</v>
       </c>
@@ -33615,10 +33618,10 @@
       <c r="K89" s="73"/>
     </row>
     <row r="90" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="105"/>
-      <c r="B90" s="104"/>
-      <c r="C90" s="104"/>
-      <c r="D90" s="103"/>
+      <c r="A90" s="122"/>
+      <c r="B90" s="121"/>
+      <c r="C90" s="121"/>
+      <c r="D90" s="120"/>
       <c r="E90" s="72" t="s">
         <v>173</v>
       </c>
@@ -33632,10 +33635,10 @@
       <c r="K90" s="73"/>
     </row>
     <row r="91" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="101"/>
-      <c r="B91" s="99"/>
-      <c r="C91" s="99"/>
-      <c r="D91" s="97"/>
+      <c r="A91" s="112"/>
+      <c r="B91" s="116"/>
+      <c r="C91" s="116"/>
+      <c r="D91" s="110"/>
       <c r="E91" s="72" t="s">
         <v>216</v>
       </c>
@@ -33649,29 +33652,29 @@
       <c r="K91" s="73"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A92" s="114"/>
-      <c r="B92" s="95"/>
-      <c r="C92" s="95"/>
-      <c r="D92" s="95"/>
-      <c r="E92" s="95"/>
-      <c r="F92" s="95"/>
-      <c r="G92" s="95"/>
-      <c r="H92" s="95"/>
-      <c r="I92" s="95"/>
-      <c r="J92" s="95"/>
-      <c r="K92" s="115"/>
+      <c r="A92" s="117"/>
+      <c r="B92" s="118"/>
+      <c r="C92" s="118"/>
+      <c r="D92" s="118"/>
+      <c r="E92" s="118"/>
+      <c r="F92" s="118"/>
+      <c r="G92" s="118"/>
+      <c r="H92" s="118"/>
+      <c r="I92" s="118"/>
+      <c r="J92" s="118"/>
+      <c r="K92" s="119"/>
     </row>
     <row r="93" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="100">
-        <v>108</v>
-      </c>
-      <c r="B93" s="98" t="s">
+      <c r="A93" s="111">
+        <v>24</v>
+      </c>
+      <c r="B93" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C93" s="96" t="s">
+      <c r="C93" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="96" t="s">
+      <c r="D93" s="109" t="s">
         <v>97</v>
       </c>
       <c r="E93" s="72" t="s">
@@ -33687,10 +33690,10 @@
       <c r="K93" s="73"/>
     </row>
     <row r="94" spans="1:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="105"/>
-      <c r="B94" s="104"/>
-      <c r="C94" s="103"/>
-      <c r="D94" s="103"/>
+      <c r="A94" s="122"/>
+      <c r="B94" s="121"/>
+      <c r="C94" s="120"/>
+      <c r="D94" s="120"/>
       <c r="E94" s="72" t="s">
         <v>245</v>
       </c>
@@ -33704,10 +33707,10 @@
       <c r="K94" s="73"/>
     </row>
     <row r="95" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="105"/>
-      <c r="B95" s="104"/>
-      <c r="C95" s="103"/>
-      <c r="D95" s="103"/>
+      <c r="A95" s="122"/>
+      <c r="B95" s="121"/>
+      <c r="C95" s="120"/>
+      <c r="D95" s="120"/>
       <c r="E95" s="72" t="s">
         <v>114</v>
       </c>
@@ -33721,10 +33724,10 @@
       <c r="K95" s="73"/>
     </row>
     <row r="96" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="101"/>
-      <c r="B96" s="99"/>
-      <c r="C96" s="97"/>
-      <c r="D96" s="97"/>
+      <c r="A96" s="112"/>
+      <c r="B96" s="116"/>
+      <c r="C96" s="110"/>
+      <c r="D96" s="110"/>
       <c r="E96" s="72" t="s">
         <v>356</v>
       </c>
@@ -33738,29 +33741,29 @@
       <c r="K96" s="73"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A97" s="114"/>
-      <c r="B97" s="95"/>
-      <c r="C97" s="95"/>
-      <c r="D97" s="95"/>
-      <c r="E97" s="95"/>
-      <c r="F97" s="95"/>
-      <c r="G97" s="95"/>
-      <c r="H97" s="95"/>
-      <c r="I97" s="95"/>
-      <c r="J97" s="95"/>
-      <c r="K97" s="115"/>
+      <c r="A97" s="117"/>
+      <c r="B97" s="118"/>
+      <c r="C97" s="118"/>
+      <c r="D97" s="118"/>
+      <c r="E97" s="118"/>
+      <c r="F97" s="118"/>
+      <c r="G97" s="118"/>
+      <c r="H97" s="118"/>
+      <c r="I97" s="118"/>
+      <c r="J97" s="118"/>
+      <c r="K97" s="119"/>
     </row>
     <row r="98" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="100">
-        <v>96</v>
-      </c>
-      <c r="B98" s="98" t="s">
+      <c r="A98" s="111">
+        <v>25</v>
+      </c>
+      <c r="B98" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C98" s="96" t="s">
+      <c r="C98" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D98" s="96" t="s">
+      <c r="D98" s="109" t="s">
         <v>84</v>
       </c>
       <c r="E98" s="72" t="s">
@@ -33776,10 +33779,10 @@
       <c r="K98" s="73"/>
     </row>
     <row r="99" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="105"/>
-      <c r="B99" s="104"/>
-      <c r="C99" s="103"/>
-      <c r="D99" s="103"/>
+      <c r="A99" s="122"/>
+      <c r="B99" s="121"/>
+      <c r="C99" s="120"/>
+      <c r="D99" s="120"/>
       <c r="E99" s="72" t="s">
         <v>173</v>
       </c>
@@ -33793,10 +33796,10 @@
       <c r="K99" s="73"/>
     </row>
     <row r="100" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="105"/>
-      <c r="B100" s="104"/>
-      <c r="C100" s="103"/>
-      <c r="D100" s="103"/>
+      <c r="A100" s="122"/>
+      <c r="B100" s="121"/>
+      <c r="C100" s="120"/>
+      <c r="D100" s="120"/>
       <c r="E100" s="72" t="s">
         <v>172</v>
       </c>
@@ -33810,10 +33813,10 @@
       <c r="K100" s="73"/>
     </row>
     <row r="101" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="105"/>
-      <c r="B101" s="104"/>
-      <c r="C101" s="103"/>
-      <c r="D101" s="103"/>
+      <c r="A101" s="122"/>
+      <c r="B101" s="121"/>
+      <c r="C101" s="120"/>
+      <c r="D101" s="120"/>
       <c r="E101" s="72" t="s">
         <v>193</v>
       </c>
@@ -33827,10 +33830,10 @@
       <c r="K101" s="73"/>
     </row>
     <row r="102" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="105"/>
-      <c r="B102" s="104"/>
-      <c r="C102" s="103"/>
-      <c r="D102" s="103"/>
+      <c r="A102" s="122"/>
+      <c r="B102" s="121"/>
+      <c r="C102" s="120"/>
+      <c r="D102" s="120"/>
       <c r="E102" s="72" t="s">
         <v>357</v>
       </c>
@@ -33844,10 +33847,10 @@
       <c r="K102" s="73"/>
     </row>
     <row r="103" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="101"/>
-      <c r="B103" s="99"/>
-      <c r="C103" s="97"/>
-      <c r="D103" s="97"/>
+      <c r="A103" s="112"/>
+      <c r="B103" s="116"/>
+      <c r="C103" s="110"/>
+      <c r="D103" s="110"/>
       <c r="E103" s="72" t="s">
         <v>358</v>
       </c>
@@ -33861,21 +33864,21 @@
       <c r="K103" s="73"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A104" s="114"/>
-      <c r="B104" s="95"/>
-      <c r="C104" s="95"/>
-      <c r="D104" s="95"/>
-      <c r="E104" s="95"/>
-      <c r="F104" s="95"/>
-      <c r="G104" s="95"/>
-      <c r="H104" s="95"/>
-      <c r="I104" s="95"/>
-      <c r="J104" s="95"/>
-      <c r="K104" s="115"/>
+      <c r="A104" s="117"/>
+      <c r="B104" s="118"/>
+      <c r="C104" s="118"/>
+      <c r="D104" s="118"/>
+      <c r="E104" s="118"/>
+      <c r="F104" s="118"/>
+      <c r="G104" s="118"/>
+      <c r="H104" s="118"/>
+      <c r="I104" s="118"/>
+      <c r="J104" s="118"/>
+      <c r="K104" s="119"/>
     </row>
     <row r="105" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="83">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B105" s="84" t="s">
         <v>166</v>
@@ -33899,29 +33902,29 @@
       <c r="K105" s="73"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A106" s="116"/>
-      <c r="B106" s="102"/>
-      <c r="C106" s="102"/>
-      <c r="D106" s="102"/>
-      <c r="E106" s="102"/>
-      <c r="F106" s="102"/>
-      <c r="G106" s="102"/>
-      <c r="H106" s="102"/>
-      <c r="I106" s="102"/>
-      <c r="J106" s="102"/>
-      <c r="K106" s="117"/>
+      <c r="A106" s="104"/>
+      <c r="B106" s="105"/>
+      <c r="C106" s="105"/>
+      <c r="D106" s="105"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="105"/>
+      <c r="H106" s="105"/>
+      <c r="I106" s="105"/>
+      <c r="J106" s="105"/>
+      <c r="K106" s="106"/>
     </row>
     <row r="107" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="100">
-        <v>104</v>
-      </c>
-      <c r="B107" s="98" t="s">
+      <c r="A107" s="111">
+        <v>27</v>
+      </c>
+      <c r="B107" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C107" s="96" t="s">
+      <c r="C107" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D107" s="96" t="s">
+      <c r="D107" s="109" t="s">
         <v>93</v>
       </c>
       <c r="E107" s="72" t="s">
@@ -33937,10 +33940,10 @@
       <c r="K107" s="73"/>
     </row>
     <row r="108" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="105"/>
-      <c r="B108" s="104"/>
-      <c r="C108" s="103"/>
-      <c r="D108" s="103"/>
+      <c r="A108" s="122"/>
+      <c r="B108" s="121"/>
+      <c r="C108" s="120"/>
+      <c r="D108" s="120"/>
       <c r="E108" s="72" t="s">
         <v>173</v>
       </c>
@@ -33954,10 +33957,10 @@
       <c r="K108" s="73"/>
     </row>
     <row r="109" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="105"/>
-      <c r="B109" s="104"/>
-      <c r="C109" s="103"/>
-      <c r="D109" s="103"/>
+      <c r="A109" s="122"/>
+      <c r="B109" s="121"/>
+      <c r="C109" s="120"/>
+      <c r="D109" s="120"/>
       <c r="E109" s="72" t="s">
         <v>114</v>
       </c>
@@ -33971,10 +33974,10 @@
       <c r="K109" s="73"/>
     </row>
     <row r="110" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="105"/>
-      <c r="B110" s="104"/>
-      <c r="C110" s="103"/>
-      <c r="D110" s="103"/>
+      <c r="A110" s="122"/>
+      <c r="B110" s="121"/>
+      <c r="C110" s="120"/>
+      <c r="D110" s="120"/>
       <c r="E110" s="72" t="s">
         <v>186</v>
       </c>
@@ -33988,10 +33991,10 @@
       <c r="K110" s="73"/>
     </row>
     <row r="111" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="101"/>
-      <c r="B111" s="99"/>
-      <c r="C111" s="97"/>
-      <c r="D111" s="97"/>
+      <c r="A111" s="112"/>
+      <c r="B111" s="116"/>
+      <c r="C111" s="110"/>
+      <c r="D111" s="110"/>
       <c r="E111" s="72" t="s">
         <v>188</v>
       </c>
@@ -34005,29 +34008,29 @@
       <c r="K111" s="73"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A112" s="116"/>
-      <c r="B112" s="102"/>
-      <c r="C112" s="102"/>
-      <c r="D112" s="102"/>
-      <c r="E112" s="102"/>
-      <c r="F112" s="102"/>
-      <c r="G112" s="102"/>
-      <c r="H112" s="102"/>
-      <c r="I112" s="102"/>
-      <c r="J112" s="102"/>
-      <c r="K112" s="117"/>
+      <c r="A112" s="104"/>
+      <c r="B112" s="105"/>
+      <c r="C112" s="105"/>
+      <c r="D112" s="105"/>
+      <c r="E112" s="105"/>
+      <c r="F112" s="105"/>
+      <c r="G112" s="105"/>
+      <c r="H112" s="105"/>
+      <c r="I112" s="105"/>
+      <c r="J112" s="105"/>
+      <c r="K112" s="106"/>
     </row>
     <row r="113" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="100">
-        <v>105</v>
-      </c>
-      <c r="B113" s="98" t="s">
+      <c r="A113" s="111">
+        <v>28</v>
+      </c>
+      <c r="B113" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C113" s="98" t="s">
+      <c r="C113" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="D113" s="96" t="s">
+      <c r="D113" s="109" t="s">
         <v>94</v>
       </c>
       <c r="E113" s="72" t="s">
@@ -34043,10 +34046,10 @@
       <c r="K113" s="73"/>
     </row>
     <row r="114" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="105"/>
-      <c r="B114" s="104"/>
-      <c r="C114" s="104"/>
-      <c r="D114" s="103"/>
+      <c r="A114" s="122"/>
+      <c r="B114" s="121"/>
+      <c r="C114" s="121"/>
+      <c r="D114" s="120"/>
       <c r="E114" s="72" t="s">
         <v>173</v>
       </c>
@@ -34060,10 +34063,10 @@
       <c r="K114" s="73"/>
     </row>
     <row r="115" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="105"/>
-      <c r="B115" s="104"/>
-      <c r="C115" s="104"/>
-      <c r="D115" s="103"/>
+      <c r="A115" s="122"/>
+      <c r="B115" s="121"/>
+      <c r="C115" s="121"/>
+      <c r="D115" s="120"/>
       <c r="E115" s="72" t="s">
         <v>114</v>
       </c>
@@ -34077,10 +34080,10 @@
       <c r="K115" s="73"/>
     </row>
     <row r="116" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="105"/>
-      <c r="B116" s="104"/>
-      <c r="C116" s="104"/>
-      <c r="D116" s="103"/>
+      <c r="A116" s="122"/>
+      <c r="B116" s="121"/>
+      <c r="C116" s="121"/>
+      <c r="D116" s="120"/>
       <c r="E116" s="72" t="s">
         <v>193</v>
       </c>
@@ -34094,10 +34097,10 @@
       <c r="K116" s="73"/>
     </row>
     <row r="117" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="101"/>
-      <c r="B117" s="99"/>
-      <c r="C117" s="99"/>
-      <c r="D117" s="97"/>
+      <c r="A117" s="112"/>
+      <c r="B117" s="116"/>
+      <c r="C117" s="116"/>
+      <c r="D117" s="110"/>
       <c r="E117" s="72" t="s">
         <v>186</v>
       </c>
@@ -34111,29 +34114,29 @@
       <c r="K117" s="73"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A118" s="116"/>
-      <c r="B118" s="102"/>
-      <c r="C118" s="102"/>
-      <c r="D118" s="102"/>
-      <c r="E118" s="102"/>
-      <c r="F118" s="102"/>
-      <c r="G118" s="102"/>
-      <c r="H118" s="102"/>
-      <c r="I118" s="102"/>
-      <c r="J118" s="102"/>
-      <c r="K118" s="117"/>
+      <c r="A118" s="104"/>
+      <c r="B118" s="105"/>
+      <c r="C118" s="105"/>
+      <c r="D118" s="105"/>
+      <c r="E118" s="105"/>
+      <c r="F118" s="105"/>
+      <c r="G118" s="105"/>
+      <c r="H118" s="105"/>
+      <c r="I118" s="105"/>
+      <c r="J118" s="105"/>
+      <c r="K118" s="106"/>
     </row>
     <row r="119" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="100">
-        <v>113</v>
-      </c>
-      <c r="B119" s="98" t="s">
+      <c r="A119" s="111">
+        <v>29</v>
+      </c>
+      <c r="B119" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C119" s="98" t="s">
+      <c r="C119" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="D119" s="96" t="s">
+      <c r="D119" s="109" t="s">
         <v>102</v>
       </c>
       <c r="E119" s="72" t="s">
@@ -34149,10 +34152,10 @@
       <c r="K119" s="73"/>
     </row>
     <row r="120" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="105"/>
-      <c r="B120" s="104"/>
-      <c r="C120" s="104"/>
-      <c r="D120" s="103"/>
+      <c r="A120" s="122"/>
+      <c r="B120" s="121"/>
+      <c r="C120" s="121"/>
+      <c r="D120" s="120"/>
       <c r="E120" s="72" t="s">
         <v>172</v>
       </c>
@@ -34166,10 +34169,10 @@
       <c r="K120" s="73"/>
     </row>
     <row r="121" spans="1:11" ht="31" x14ac:dyDescent="0.35">
-      <c r="A121" s="101"/>
-      <c r="B121" s="99"/>
-      <c r="C121" s="99"/>
-      <c r="D121" s="97"/>
+      <c r="A121" s="112"/>
+      <c r="B121" s="116"/>
+      <c r="C121" s="116"/>
+      <c r="D121" s="110"/>
       <c r="E121" s="87" t="s">
         <v>212</v>
       </c>
@@ -34183,29 +34186,29 @@
       <c r="K121" s="73"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A122" s="116"/>
-      <c r="B122" s="102"/>
-      <c r="C122" s="102"/>
-      <c r="D122" s="102"/>
-      <c r="E122" s="102"/>
-      <c r="F122" s="102"/>
-      <c r="G122" s="102"/>
-      <c r="H122" s="102"/>
-      <c r="I122" s="102"/>
-      <c r="J122" s="102"/>
-      <c r="K122" s="117"/>
+      <c r="A122" s="104"/>
+      <c r="B122" s="105"/>
+      <c r="C122" s="105"/>
+      <c r="D122" s="105"/>
+      <c r="E122" s="105"/>
+      <c r="F122" s="105"/>
+      <c r="G122" s="105"/>
+      <c r="H122" s="105"/>
+      <c r="I122" s="105"/>
+      <c r="J122" s="105"/>
+      <c r="K122" s="106"/>
     </row>
     <row r="123" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="100">
-        <v>112</v>
-      </c>
-      <c r="B123" s="98" t="s">
+      <c r="A123" s="111">
+        <v>30</v>
+      </c>
+      <c r="B123" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C123" s="96" t="s">
+      <c r="C123" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D123" s="96" t="s">
+      <c r="D123" s="109" t="s">
         <v>101</v>
       </c>
       <c r="E123" s="72" t="s">
@@ -34221,10 +34224,10 @@
       <c r="K123" s="73"/>
     </row>
     <row r="124" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="105"/>
-      <c r="B124" s="104"/>
-      <c r="C124" s="103"/>
-      <c r="D124" s="103"/>
+      <c r="A124" s="122"/>
+      <c r="B124" s="121"/>
+      <c r="C124" s="120"/>
+      <c r="D124" s="120"/>
       <c r="E124" s="72" t="s">
         <v>245</v>
       </c>
@@ -34238,10 +34241,10 @@
       <c r="K124" s="73"/>
     </row>
     <row r="125" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="105"/>
-      <c r="B125" s="104"/>
-      <c r="C125" s="103"/>
-      <c r="D125" s="103"/>
+      <c r="A125" s="122"/>
+      <c r="B125" s="121"/>
+      <c r="C125" s="120"/>
+      <c r="D125" s="120"/>
       <c r="E125" s="72" t="s">
         <v>226</v>
       </c>
@@ -34255,10 +34258,10 @@
       <c r="K125" s="73"/>
     </row>
     <row r="126" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="101"/>
-      <c r="B126" s="99"/>
-      <c r="C126" s="97"/>
-      <c r="D126" s="97"/>
+      <c r="A126" s="112"/>
+      <c r="B126" s="116"/>
+      <c r="C126" s="110"/>
+      <c r="D126" s="110"/>
       <c r="E126" s="72" t="s">
         <v>172</v>
       </c>
@@ -34272,21 +34275,21 @@
       <c r="K126" s="73"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A127" s="116"/>
-      <c r="B127" s="102"/>
-      <c r="C127" s="102"/>
-      <c r="D127" s="102"/>
-      <c r="E127" s="102"/>
-      <c r="F127" s="102"/>
-      <c r="G127" s="102"/>
-      <c r="H127" s="102"/>
-      <c r="I127" s="102"/>
-      <c r="J127" s="102"/>
-      <c r="K127" s="117"/>
+      <c r="A127" s="104"/>
+      <c r="B127" s="105"/>
+      <c r="C127" s="105"/>
+      <c r="D127" s="105"/>
+      <c r="E127" s="105"/>
+      <c r="F127" s="105"/>
+      <c r="G127" s="105"/>
+      <c r="H127" s="105"/>
+      <c r="I127" s="105"/>
+      <c r="J127" s="105"/>
+      <c r="K127" s="106"/>
     </row>
     <row r="128" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A128" s="83">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="B128" s="84" t="s">
         <v>166</v>
@@ -34310,29 +34313,29 @@
       <c r="K128" s="73"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A129" s="116"/>
-      <c r="B129" s="102"/>
-      <c r="C129" s="102"/>
-      <c r="D129" s="102"/>
-      <c r="E129" s="102"/>
-      <c r="F129" s="102"/>
-      <c r="G129" s="102"/>
-      <c r="H129" s="102"/>
-      <c r="I129" s="102"/>
-      <c r="J129" s="102"/>
-      <c r="K129" s="117"/>
+      <c r="A129" s="104"/>
+      <c r="B129" s="105"/>
+      <c r="C129" s="105"/>
+      <c r="D129" s="105"/>
+      <c r="E129" s="105"/>
+      <c r="F129" s="105"/>
+      <c r="G129" s="105"/>
+      <c r="H129" s="105"/>
+      <c r="I129" s="105"/>
+      <c r="J129" s="105"/>
+      <c r="K129" s="106"/>
     </row>
     <row r="130" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="100">
-        <v>107</v>
-      </c>
-      <c r="B130" s="98" t="s">
+      <c r="A130" s="111">
+        <v>32</v>
+      </c>
+      <c r="B130" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C130" s="98" t="s">
+      <c r="C130" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D130" s="96" t="s">
+      <c r="D130" s="109" t="s">
         <v>96</v>
       </c>
       <c r="E130" s="72" t="s">
@@ -34348,10 +34351,10 @@
       <c r="K130" s="73"/>
     </row>
     <row r="131" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="105"/>
-      <c r="B131" s="104"/>
-      <c r="C131" s="104"/>
-      <c r="D131" s="103"/>
+      <c r="A131" s="122"/>
+      <c r="B131" s="121"/>
+      <c r="C131" s="121"/>
+      <c r="D131" s="120"/>
       <c r="E131" s="72" t="s">
         <v>330</v>
       </c>
@@ -34365,10 +34368,10 @@
       <c r="K131" s="73"/>
     </row>
     <row r="132" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="101"/>
-      <c r="B132" s="99"/>
-      <c r="C132" s="99"/>
-      <c r="D132" s="97"/>
+      <c r="A132" s="112"/>
+      <c r="B132" s="116"/>
+      <c r="C132" s="116"/>
+      <c r="D132" s="110"/>
       <c r="E132" s="72" t="s">
         <v>362</v>
       </c>
@@ -34382,21 +34385,21 @@
       <c r="K132" s="73"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A133" s="116"/>
-      <c r="B133" s="102"/>
-      <c r="C133" s="102"/>
-      <c r="D133" s="102"/>
-      <c r="E133" s="102"/>
-      <c r="F133" s="102"/>
-      <c r="G133" s="102"/>
-      <c r="H133" s="102"/>
-      <c r="I133" s="102"/>
-      <c r="J133" s="102"/>
-      <c r="K133" s="117"/>
+      <c r="A133" s="104"/>
+      <c r="B133" s="105"/>
+      <c r="C133" s="105"/>
+      <c r="D133" s="105"/>
+      <c r="E133" s="105"/>
+      <c r="F133" s="105"/>
+      <c r="G133" s="105"/>
+      <c r="H133" s="105"/>
+      <c r="I133" s="105"/>
+      <c r="J133" s="105"/>
+      <c r="K133" s="106"/>
     </row>
     <row r="134" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A134" s="83">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="B134" s="73"/>
       <c r="C134" s="73"/>
@@ -34416,21 +34419,21 @@
       <c r="K134" s="73"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A135" s="114"/>
-      <c r="B135" s="95"/>
-      <c r="C135" s="95"/>
-      <c r="D135" s="95"/>
-      <c r="E135" s="95"/>
-      <c r="F135" s="95"/>
-      <c r="G135" s="95"/>
-      <c r="H135" s="95"/>
-      <c r="I135" s="95"/>
-      <c r="J135" s="95"/>
-      <c r="K135" s="115"/>
+      <c r="A135" s="117"/>
+      <c r="B135" s="118"/>
+      <c r="C135" s="118"/>
+      <c r="D135" s="118"/>
+      <c r="E135" s="118"/>
+      <c r="F135" s="118"/>
+      <c r="G135" s="118"/>
+      <c r="H135" s="118"/>
+      <c r="I135" s="118"/>
+      <c r="J135" s="118"/>
+      <c r="K135" s="119"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136" s="83">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="B136" s="73"/>
       <c r="C136" s="73"/>
@@ -34448,8 +34451,8 @@
       <c r="K136" s="73"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A137" s="85">
-        <v>124</v>
+      <c r="A137" s="92">
+        <v>35</v>
       </c>
       <c r="B137" s="73"/>
       <c r="C137" s="73"/>
@@ -34467,8 +34470,8 @@
       <c r="K137" s="73"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A138" s="85">
-        <v>124</v>
+      <c r="A138" s="92">
+        <v>36</v>
       </c>
       <c r="B138" s="73"/>
       <c r="C138" s="73"/>
@@ -34488,8 +34491,8 @@
       <c r="K138" s="73"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A139" s="85">
-        <v>124</v>
+      <c r="A139" s="92">
+        <v>37</v>
       </c>
       <c r="B139" s="73"/>
       <c r="C139" s="73"/>
@@ -34509,8 +34512,8 @@
       <c r="K139" s="73"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A140" s="85">
-        <v>124</v>
+      <c r="A140" s="92">
+        <v>38</v>
       </c>
       <c r="B140" s="80" t="s">
         <v>105</v>
@@ -34532,21 +34535,21 @@
       <c r="K140" s="73"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A141" s="114"/>
-      <c r="B141" s="95"/>
-      <c r="C141" s="95"/>
-      <c r="D141" s="95"/>
-      <c r="E141" s="95"/>
-      <c r="F141" s="95"/>
-      <c r="G141" s="95"/>
-      <c r="H141" s="95"/>
-      <c r="I141" s="95"/>
-      <c r="J141" s="95"/>
-      <c r="K141" s="115"/>
+      <c r="A141" s="117"/>
+      <c r="B141" s="118"/>
+      <c r="C141" s="118"/>
+      <c r="D141" s="118"/>
+      <c r="E141" s="118"/>
+      <c r="F141" s="118"/>
+      <c r="G141" s="118"/>
+      <c r="H141" s="118"/>
+      <c r="I141" s="118"/>
+      <c r="J141" s="118"/>
+      <c r="K141" s="119"/>
     </row>
     <row r="142" spans="1:11" ht="23.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="83">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B142" s="78" t="s">
         <v>105</v>
@@ -34568,29 +34571,29 @@
       <c r="K142" s="73"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A143" s="118"/>
-      <c r="B143" s="109"/>
-      <c r="C143" s="109"/>
-      <c r="D143" s="109"/>
-      <c r="E143" s="109"/>
-      <c r="F143" s="109"/>
-      <c r="G143" s="109"/>
-      <c r="H143" s="109"/>
-      <c r="I143" s="109"/>
-      <c r="J143" s="109"/>
-      <c r="K143" s="119"/>
+      <c r="A143" s="123"/>
+      <c r="B143" s="124"/>
+      <c r="C143" s="124"/>
+      <c r="D143" s="124"/>
+      <c r="E143" s="124"/>
+      <c r="F143" s="124"/>
+      <c r="G143" s="124"/>
+      <c r="H143" s="124"/>
+      <c r="I143" s="124"/>
+      <c r="J143" s="124"/>
+      <c r="K143" s="125"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A144" s="100">
-        <v>87</v>
-      </c>
-      <c r="B144" s="96" t="s">
+      <c r="A144" s="111">
+        <v>41</v>
+      </c>
+      <c r="B144" s="109" t="s">
         <v>105</v>
       </c>
-      <c r="C144" s="96" t="s">
+      <c r="C144" s="109" t="s">
         <v>146</v>
       </c>
-      <c r="D144" s="96" t="s">
+      <c r="D144" s="109" t="s">
         <v>374</v>
       </c>
       <c r="E144" s="72" t="s">
@@ -34606,10 +34609,10 @@
       <c r="K144" s="73"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A145" s="101"/>
-      <c r="B145" s="97"/>
-      <c r="C145" s="97"/>
-      <c r="D145" s="97"/>
+      <c r="A145" s="112"/>
+      <c r="B145" s="110"/>
+      <c r="C145" s="110"/>
+      <c r="D145" s="110"/>
       <c r="E145" s="72" t="s">
         <v>291</v>
       </c>
@@ -34623,21 +34626,21 @@
       <c r="K145" s="73"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A146" s="114"/>
-      <c r="B146" s="95"/>
-      <c r="C146" s="95"/>
-      <c r="D146" s="95"/>
-      <c r="E146" s="95"/>
-      <c r="F146" s="95"/>
-      <c r="G146" s="95"/>
-      <c r="H146" s="95"/>
-      <c r="I146" s="95"/>
-      <c r="J146" s="95"/>
-      <c r="K146" s="115"/>
+      <c r="A146" s="117"/>
+      <c r="B146" s="118"/>
+      <c r="C146" s="118"/>
+      <c r="D146" s="118"/>
+      <c r="E146" s="118"/>
+      <c r="F146" s="118"/>
+      <c r="G146" s="118"/>
+      <c r="H146" s="118"/>
+      <c r="I146" s="118"/>
+      <c r="J146" s="118"/>
+      <c r="K146" s="119"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="83">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="B147" s="78" t="s">
         <v>105</v>
@@ -34661,29 +34664,29 @@
       <c r="K147" s="73"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A148" s="114"/>
-      <c r="B148" s="95"/>
-      <c r="C148" s="95"/>
-      <c r="D148" s="95"/>
-      <c r="E148" s="95"/>
-      <c r="F148" s="95"/>
-      <c r="G148" s="95"/>
-      <c r="H148" s="95"/>
-      <c r="I148" s="95"/>
-      <c r="J148" s="95"/>
-      <c r="K148" s="115"/>
+      <c r="A148" s="117"/>
+      <c r="B148" s="118"/>
+      <c r="C148" s="118"/>
+      <c r="D148" s="118"/>
+      <c r="E148" s="118"/>
+      <c r="F148" s="118"/>
+      <c r="G148" s="118"/>
+      <c r="H148" s="118"/>
+      <c r="I148" s="118"/>
+      <c r="J148" s="118"/>
+      <c r="K148" s="119"/>
     </row>
     <row r="149" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="100">
-        <v>67</v>
-      </c>
-      <c r="B149" s="98" t="s">
+      <c r="A149" s="111">
+        <v>43</v>
+      </c>
+      <c r="B149" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="C149" s="96" t="s">
+      <c r="C149" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="D149" s="96" t="s">
+      <c r="D149" s="109" t="s">
         <v>69</v>
       </c>
       <c r="E149" s="72" t="s">
@@ -34699,10 +34702,10 @@
       <c r="K149" s="73"/>
     </row>
     <row r="150" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="105"/>
-      <c r="B150" s="104"/>
-      <c r="C150" s="103"/>
-      <c r="D150" s="103"/>
+      <c r="A150" s="122"/>
+      <c r="B150" s="121"/>
+      <c r="C150" s="120"/>
+      <c r="D150" s="120"/>
       <c r="E150" s="72" t="s">
         <v>368</v>
       </c>
@@ -34716,10 +34719,10 @@
       <c r="K150" s="73"/>
     </row>
     <row r="151" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="105"/>
-      <c r="B151" s="104"/>
-      <c r="C151" s="103"/>
-      <c r="D151" s="103"/>
+      <c r="A151" s="122"/>
+      <c r="B151" s="121"/>
+      <c r="C151" s="120"/>
+      <c r="D151" s="120"/>
       <c r="E151" s="72" t="s">
         <v>369</v>
       </c>
@@ -34733,10 +34736,10 @@
       <c r="K151" s="73"/>
     </row>
     <row r="152" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="105"/>
-      <c r="B152" s="104"/>
-      <c r="C152" s="103"/>
-      <c r="D152" s="103"/>
+      <c r="A152" s="122"/>
+      <c r="B152" s="121"/>
+      <c r="C152" s="120"/>
+      <c r="D152" s="120"/>
       <c r="E152" s="72" t="s">
         <v>226</v>
       </c>
@@ -34750,29 +34753,29 @@
       <c r="K152" s="73"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A153" s="114"/>
-      <c r="B153" s="95"/>
-      <c r="C153" s="95"/>
-      <c r="D153" s="95"/>
-      <c r="E153" s="95"/>
-      <c r="F153" s="95"/>
-      <c r="G153" s="95"/>
-      <c r="H153" s="95"/>
-      <c r="I153" s="95"/>
-      <c r="J153" s="95"/>
-      <c r="K153" s="115"/>
+      <c r="A153" s="117"/>
+      <c r="B153" s="118"/>
+      <c r="C153" s="118"/>
+      <c r="D153" s="118"/>
+      <c r="E153" s="118"/>
+      <c r="F153" s="118"/>
+      <c r="G153" s="118"/>
+      <c r="H153" s="118"/>
+      <c r="I153" s="118"/>
+      <c r="J153" s="118"/>
+      <c r="K153" s="119"/>
     </row>
     <row r="154" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="100">
-        <v>66</v>
-      </c>
-      <c r="B154" s="98" t="s">
+      <c r="A154" s="111">
+        <v>44</v>
+      </c>
+      <c r="B154" s="115" t="s">
         <v>138</v>
       </c>
-      <c r="C154" s="96" t="s">
+      <c r="C154" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D154" s="96" t="s">
+      <c r="D154" s="109" t="s">
         <v>68</v>
       </c>
       <c r="E154" s="72" t="s">
@@ -34788,10 +34791,10 @@
       <c r="K154" s="73"/>
     </row>
     <row r="155" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="105"/>
-      <c r="B155" s="104"/>
-      <c r="C155" s="103"/>
-      <c r="D155" s="103"/>
+      <c r="A155" s="122"/>
+      <c r="B155" s="121"/>
+      <c r="C155" s="120"/>
+      <c r="D155" s="120"/>
       <c r="E155" s="72" t="s">
         <v>172</v>
       </c>
@@ -34805,10 +34808,10 @@
       <c r="K155" s="73"/>
     </row>
     <row r="156" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="105"/>
-      <c r="B156" s="104"/>
-      <c r="C156" s="103"/>
-      <c r="D156" s="103"/>
+      <c r="A156" s="122"/>
+      <c r="B156" s="121"/>
+      <c r="C156" s="120"/>
+      <c r="D156" s="120"/>
       <c r="E156" s="72" t="s">
         <v>173</v>
       </c>
@@ -34822,10 +34825,10 @@
       <c r="K156" s="73"/>
     </row>
     <row r="157" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="105"/>
-      <c r="B157" s="104"/>
-      <c r="C157" s="103"/>
-      <c r="D157" s="103"/>
+      <c r="A157" s="122"/>
+      <c r="B157" s="121"/>
+      <c r="C157" s="120"/>
+      <c r="D157" s="120"/>
       <c r="E157" s="72" t="s">
         <v>114</v>
       </c>
@@ -34839,10 +34842,10 @@
       <c r="K157" s="73"/>
     </row>
     <row r="158" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="105"/>
-      <c r="B158" s="104"/>
-      <c r="C158" s="103"/>
-      <c r="D158" s="103"/>
+      <c r="A158" s="122"/>
+      <c r="B158" s="121"/>
+      <c r="C158" s="120"/>
+      <c r="D158" s="120"/>
       <c r="E158" s="72" t="s">
         <v>330</v>
       </c>
@@ -34856,21 +34859,21 @@
       <c r="K158" s="73"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A159" s="114"/>
-      <c r="B159" s="95"/>
-      <c r="C159" s="95"/>
-      <c r="D159" s="95"/>
-      <c r="E159" s="95"/>
-      <c r="F159" s="95"/>
-      <c r="G159" s="95"/>
-      <c r="H159" s="95"/>
-      <c r="I159" s="95"/>
-      <c r="J159" s="95"/>
-      <c r="K159" s="115"/>
+      <c r="A159" s="117"/>
+      <c r="B159" s="118"/>
+      <c r="C159" s="118"/>
+      <c r="D159" s="118"/>
+      <c r="E159" s="118"/>
+      <c r="F159" s="118"/>
+      <c r="G159" s="118"/>
+      <c r="H159" s="118"/>
+      <c r="I159" s="118"/>
+      <c r="J159" s="118"/>
+      <c r="K159" s="119"/>
     </row>
     <row r="160" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A160" s="83">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B160" s="84" t="s">
         <v>166</v>
@@ -34894,21 +34897,21 @@
       <c r="K160" s="73"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A161" s="114"/>
-      <c r="B161" s="95"/>
-      <c r="C161" s="95"/>
-      <c r="D161" s="95"/>
-      <c r="E161" s="95"/>
-      <c r="F161" s="95"/>
-      <c r="G161" s="95"/>
-      <c r="H161" s="95"/>
-      <c r="I161" s="95"/>
-      <c r="J161" s="95"/>
-      <c r="K161" s="115"/>
+      <c r="A161" s="117"/>
+      <c r="B161" s="118"/>
+      <c r="C161" s="118"/>
+      <c r="D161" s="118"/>
+      <c r="E161" s="118"/>
+      <c r="F161" s="118"/>
+      <c r="G161" s="118"/>
+      <c r="H161" s="118"/>
+      <c r="I161" s="118"/>
+      <c r="J161" s="118"/>
+      <c r="K161" s="119"/>
     </row>
     <row r="162" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A162" s="83">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="B162" s="84" t="s">
         <v>166</v>
@@ -34932,29 +34935,29 @@
       <c r="K162" s="73"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A163" s="114"/>
-      <c r="B163" s="95"/>
-      <c r="C163" s="95"/>
-      <c r="D163" s="95"/>
-      <c r="E163" s="95"/>
-      <c r="F163" s="95"/>
-      <c r="G163" s="95"/>
-      <c r="H163" s="95"/>
-      <c r="I163" s="95"/>
-      <c r="J163" s="95"/>
-      <c r="K163" s="115"/>
+      <c r="A163" s="117"/>
+      <c r="B163" s="118"/>
+      <c r="C163" s="118"/>
+      <c r="D163" s="118"/>
+      <c r="E163" s="118"/>
+      <c r="F163" s="118"/>
+      <c r="G163" s="118"/>
+      <c r="H163" s="118"/>
+      <c r="I163" s="118"/>
+      <c r="J163" s="118"/>
+      <c r="K163" s="119"/>
     </row>
     <row r="164" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="100">
-        <v>109</v>
-      </c>
-      <c r="B164" s="98" t="s">
+      <c r="A164" s="111">
+        <v>47</v>
+      </c>
+      <c r="B164" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C164" s="98" t="s">
+      <c r="C164" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D164" s="96" t="s">
+      <c r="D164" s="109" t="s">
         <v>98</v>
       </c>
       <c r="E164" s="72" t="s">
@@ -34970,10 +34973,10 @@
       <c r="K164" s="73"/>
     </row>
     <row r="165" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="101"/>
-      <c r="B165" s="99"/>
-      <c r="C165" s="99"/>
-      <c r="D165" s="97"/>
+      <c r="A165" s="112"/>
+      <c r="B165" s="116"/>
+      <c r="C165" s="116"/>
+      <c r="D165" s="110"/>
       <c r="E165" s="72" t="s">
         <v>172</v>
       </c>
@@ -34987,29 +34990,29 @@
       <c r="K165" s="73"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A166" s="114"/>
-      <c r="B166" s="95"/>
-      <c r="C166" s="95"/>
-      <c r="D166" s="95"/>
-      <c r="E166" s="95"/>
-      <c r="F166" s="95"/>
-      <c r="G166" s="95"/>
-      <c r="H166" s="95"/>
-      <c r="I166" s="95"/>
-      <c r="J166" s="95"/>
-      <c r="K166" s="115"/>
+      <c r="A166" s="117"/>
+      <c r="B166" s="118"/>
+      <c r="C166" s="118"/>
+      <c r="D166" s="118"/>
+      <c r="E166" s="118"/>
+      <c r="F166" s="118"/>
+      <c r="G166" s="118"/>
+      <c r="H166" s="118"/>
+      <c r="I166" s="118"/>
+      <c r="J166" s="118"/>
+      <c r="K166" s="119"/>
     </row>
     <row r="167" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="100">
-        <v>108</v>
-      </c>
-      <c r="B167" s="98" t="s">
+      <c r="A167" s="111">
+        <v>48</v>
+      </c>
+      <c r="B167" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C167" s="96" t="s">
+      <c r="C167" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="D167" s="96" t="s">
+      <c r="D167" s="109" t="s">
         <v>97</v>
       </c>
       <c r="E167" s="72" t="s">
@@ -35025,10 +35028,10 @@
       <c r="K167" s="73"/>
     </row>
     <row r="168" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A168" s="101"/>
-      <c r="B168" s="99"/>
-      <c r="C168" s="97"/>
-      <c r="D168" s="97"/>
+      <c r="A168" s="112"/>
+      <c r="B168" s="116"/>
+      <c r="C168" s="110"/>
+      <c r="D168" s="110"/>
       <c r="E168" s="72" t="s">
         <v>114</v>
       </c>
@@ -35042,29 +35045,29 @@
       <c r="K168" s="73"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A169" s="114"/>
-      <c r="B169" s="95"/>
-      <c r="C169" s="95"/>
-      <c r="D169" s="95"/>
-      <c r="E169" s="95"/>
-      <c r="F169" s="95"/>
-      <c r="G169" s="95"/>
-      <c r="H169" s="95"/>
-      <c r="I169" s="95"/>
-      <c r="J169" s="95"/>
-      <c r="K169" s="115"/>
+      <c r="A169" s="117"/>
+      <c r="B169" s="118"/>
+      <c r="C169" s="118"/>
+      <c r="D169" s="118"/>
+      <c r="E169" s="118"/>
+      <c r="F169" s="118"/>
+      <c r="G169" s="118"/>
+      <c r="H169" s="118"/>
+      <c r="I169" s="118"/>
+      <c r="J169" s="118"/>
+      <c r="K169" s="119"/>
     </row>
     <row r="170" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="100">
-        <v>111</v>
-      </c>
-      <c r="B170" s="98" t="s">
+      <c r="A170" s="111">
+        <v>49</v>
+      </c>
+      <c r="B170" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C170" s="98" t="s">
+      <c r="C170" s="115" t="s">
         <v>9</v>
       </c>
-      <c r="D170" s="96" t="s">
+      <c r="D170" s="109" t="s">
         <v>100</v>
       </c>
       <c r="E170" s="72" t="s">
@@ -35080,10 +35083,10 @@
       <c r="K170" s="73"/>
     </row>
     <row r="171" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="105"/>
-      <c r="B171" s="104"/>
-      <c r="C171" s="104"/>
-      <c r="D171" s="103"/>
+      <c r="A171" s="122"/>
+      <c r="B171" s="121"/>
+      <c r="C171" s="121"/>
+      <c r="D171" s="120"/>
       <c r="E171" s="72" t="s">
         <v>258</v>
       </c>
@@ -35097,10 +35100,10 @@
       <c r="K171" s="73"/>
     </row>
     <row r="172" spans="1:11" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A172" s="105"/>
-      <c r="B172" s="104"/>
-      <c r="C172" s="104"/>
-      <c r="D172" s="103"/>
+      <c r="A172" s="122"/>
+      <c r="B172" s="121"/>
+      <c r="C172" s="121"/>
+      <c r="D172" s="120"/>
       <c r="E172" s="72" t="s">
         <v>260</v>
       </c>
@@ -35114,10 +35117,10 @@
       <c r="K172" s="73"/>
     </row>
     <row r="173" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="101"/>
-      <c r="B173" s="99"/>
-      <c r="C173" s="99"/>
-      <c r="D173" s="97"/>
+      <c r="A173" s="112"/>
+      <c r="B173" s="116"/>
+      <c r="C173" s="116"/>
+      <c r="D173" s="110"/>
       <c r="E173" s="72" t="s">
         <v>330</v>
       </c>
@@ -35131,23 +35134,25 @@
       <c r="K173" s="73"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A174" s="114"/>
-      <c r="B174" s="95"/>
-      <c r="C174" s="95"/>
-      <c r="D174" s="95"/>
-      <c r="E174" s="95"/>
-      <c r="F174" s="95"/>
-      <c r="G174" s="95"/>
-      <c r="H174" s="95"/>
-      <c r="I174" s="95"/>
-      <c r="J174" s="95"/>
-      <c r="K174" s="115"/>
+      <c r="A174" s="117"/>
+      <c r="B174" s="118"/>
+      <c r="C174" s="118"/>
+      <c r="D174" s="118"/>
+      <c r="E174" s="118"/>
+      <c r="F174" s="118"/>
+      <c r="G174" s="118"/>
+      <c r="H174" s="118"/>
+      <c r="I174" s="118"/>
+      <c r="J174" s="118"/>
+      <c r="K174" s="119"/>
     </row>
     <row r="175" spans="1:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="105"/>
-      <c r="B175" s="104"/>
-      <c r="C175" s="103"/>
-      <c r="D175" s="103"/>
+      <c r="A175" s="122">
+        <v>50</v>
+      </c>
+      <c r="B175" s="121"/>
+      <c r="C175" s="120"/>
+      <c r="D175" s="120"/>
       <c r="E175" s="72" t="s">
         <v>331</v>
       </c>
@@ -35161,10 +35166,10 @@
       <c r="K175" s="73"/>
     </row>
     <row r="176" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A176" s="105"/>
-      <c r="B176" s="104"/>
-      <c r="C176" s="103"/>
-      <c r="D176" s="103"/>
+      <c r="A176" s="122"/>
+      <c r="B176" s="121"/>
+      <c r="C176" s="120"/>
+      <c r="D176" s="120"/>
       <c r="E176" s="72" t="s">
         <v>172</v>
       </c>
@@ -35178,10 +35183,10 @@
       <c r="K176" s="73"/>
     </row>
     <row r="177" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="105"/>
-      <c r="B177" s="104"/>
-      <c r="C177" s="103"/>
-      <c r="D177" s="103"/>
+      <c r="A177" s="122"/>
+      <c r="B177" s="121"/>
+      <c r="C177" s="120"/>
+      <c r="D177" s="120"/>
       <c r="E177" s="72" t="s">
         <v>428</v>
       </c>
@@ -35195,21 +35200,21 @@
       <c r="K177" s="73"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A178" s="120"/>
-      <c r="B178" s="110"/>
-      <c r="C178" s="110"/>
-      <c r="D178" s="110"/>
+      <c r="A178" s="95"/>
+      <c r="B178" s="93"/>
+      <c r="C178" s="93"/>
+      <c r="D178" s="93"/>
       <c r="E178" s="91"/>
       <c r="F178" s="91"/>
       <c r="G178" s="91"/>
       <c r="H178" s="91"/>
       <c r="I178" s="91"/>
       <c r="J178" s="91"/>
-      <c r="K178" s="121"/>
+      <c r="K178" s="96"/>
     </row>
     <row r="179" spans="1:11" ht="28" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="83">
-        <v>113</v>
+        <v>51</v>
       </c>
       <c r="B179" s="84" t="s">
         <v>166</v>
@@ -35233,21 +35238,21 @@
       <c r="K179" s="73"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A180" s="114"/>
-      <c r="B180" s="95"/>
-      <c r="C180" s="95"/>
-      <c r="D180" s="95"/>
-      <c r="E180" s="95"/>
-      <c r="F180" s="95"/>
-      <c r="G180" s="95"/>
-      <c r="H180" s="95"/>
-      <c r="I180" s="95"/>
-      <c r="J180" s="95"/>
-      <c r="K180" s="115"/>
+      <c r="A180" s="117"/>
+      <c r="B180" s="118"/>
+      <c r="C180" s="118"/>
+      <c r="D180" s="118"/>
+      <c r="E180" s="118"/>
+      <c r="F180" s="118"/>
+      <c r="G180" s="118"/>
+      <c r="H180" s="118"/>
+      <c r="I180" s="118"/>
+      <c r="J180" s="118"/>
+      <c r="K180" s="119"/>
     </row>
     <row r="181" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A181" s="83">
-        <v>112</v>
+        <v>52</v>
       </c>
       <c r="B181" s="84" t="s">
         <v>166</v>
@@ -35271,21 +35276,21 @@
       <c r="K181" s="73"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A182" s="114"/>
-      <c r="B182" s="95"/>
-      <c r="C182" s="95"/>
-      <c r="D182" s="95"/>
-      <c r="E182" s="95"/>
-      <c r="F182" s="95"/>
-      <c r="G182" s="95"/>
-      <c r="H182" s="95"/>
-      <c r="I182" s="95"/>
-      <c r="J182" s="95"/>
-      <c r="K182" s="115"/>
+      <c r="A182" s="117"/>
+      <c r="B182" s="118"/>
+      <c r="C182" s="118"/>
+      <c r="D182" s="118"/>
+      <c r="E182" s="118"/>
+      <c r="F182" s="118"/>
+      <c r="G182" s="118"/>
+      <c r="H182" s="118"/>
+      <c r="I182" s="118"/>
+      <c r="J182" s="118"/>
+      <c r="K182" s="119"/>
     </row>
     <row r="183" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A183" s="83">
-        <v>107</v>
+        <v>53</v>
       </c>
       <c r="B183" s="84" t="s">
         <v>166</v>
@@ -35309,21 +35314,21 @@
       <c r="K183" s="73"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A184" s="120"/>
-      <c r="B184" s="110"/>
-      <c r="C184" s="110"/>
-      <c r="D184" s="110"/>
+      <c r="A184" s="95"/>
+      <c r="B184" s="93"/>
+      <c r="C184" s="93"/>
+      <c r="D184" s="93"/>
       <c r="E184" s="91"/>
       <c r="F184" s="91"/>
       <c r="G184" s="91"/>
       <c r="H184" s="91"/>
       <c r="I184" s="91"/>
       <c r="J184" s="91"/>
-      <c r="K184" s="121"/>
+      <c r="K184" s="96"/>
     </row>
     <row r="185" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A185" s="83">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="B185" s="84" t="s">
         <v>166</v>
@@ -35347,27 +35352,27 @@
       <c r="K185" s="73"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A186" s="120"/>
-      <c r="B186" s="110"/>
-      <c r="C186" s="110"/>
-      <c r="D186" s="110"/>
+      <c r="A186" s="95"/>
+      <c r="B186" s="93"/>
+      <c r="C186" s="93"/>
+      <c r="D186" s="93"/>
       <c r="E186" s="91"/>
       <c r="F186" s="91"/>
       <c r="G186" s="91"/>
       <c r="H186" s="91"/>
       <c r="I186" s="91"/>
       <c r="J186" s="91"/>
-      <c r="K186" s="121"/>
+      <c r="K186" s="96"/>
     </row>
     <row r="187" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="122">
-        <v>122</v>
-      </c>
-      <c r="B187" s="98" t="s">
+      <c r="A187" s="113">
+        <v>55</v>
+      </c>
+      <c r="B187" s="115" t="s">
         <v>166</v>
       </c>
-      <c r="C187" s="96"/>
-      <c r="D187" s="111" t="s">
+      <c r="C187" s="109"/>
+      <c r="D187" s="107" t="s">
         <v>436</v>
       </c>
       <c r="E187" s="72" t="s">
@@ -35383,11 +35388,11 @@
       <c r="K187" s="73"/>
     </row>
     <row r="188" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="123"/>
-      <c r="B188" s="99"/>
-      <c r="C188" s="97"/>
-      <c r="D188" s="112"/>
-      <c r="E188" s="113" t="s">
+      <c r="A188" s="114"/>
+      <c r="B188" s="116"/>
+      <c r="C188" s="110"/>
+      <c r="D188" s="108"/>
+      <c r="E188" s="94" t="s">
         <v>226</v>
       </c>
       <c r="F188" s="73" t="s">
@@ -35400,21 +35405,21 @@
       <c r="K188" s="73"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A189" s="114"/>
-      <c r="B189" s="95"/>
-      <c r="C189" s="95"/>
-      <c r="D189" s="95"/>
-      <c r="E189" s="95"/>
-      <c r="F189" s="95"/>
-      <c r="G189" s="95"/>
-      <c r="H189" s="95"/>
-      <c r="I189" s="95"/>
-      <c r="J189" s="95"/>
-      <c r="K189" s="115"/>
+      <c r="A189" s="117"/>
+      <c r="B189" s="118"/>
+      <c r="C189" s="118"/>
+      <c r="D189" s="118"/>
+      <c r="E189" s="118"/>
+      <c r="F189" s="118"/>
+      <c r="G189" s="118"/>
+      <c r="H189" s="118"/>
+      <c r="I189" s="118"/>
+      <c r="J189" s="118"/>
+      <c r="K189" s="119"/>
     </row>
     <row r="190" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A190" s="83">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="B190" s="73"/>
       <c r="C190" s="73"/>
@@ -35434,21 +35439,21 @@
       <c r="K190" s="73"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A191" s="114"/>
-      <c r="B191" s="95"/>
-      <c r="C191" s="95"/>
-      <c r="D191" s="95"/>
-      <c r="E191" s="95"/>
-      <c r="F191" s="95"/>
-      <c r="G191" s="95"/>
-      <c r="H191" s="95"/>
-      <c r="I191" s="95"/>
-      <c r="J191" s="95"/>
-      <c r="K191" s="115"/>
+      <c r="A191" s="117"/>
+      <c r="B191" s="118"/>
+      <c r="C191" s="118"/>
+      <c r="D191" s="118"/>
+      <c r="E191" s="118"/>
+      <c r="F191" s="118"/>
+      <c r="G191" s="118"/>
+      <c r="H191" s="118"/>
+      <c r="I191" s="118"/>
+      <c r="J191" s="118"/>
+      <c r="K191" s="119"/>
     </row>
     <row r="192" spans="1:11" ht="31" x14ac:dyDescent="0.35">
       <c r="A192" s="83">
-        <v>122</v>
+        <v>57</v>
       </c>
       <c r="B192" s="84" t="s">
         <v>166</v>
@@ -35470,27 +35475,27 @@
       <c r="K192" s="73"/>
     </row>
     <row r="193" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A193" s="114"/>
-      <c r="B193" s="95"/>
-      <c r="C193" s="95"/>
-      <c r="D193" s="95"/>
-      <c r="E193" s="95"/>
-      <c r="F193" s="95"/>
-      <c r="G193" s="95"/>
-      <c r="H193" s="95"/>
-      <c r="I193" s="95"/>
-      <c r="J193" s="95"/>
-      <c r="K193" s="115"/>
+      <c r="A193" s="117"/>
+      <c r="B193" s="118"/>
+      <c r="C193" s="118"/>
+      <c r="D193" s="118"/>
+      <c r="E193" s="118"/>
+      <c r="F193" s="118"/>
+      <c r="G193" s="118"/>
+      <c r="H193" s="118"/>
+      <c r="I193" s="118"/>
+      <c r="J193" s="118"/>
+      <c r="K193" s="119"/>
     </row>
     <row r="194" spans="1:18" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" s="100">
-        <v>122</v>
-      </c>
-      <c r="B194" s="111" t="s">
+      <c r="A194" s="111">
+        <v>58</v>
+      </c>
+      <c r="B194" s="107" t="s">
         <v>166</v>
       </c>
-      <c r="C194" s="96"/>
-      <c r="D194" s="111" t="s">
+      <c r="C194" s="109"/>
+      <c r="D194" s="107" t="s">
         <v>434</v>
       </c>
       <c r="E194" s="72" t="s">
@@ -35506,10 +35511,10 @@
       <c r="K194" s="73"/>
     </row>
     <row r="195" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="101"/>
-      <c r="B195" s="112"/>
-      <c r="C195" s="97"/>
-      <c r="D195" s="112"/>
+      <c r="A195" s="112"/>
+      <c r="B195" s="108"/>
+      <c r="C195" s="110"/>
+      <c r="D195" s="108"/>
       <c r="E195" s="72" t="s">
         <v>226</v>
       </c>
@@ -35523,21 +35528,21 @@
       <c r="K195" s="73"/>
     </row>
     <row r="196" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A196" s="114"/>
-      <c r="B196" s="95"/>
-      <c r="C196" s="95"/>
-      <c r="D196" s="95"/>
-      <c r="E196" s="95"/>
-      <c r="F196" s="95"/>
-      <c r="G196" s="95"/>
-      <c r="H196" s="95"/>
-      <c r="I196" s="95"/>
-      <c r="J196" s="95"/>
-      <c r="K196" s="115"/>
+      <c r="A196" s="117"/>
+      <c r="B196" s="118"/>
+      <c r="C196" s="118"/>
+      <c r="D196" s="118"/>
+      <c r="E196" s="118"/>
+      <c r="F196" s="118"/>
+      <c r="G196" s="118"/>
+      <c r="H196" s="118"/>
+      <c r="I196" s="118"/>
+      <c r="J196" s="118"/>
+      <c r="K196" s="119"/>
     </row>
     <row r="197" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="83">
-        <v>120</v>
+        <v>59</v>
       </c>
       <c r="B197" s="73" t="s">
         <v>108</v>
@@ -35561,21 +35566,21 @@
       <c r="K197" s="73"/>
     </row>
     <row r="198" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A198" s="114"/>
-      <c r="B198" s="95"/>
-      <c r="C198" s="95"/>
-      <c r="D198" s="95"/>
-      <c r="E198" s="95"/>
-      <c r="F198" s="95"/>
-      <c r="G198" s="95"/>
-      <c r="H198" s="95"/>
-      <c r="I198" s="95"/>
-      <c r="J198" s="95"/>
-      <c r="K198" s="115"/>
+      <c r="A198" s="117"/>
+      <c r="B198" s="118"/>
+      <c r="C198" s="118"/>
+      <c r="D198" s="118"/>
+      <c r="E198" s="118"/>
+      <c r="F198" s="118"/>
+      <c r="G198" s="118"/>
+      <c r="H198" s="118"/>
+      <c r="I198" s="118"/>
+      <c r="J198" s="118"/>
+      <c r="K198" s="119"/>
     </row>
     <row r="199" spans="1:18" ht="31" x14ac:dyDescent="0.35">
       <c r="A199" s="83">
-        <v>121</v>
+        <v>60</v>
       </c>
       <c r="B199" s="84" t="s">
         <v>166</v>
@@ -35597,21 +35602,21 @@
       <c r="K199" s="73"/>
     </row>
     <row r="200" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A200" s="114"/>
-      <c r="B200" s="95"/>
-      <c r="C200" s="95"/>
-      <c r="D200" s="95"/>
-      <c r="E200" s="95"/>
-      <c r="F200" s="95"/>
-      <c r="G200" s="95"/>
-      <c r="H200" s="95"/>
-      <c r="I200" s="95"/>
-      <c r="J200" s="95"/>
-      <c r="K200" s="115"/>
+      <c r="A200" s="117"/>
+      <c r="B200" s="118"/>
+      <c r="C200" s="118"/>
+      <c r="D200" s="118"/>
+      <c r="E200" s="118"/>
+      <c r="F200" s="118"/>
+      <c r="G200" s="118"/>
+      <c r="H200" s="118"/>
+      <c r="I200" s="118"/>
+      <c r="J200" s="118"/>
+      <c r="K200" s="119"/>
     </row>
     <row r="201" spans="1:18" ht="31" x14ac:dyDescent="0.35">
       <c r="A201" s="83">
-        <v>121</v>
+        <v>61</v>
       </c>
       <c r="B201" s="84" t="s">
         <v>166</v>
@@ -35633,21 +35638,21 @@
       <c r="K201" s="73"/>
     </row>
     <row r="202" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A202" s="114"/>
-      <c r="B202" s="95"/>
-      <c r="C202" s="95"/>
-      <c r="D202" s="95"/>
-      <c r="E202" s="95"/>
-      <c r="F202" s="95"/>
-      <c r="G202" s="95"/>
-      <c r="H202" s="95"/>
-      <c r="I202" s="95"/>
-      <c r="J202" s="95"/>
-      <c r="K202" s="115"/>
+      <c r="A202" s="117"/>
+      <c r="B202" s="118"/>
+      <c r="C202" s="118"/>
+      <c r="D202" s="118"/>
+      <c r="E202" s="118"/>
+      <c r="F202" s="118"/>
+      <c r="G202" s="118"/>
+      <c r="H202" s="118"/>
+      <c r="I202" s="118"/>
+      <c r="J202" s="118"/>
+      <c r="K202" s="119"/>
     </row>
     <row r="203" spans="1:18" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="83">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="B203" s="78" t="s">
         <v>131</v>
@@ -35671,21 +35676,21 @@
       <c r="K203" s="73"/>
     </row>
     <row r="204" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A204" s="114"/>
-      <c r="B204" s="95"/>
-      <c r="C204" s="95"/>
-      <c r="D204" s="95"/>
-      <c r="E204" s="95"/>
-      <c r="F204" s="95"/>
-      <c r="G204" s="95"/>
-      <c r="H204" s="95"/>
-      <c r="I204" s="95"/>
-      <c r="J204" s="95"/>
-      <c r="K204" s="115"/>
+      <c r="A204" s="117"/>
+      <c r="B204" s="118"/>
+      <c r="C204" s="118"/>
+      <c r="D204" s="118"/>
+      <c r="E204" s="118"/>
+      <c r="F204" s="118"/>
+      <c r="G204" s="118"/>
+      <c r="H204" s="118"/>
+      <c r="I204" s="118"/>
+      <c r="J204" s="118"/>
+      <c r="K204" s="119"/>
     </row>
     <row r="205" spans="1:18" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="124">
-        <v>119</v>
+      <c r="A205" s="97">
+        <v>63</v>
       </c>
       <c r="B205" s="73" t="s">
         <v>108</v>
@@ -35708,126 +35713,90 @@
       <c r="J205" s="73"/>
       <c r="K205" s="73"/>
     </row>
-    <row r="206" spans="1:18" s="125" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A206" s="116"/>
-      <c r="B206" s="102"/>
-      <c r="C206" s="102"/>
-      <c r="D206" s="102"/>
-      <c r="E206" s="102"/>
-      <c r="F206" s="102"/>
-      <c r="G206" s="102"/>
-      <c r="H206" s="102"/>
-      <c r="I206" s="102"/>
-      <c r="J206" s="102"/>
-      <c r="K206" s="117"/>
-      <c r="L206" s="126"/>
-      <c r="M206" s="127"/>
-      <c r="N206" s="127"/>
-      <c r="O206" s="127"/>
-      <c r="P206" s="127"/>
-      <c r="Q206" s="127"/>
-      <c r="R206" s="127"/>
+    <row r="206" spans="1:18" s="98" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A206" s="104"/>
+      <c r="B206" s="105"/>
+      <c r="C206" s="105"/>
+      <c r="D206" s="105"/>
+      <c r="E206" s="105"/>
+      <c r="F206" s="105"/>
+      <c r="G206" s="105"/>
+      <c r="H206" s="105"/>
+      <c r="I206" s="105"/>
+      <c r="J206" s="105"/>
+      <c r="K206" s="106"/>
+      <c r="L206" s="99"/>
+      <c r="M206" s="100"/>
+      <c r="N206" s="100"/>
+      <c r="O206" s="100"/>
+      <c r="P206" s="100"/>
+      <c r="Q206" s="100"/>
+      <c r="R206" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="186">
-    <mergeCell ref="A206:K206"/>
-    <mergeCell ref="D194:D195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="A187:A188"/>
-    <mergeCell ref="B187:B188"/>
-    <mergeCell ref="C187:C188"/>
-    <mergeCell ref="D187:D188"/>
-    <mergeCell ref="A161:K161"/>
-    <mergeCell ref="A163:K163"/>
-    <mergeCell ref="D149:D152"/>
-    <mergeCell ref="C149:C152"/>
-    <mergeCell ref="B149:B152"/>
-    <mergeCell ref="A149:A152"/>
-    <mergeCell ref="A153:K153"/>
-    <mergeCell ref="A154:A158"/>
-    <mergeCell ref="B154:B158"/>
-    <mergeCell ref="C154:C158"/>
-    <mergeCell ref="D154:D158"/>
-    <mergeCell ref="A144:A145"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="A148:K148"/>
-    <mergeCell ref="A141:K141"/>
-    <mergeCell ref="A143:K143"/>
-    <mergeCell ref="A146:K146"/>
-    <mergeCell ref="A159:K159"/>
-    <mergeCell ref="B86:B91"/>
-    <mergeCell ref="A86:A91"/>
-    <mergeCell ref="C86:C91"/>
-    <mergeCell ref="D86:D91"/>
-    <mergeCell ref="D98:D103"/>
-    <mergeCell ref="C98:C103"/>
-    <mergeCell ref="B98:B103"/>
-    <mergeCell ref="A98:A103"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="C107:C111"/>
-    <mergeCell ref="B107:B111"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A104:K104"/>
-    <mergeCell ref="A97:K97"/>
-    <mergeCell ref="D93:D96"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="B93:B96"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A78:K78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:C80"/>
-    <mergeCell ref="D79:D80"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A85:K85"/>
-    <mergeCell ref="A82:A84"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="D82:D84"/>
-    <mergeCell ref="A66:K66"/>
-    <mergeCell ref="A68:K68"/>
-    <mergeCell ref="A70:K70"/>
-    <mergeCell ref="A74:K74"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="D71:D73"/>
-    <mergeCell ref="A76:K76"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:A58"/>
-    <mergeCell ref="B54:B58"/>
-    <mergeCell ref="C54:C58"/>
-    <mergeCell ref="D54:D58"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="B60:B62"/>
-    <mergeCell ref="C60:C62"/>
-    <mergeCell ref="D60:D62"/>
-    <mergeCell ref="A63:K63"/>
-    <mergeCell ref="C49:C52"/>
-    <mergeCell ref="D49:D52"/>
-    <mergeCell ref="A35:K35"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="C44:C47"/>
-    <mergeCell ref="D44:D47"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="A49:A52"/>
-    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A175:A177"/>
+    <mergeCell ref="A198:K198"/>
+    <mergeCell ref="A200:K200"/>
+    <mergeCell ref="A166:K166"/>
+    <mergeCell ref="A182:K182"/>
+    <mergeCell ref="A189:K189"/>
+    <mergeCell ref="A191:K191"/>
+    <mergeCell ref="A193:K193"/>
+    <mergeCell ref="A196:K196"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="A164:A165"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="D167:D168"/>
+    <mergeCell ref="C167:C168"/>
+    <mergeCell ref="B167:B168"/>
+    <mergeCell ref="A167:A168"/>
+    <mergeCell ref="A180:K180"/>
+    <mergeCell ref="A169:K169"/>
+    <mergeCell ref="A174:K174"/>
+    <mergeCell ref="D170:D173"/>
+    <mergeCell ref="C170:C173"/>
+    <mergeCell ref="A170:A173"/>
+    <mergeCell ref="B170:B173"/>
+    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="C175:C177"/>
+    <mergeCell ref="B175:B177"/>
+    <mergeCell ref="A112:K112"/>
+    <mergeCell ref="A106:K106"/>
+    <mergeCell ref="A127:K127"/>
+    <mergeCell ref="A129:K129"/>
+    <mergeCell ref="A122:K122"/>
+    <mergeCell ref="A118:K118"/>
+    <mergeCell ref="A133:K133"/>
+    <mergeCell ref="A135:K135"/>
+    <mergeCell ref="D113:D117"/>
+    <mergeCell ref="C113:C117"/>
+    <mergeCell ref="B113:B117"/>
+    <mergeCell ref="A113:A117"/>
+    <mergeCell ref="D119:D121"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="B119:B121"/>
+    <mergeCell ref="A119:A121"/>
+    <mergeCell ref="D123:D126"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="C123:C126"/>
+    <mergeCell ref="D130:D132"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="B130:B132"/>
+    <mergeCell ref="A130:A132"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A30:K30"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="D31:D34"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="C2:C6"/>
@@ -35852,70 +35821,106 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="A28:K28"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="D31:D34"/>
-    <mergeCell ref="A112:K112"/>
-    <mergeCell ref="A106:K106"/>
-    <mergeCell ref="A127:K127"/>
-    <mergeCell ref="A129:K129"/>
-    <mergeCell ref="A122:K122"/>
-    <mergeCell ref="A118:K118"/>
-    <mergeCell ref="A133:K133"/>
-    <mergeCell ref="A135:K135"/>
-    <mergeCell ref="D113:D117"/>
-    <mergeCell ref="C113:C117"/>
-    <mergeCell ref="B113:B117"/>
-    <mergeCell ref="A113:A117"/>
-    <mergeCell ref="D119:D121"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="B119:B121"/>
-    <mergeCell ref="A119:A121"/>
-    <mergeCell ref="D123:D126"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="C123:C126"/>
-    <mergeCell ref="D130:D132"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="B130:B132"/>
-    <mergeCell ref="A130:A132"/>
-    <mergeCell ref="A166:K166"/>
-    <mergeCell ref="A182:K182"/>
-    <mergeCell ref="A189:K189"/>
-    <mergeCell ref="A191:K191"/>
-    <mergeCell ref="A193:K193"/>
-    <mergeCell ref="A196:K196"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="A164:A165"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="D167:D168"/>
-    <mergeCell ref="C167:C168"/>
-    <mergeCell ref="B167:B168"/>
-    <mergeCell ref="A167:A168"/>
-    <mergeCell ref="A180:K180"/>
-    <mergeCell ref="A169:K169"/>
-    <mergeCell ref="A174:K174"/>
-    <mergeCell ref="D170:D173"/>
-    <mergeCell ref="C170:C173"/>
-    <mergeCell ref="A170:A173"/>
-    <mergeCell ref="B170:B173"/>
-    <mergeCell ref="D175:D177"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="D49:D52"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="C44:C47"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:A58"/>
+    <mergeCell ref="B54:B58"/>
+    <mergeCell ref="C54:C58"/>
+    <mergeCell ref="D54:D58"/>
+    <mergeCell ref="A59:K59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="B60:B62"/>
+    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="D60:D62"/>
+    <mergeCell ref="A63:K63"/>
+    <mergeCell ref="A66:K66"/>
+    <mergeCell ref="A68:K68"/>
+    <mergeCell ref="A70:K70"/>
+    <mergeCell ref="A74:K74"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="D71:D73"/>
+    <mergeCell ref="A76:K76"/>
+    <mergeCell ref="A78:K78"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:C80"/>
+    <mergeCell ref="D79:D80"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="A82:A84"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="D82:D84"/>
+    <mergeCell ref="B86:B91"/>
+    <mergeCell ref="A86:A91"/>
+    <mergeCell ref="C86:C91"/>
+    <mergeCell ref="D86:D91"/>
+    <mergeCell ref="D98:D103"/>
+    <mergeCell ref="C98:C103"/>
+    <mergeCell ref="B98:B103"/>
+    <mergeCell ref="A98:A103"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="C107:C111"/>
+    <mergeCell ref="B107:B111"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A104:K104"/>
+    <mergeCell ref="A97:K97"/>
+    <mergeCell ref="D93:D96"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="B93:B96"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="A144:A145"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="A148:K148"/>
+    <mergeCell ref="A141:K141"/>
+    <mergeCell ref="A143:K143"/>
+    <mergeCell ref="A146:K146"/>
+    <mergeCell ref="A159:K159"/>
+    <mergeCell ref="A161:K161"/>
+    <mergeCell ref="A163:K163"/>
+    <mergeCell ref="D149:D152"/>
+    <mergeCell ref="C149:C152"/>
+    <mergeCell ref="B149:B152"/>
+    <mergeCell ref="A149:A152"/>
+    <mergeCell ref="A153:K153"/>
+    <mergeCell ref="A154:A158"/>
+    <mergeCell ref="B154:B158"/>
+    <mergeCell ref="C154:C158"/>
+    <mergeCell ref="D154:D158"/>
+    <mergeCell ref="A206:K206"/>
+    <mergeCell ref="D194:D195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="A187:A188"/>
+    <mergeCell ref="B187:B188"/>
+    <mergeCell ref="C187:C188"/>
+    <mergeCell ref="D187:D188"/>
     <mergeCell ref="A202:K202"/>
     <mergeCell ref="A204:K204"/>
-    <mergeCell ref="C175:C177"/>
-    <mergeCell ref="B175:B177"/>
-    <mergeCell ref="A175:A177"/>
-    <mergeCell ref="A198:K198"/>
-    <mergeCell ref="A200:K200"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
